--- a/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(ランキング画面).xlsx
+++ b/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(ランキング画面).xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'画面仕様(ランキング画面)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(ランキング画面)'!$A$1:$BV$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(ランキング画面)'!$A$1:$BV$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面仕様(ランキング画面)'!$1:$4</definedName>
     <definedName name="改訂者">変更履歴!$E$5:$E$25</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="126">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -295,10 +295,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>0.0.1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>柴</t>
     <rPh sb="0" eb="1">
       <t>シバ</t>
@@ -357,10 +353,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>【サンプル】トークテー…</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>サムネイル画像</t>
     <rPh sb="5" eb="7">
       <t>ガゾウ</t>
@@ -769,6 +761,194 @@
     <rPh sb="0" eb="1">
       <t>siba</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・トークテーマ詳細</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【サンプル】トークテーマのタイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GOOD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BAD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トーク数</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>345</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>広告</t>
+    <rPh sb="0" eb="2">
+      <t>コウコク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマ詳細</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリックするとトークテーマ詳細画面へ遷移する</t>
+    <rPh sb="15" eb="17">
+      <t>ガメｎ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマの詳細を表示する</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GOOD数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BAD数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トーク数</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GOODの数を表示する</t>
+    <rPh sb="5" eb="6">
+      <t>カズヲ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BADの数を表示する</t>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークされた数を表示する</t>
+    <rPh sb="6" eb="7">
+      <t>カズヲ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>関連タグ</t>
+    <rPh sb="0" eb="2">
+      <t>カンレンタグ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>関連するタグを表示する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリックするとそのタグの検索結果を表示する</t>
+    <rPh sb="12" eb="16">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面仕様(ランキング画面)
+・ランキング結果画面のレイアウトを変更</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメンノ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リンク</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -782,7 +962,7 @@
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +1108,27 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1158,7 +1359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1294,6 +1495,105 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1306,11 +1606,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1321,134 +1678,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1495,7 +1747,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1766,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1579,7 +1831,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1644,7 +1896,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1709,7 +1961,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1774,7 +2026,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1839,7 +2091,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1904,7 +2156,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1976,7 +2228,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2048,7 +2300,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2120,7 +2372,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2192,7 +2444,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2246,7 +2498,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2018年10月7日日曜日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2264,7 +2516,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2318,7 +2570,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2522,6 +2774,636 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5854700" y="5041900"/>
+          <a:ext cx="965200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>📎関連タグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7061200" y="5041900"/>
+          <a:ext cx="965200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>📎関連タグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="5041900"/>
+          <a:ext cx="965200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>📎関連タグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7061200" y="5524500"/>
+          <a:ext cx="965200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>📎関連タグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="5524500"/>
+          <a:ext cx="965200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>📎関連タグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9474200" y="5524500"/>
+          <a:ext cx="965200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>📎関連タグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7061200" y="7505700"/>
+          <a:ext cx="965200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>📎関連タグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="7505700"/>
+          <a:ext cx="965200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>📎関連タグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9474200" y="7505700"/>
+          <a:ext cx="965200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>📎関連タグ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2871,30 +3753,30 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -2954,33 +3836,33 @@
       </c>
     </row>
     <row r="27" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AO27" s="47">
+      <c r="AO27" s="80">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43368</v>
-      </c>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="48"/>
-      <c r="AU27" s="48"/>
-      <c r="AV27" s="48"/>
-      <c r="AW27" s="48"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="48"/>
+        <v>43380</v>
+      </c>
+      <c r="AP27" s="81"/>
+      <c r="AQ27" s="81"/>
+      <c r="AR27" s="81"/>
+      <c r="AS27" s="81"/>
+      <c r="AT27" s="81"/>
+      <c r="AU27" s="81"/>
+      <c r="AV27" s="81"/>
+      <c r="AW27" s="81"/>
+      <c r="AX27" s="81"/>
+      <c r="AY27" s="81"/>
     </row>
     <row r="28" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AR28" s="49" t="str">
+      <c r="AR28" s="82" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.1</v>
-      </c>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="49"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="49"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="49"/>
-      <c r="AY28" s="49"/>
+        <v>1.0.1</v>
+      </c>
+      <c r="AS28" s="82"/>
+      <c r="AT28" s="82"/>
+      <c r="AU28" s="82"/>
+      <c r="AV28" s="82"/>
+      <c r="AW28" s="82"/>
+      <c r="AX28" s="82"/>
+      <c r="AY28" s="82"/>
     </row>
     <row r="31" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AR31" s="6"/>
@@ -3039,23 +3921,31 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="9">
         <v>43368</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="38" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43380</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="36"/>
@@ -3183,7 +4073,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:EK68"/>
+  <dimension ref="B1:EK73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3222,7 +4112,7 @@
     </row>
     <row r="3" spans="2:141" x14ac:dyDescent="0.35">
       <c r="BX3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BY3" s="13" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -3232,10 +4122,14 @@
         <v>43367</v>
       </c>
       <c r="CA3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="CB3" s="14">
+        <v>43380</v>
+      </c>
+      <c r="CC3" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="2:141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:141" x14ac:dyDescent="0.25">
@@ -3329,7 +4223,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -3405,7 +4299,7 @@
       <c r="B9" s="15"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -3677,75 +4571,75 @@
     </row>
     <row r="14" spans="2:141" x14ac:dyDescent="0.25">
       <c r="C14" s="24"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
-      <c r="AE14" s="70"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="70"/>
-      <c r="AI14" s="70"/>
-      <c r="AJ14" s="70"/>
-      <c r="AK14" s="70"/>
-      <c r="AL14" s="70"/>
-      <c r="AM14" s="70"/>
-      <c r="AN14" s="70"/>
-      <c r="AO14" s="70"/>
-      <c r="AP14" s="70"/>
-      <c r="AQ14" s="70"/>
-      <c r="AR14" s="70"/>
-      <c r="AS14" s="70"/>
-      <c r="AT14" s="70"/>
-      <c r="AU14" s="70"/>
-      <c r="AV14" s="70"/>
-      <c r="AW14" s="70"/>
-      <c r="AX14" s="70"/>
-      <c r="AY14" s="70"/>
-      <c r="AZ14" s="70"/>
-      <c r="BA14" s="70"/>
-      <c r="BB14" s="70"/>
-      <c r="BC14" s="70"/>
-      <c r="BD14" s="70"/>
-      <c r="BE14" s="70"/>
-      <c r="BF14" s="70"/>
-      <c r="BG14" s="70"/>
-      <c r="BH14" s="70"/>
-      <c r="BI14" s="70"/>
-      <c r="BJ14" s="70"/>
-      <c r="BK14" s="70"/>
-      <c r="BL14" s="70"/>
-      <c r="BM14" s="70"/>
-      <c r="BN14" s="70"/>
-      <c r="BO14" s="70"/>
-      <c r="BP14" s="70"/>
-      <c r="BQ14" s="70"/>
-      <c r="BR14" s="70"/>
-      <c r="BS14" s="70"/>
-      <c r="BT14" s="71"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="58"/>
+      <c r="AU14" s="58"/>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="58"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="58"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="58"/>
+      <c r="BB14" s="58"/>
+      <c r="BC14" s="58"/>
+      <c r="BD14" s="58"/>
+      <c r="BE14" s="58"/>
+      <c r="BF14" s="58"/>
+      <c r="BG14" s="58"/>
+      <c r="BH14" s="58"/>
+      <c r="BI14" s="58"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="58"/>
+      <c r="BL14" s="58"/>
+      <c r="BM14" s="58"/>
+      <c r="BN14" s="58"/>
+      <c r="BO14" s="58"/>
+      <c r="BP14" s="58"/>
+      <c r="BQ14" s="58"/>
+      <c r="BR14" s="58"/>
+      <c r="BS14" s="58"/>
+      <c r="BT14" s="59"/>
       <c r="BU14" s="20"/>
       <c r="EE14" s="19"/>
       <c r="EF14" s="19"/>
@@ -3757,18 +4651,18 @@
     </row>
     <row r="15" spans="2:141" ht="23" x14ac:dyDescent="0.25">
       <c r="C15" s="24"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="79" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="67" t="s">
         <v>39</v>
-      </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="79" t="s">
-        <v>40</v>
       </c>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
@@ -3817,23 +4711,23 @@
       <c r="BE15" s="27"/>
       <c r="BF15" s="27"/>
       <c r="BG15" s="27"/>
-      <c r="BH15" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI15" s="81"/>
-      <c r="BJ15" s="81"/>
-      <c r="BK15" s="81"/>
-      <c r="BL15" s="81"/>
-      <c r="BM15" s="81"/>
-      <c r="BN15" s="81"/>
-      <c r="BO15" s="82"/>
+      <c r="BH15" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI15" s="69"/>
+      <c r="BJ15" s="69"/>
+      <c r="BK15" s="69"/>
+      <c r="BL15" s="69"/>
+      <c r="BM15" s="69"/>
+      <c r="BN15" s="69"/>
+      <c r="BO15" s="70"/>
       <c r="BP15" s="27"/>
-      <c r="BQ15" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="BR15" s="84"/>
-      <c r="BS15" s="85"/>
-      <c r="BT15" s="75"/>
+      <c r="BQ15" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="BR15" s="99"/>
+      <c r="BS15" s="100"/>
+      <c r="BT15" s="63"/>
       <c r="BU15" s="20"/>
       <c r="EE15" s="19"/>
       <c r="EF15" s="19"/>
@@ -3845,75 +4739,75 @@
     </row>
     <row r="16" spans="2:141" x14ac:dyDescent="0.25">
       <c r="C16" s="24"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="77"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="77"/>
-      <c r="AT16" s="77"/>
-      <c r="AU16" s="77"/>
-      <c r="AV16" s="77"/>
-      <c r="AW16" s="77"/>
-      <c r="AX16" s="77"/>
-      <c r="AY16" s="77"/>
-      <c r="AZ16" s="77"/>
-      <c r="BA16" s="77"/>
-      <c r="BB16" s="77"/>
-      <c r="BC16" s="77"/>
-      <c r="BD16" s="77"/>
-      <c r="BE16" s="77"/>
-      <c r="BF16" s="77"/>
-      <c r="BG16" s="77"/>
-      <c r="BH16" s="77"/>
-      <c r="BI16" s="77"/>
-      <c r="BJ16" s="77"/>
-      <c r="BK16" s="77"/>
-      <c r="BL16" s="77"/>
-      <c r="BM16" s="77"/>
-      <c r="BN16" s="77"/>
-      <c r="BO16" s="77"/>
-      <c r="BP16" s="77"/>
-      <c r="BQ16" s="77"/>
-      <c r="BR16" s="77"/>
-      <c r="BS16" s="77"/>
-      <c r="BT16" s="78"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="65"/>
+      <c r="BC16" s="65"/>
+      <c r="BD16" s="65"/>
+      <c r="BE16" s="65"/>
+      <c r="BF16" s="65"/>
+      <c r="BG16" s="65"/>
+      <c r="BH16" s="65"/>
+      <c r="BI16" s="65"/>
+      <c r="BJ16" s="65"/>
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="65"/>
+      <c r="BM16" s="65"/>
+      <c r="BN16" s="65"/>
+      <c r="BO16" s="65"/>
+      <c r="BP16" s="65"/>
+      <c r="BQ16" s="65"/>
+      <c r="BR16" s="65"/>
+      <c r="BS16" s="65"/>
+      <c r="BT16" s="66"/>
       <c r="BU16" s="20"/>
       <c r="EE16" s="19"/>
       <c r="EF16" s="19"/>
@@ -4019,76 +4913,67 @@
       <c r="EJ18" s="19"/>
       <c r="EK18" s="19"/>
     </row>
-    <row r="19" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:141" ht="23" x14ac:dyDescent="0.25">
       <c r="C19" s="24"/>
-      <c r="D19" s="89"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="68"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="68"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="16"/>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="17"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
       <c r="AX19" s="19"/>
       <c r="AY19" s="19"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="16"/>
-      <c r="BB19" s="16"/>
-      <c r="BC19" s="16"/>
-      <c r="BD19" s="16"/>
-      <c r="BE19" s="16"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="19"/>
-      <c r="BH19" s="19"/>
-      <c r="BI19" s="19"/>
-      <c r="BJ19" s="19"/>
-      <c r="BK19" s="19"/>
-      <c r="BL19" s="19"/>
-      <c r="BM19" s="19"/>
-      <c r="BN19" s="19"/>
-      <c r="BO19" s="19"/>
-      <c r="BP19" s="19"/>
-      <c r="BQ19" s="19"/>
-      <c r="BR19" s="19"/>
-      <c r="BS19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="19"/>
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="56"/>
+      <c r="BH19" s="16"/>
+      <c r="BI19" s="16"/>
+      <c r="BJ19" s="16"/>
+      <c r="BK19" s="16"/>
+      <c r="BL19" s="16"/>
+      <c r="BM19" s="16"/>
+      <c r="BN19" s="16"/>
+      <c r="BO19" s="16"/>
+      <c r="BP19" s="16"/>
+      <c r="BQ19" s="16"/>
+      <c r="BR19" s="16"/>
+      <c r="BS19" s="17"/>
       <c r="BT19" s="19"/>
       <c r="BU19" s="20"/>
       <c r="EE19" s="19"/>
@@ -4101,65 +4986,64 @@
     </row>
     <row r="20" spans="3:141" ht="23" x14ac:dyDescent="0.25">
       <c r="C20" s="24"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="74" t="s">
-        <v>47</v>
+      <c r="D20" s="74"/>
+      <c r="E20" s="62" t="s">
+        <v>45</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="18"/>
-      <c r="S20" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="18"/>
-      <c r="AB20" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="U20" s="18"/>
+      <c r="X20" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="19"/>
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
-      <c r="AE20" s="20"/>
+      <c r="AE20" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="18"/>
-      <c r="AK20" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
       <c r="AL20" s="19"/>
       <c r="AM20" s="19"/>
-      <c r="AN20" s="20"/>
+      <c r="AN20" s="19"/>
       <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="18"/>
-      <c r="AT20" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
       <c r="AU20" s="19"/>
       <c r="AV20" s="19"/>
-      <c r="AW20" s="20"/>
+      <c r="AW20" s="19"/>
       <c r="AX20" s="19"/>
       <c r="AY20" s="19"/>
-      <c r="AZ20" s="18"/>
-      <c r="BC20" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="73"/>
       <c r="BD20" s="19"/>
       <c r="BE20" s="19"/>
-      <c r="BF20" s="20"/>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
+      <c r="BF20" s="19"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="BI20" s="19"/>
       <c r="BJ20" s="19"/>
       <c r="BK20" s="19"/>
@@ -4170,7 +5054,7 @@
       <c r="BP20" s="19"/>
       <c r="BQ20" s="19"/>
       <c r="BR20" s="19"/>
-      <c r="BS20" s="19"/>
+      <c r="BS20" s="20"/>
       <c r="BT20" s="19"/>
       <c r="BU20" s="20"/>
       <c r="EE20" s="19"/>
@@ -4183,62 +5067,59 @@
     </row>
     <row r="21" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C21" s="24"/>
-      <c r="D21" s="89"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="20"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
-      <c r="Y21" s="18"/>
+      <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
+      <c r="AA21" s="20"/>
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
       <c r="AD21" s="19"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="AG21" s="19"/>
-      <c r="AH21" s="18"/>
+      <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
       <c r="AJ21" s="19"/>
       <c r="AK21" s="19"/>
       <c r="AL21" s="19"/>
       <c r="AM21" s="19"/>
-      <c r="AN21" s="20"/>
+      <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
-      <c r="AQ21" s="18"/>
+      <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
       <c r="AS21" s="19"/>
       <c r="AT21" s="19"/>
       <c r="AU21" s="19"/>
       <c r="AV21" s="19"/>
-      <c r="AW21" s="20"/>
+      <c r="AW21" s="19"/>
       <c r="AX21" s="19"/>
       <c r="AY21" s="19"/>
-      <c r="AZ21" s="18"/>
+      <c r="AZ21" s="19"/>
       <c r="BA21" s="19"/>
       <c r="BB21" s="19"/>
       <c r="BC21" s="19"/>
       <c r="BD21" s="19"/>
       <c r="BE21" s="19"/>
-      <c r="BF21" s="20"/>
-      <c r="BG21" s="19"/>
+      <c r="BF21" s="19"/>
+      <c r="BG21" s="18"/>
       <c r="BH21" s="19"/>
       <c r="BI21" s="19"/>
       <c r="BJ21" s="19"/>
@@ -4250,7 +5131,7 @@
       <c r="BP21" s="19"/>
       <c r="BQ21" s="19"/>
       <c r="BR21" s="19"/>
-      <c r="BS21" s="19"/>
+      <c r="BS21" s="20"/>
       <c r="BT21" s="19"/>
       <c r="BU21" s="20"/>
       <c r="EE21" s="19"/>
@@ -4263,64 +5144,53 @@
     </row>
     <row r="22" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C22" s="24"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="93" t="s">
-        <v>48</v>
+      <c r="D22" s="74"/>
+      <c r="E22" s="78" t="s">
+        <v>46</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="22"/>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="23"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="21"/>
-      <c r="AR22" s="22"/>
-      <c r="AS22" s="22"/>
-      <c r="AT22" s="22"/>
-      <c r="AU22" s="22"/>
-      <c r="AV22" s="22"/>
-      <c r="AW22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="19"/>
+      <c r="AE22" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH22" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL22" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO22" s="112">
+        <v>10</v>
+      </c>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
       <c r="AX22" s="19"/>
       <c r="AY22" s="19"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="22"/>
-      <c r="BB22" s="22"/>
-      <c r="BC22" s="22"/>
-      <c r="BD22" s="22"/>
-      <c r="BE22" s="22"/>
-      <c r="BF22" s="23"/>
-      <c r="BG22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="19"/>
+      <c r="BD22" s="19"/>
+      <c r="BE22" s="19"/>
+      <c r="BF22" s="19"/>
+      <c r="BG22" s="18"/>
       <c r="BH22" s="19"/>
       <c r="BI22" s="19"/>
       <c r="BJ22" s="19"/>
@@ -4332,7 +5202,7 @@
       <c r="BP22" s="19"/>
       <c r="BQ22" s="19"/>
       <c r="BR22" s="19"/>
-      <c r="BS22" s="19"/>
+      <c r="BS22" s="20"/>
       <c r="BT22" s="19"/>
       <c r="BU22" s="20"/>
       <c r="EE22" s="19"/>
@@ -4345,37 +5215,50 @@
     </row>
     <row r="23" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C23" s="24"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="P23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ23" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="U23" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE23" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH23" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="19"/>
+      <c r="BB23" s="19"/>
+      <c r="BC23" s="19"/>
+      <c r="BD23" s="19"/>
+      <c r="BE23" s="19"/>
+      <c r="BF23" s="19"/>
+      <c r="BG23" s="18"/>
+      <c r="BH23" s="19"/>
+      <c r="BI23" s="19"/>
+      <c r="BJ23" s="19"/>
+      <c r="BK23" s="19"/>
+      <c r="BL23" s="19"/>
+      <c r="BM23" s="19"/>
+      <c r="BN23" s="19"/>
       <c r="BO23" s="19"/>
       <c r="BP23" s="19"/>
       <c r="BQ23" s="19"/>
       <c r="BR23" s="19"/>
-      <c r="BS23" s="19"/>
+      <c r="BS23" s="20"/>
       <c r="BT23" s="19"/>
       <c r="BU23" s="20"/>
       <c r="EE23" s="19"/>
@@ -4388,54 +5271,65 @@
     </row>
     <row r="24" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C24" s="24"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="P24" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y24" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB24" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH24" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK24" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ24" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT24" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ24" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC24" s="86" t="s">
-        <v>43</v>
-      </c>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="U24" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="108"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="109"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="19"/>
+      <c r="BF24" s="19"/>
+      <c r="BG24" s="18"/>
+      <c r="BH24" s="19"/>
+      <c r="BI24" s="19"/>
+      <c r="BJ24" s="19"/>
+      <c r="BK24" s="19"/>
+      <c r="BL24" s="19"/>
+      <c r="BM24" s="19"/>
+      <c r="BN24" s="19"/>
       <c r="BO24" s="19"/>
       <c r="BP24" s="19"/>
       <c r="BQ24" s="19"/>
       <c r="BR24" s="19"/>
-      <c r="BS24" s="19"/>
+      <c r="BS24" s="20"/>
       <c r="BT24" s="19"/>
       <c r="BU24" s="20"/>
       <c r="EE24" s="19"/>
@@ -4448,24 +5342,61 @@
     </row>
     <row r="25" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C25" s="24"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="19"/>
+      <c r="BB25" s="19"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="19"/>
+      <c r="BE25" s="19"/>
+      <c r="BF25" s="19"/>
+      <c r="BG25" s="18"/>
+      <c r="BH25" s="19"/>
+      <c r="BI25" s="19"/>
+      <c r="BJ25" s="19"/>
+      <c r="BK25" s="19"/>
+      <c r="BL25" s="19"/>
+      <c r="BM25" s="19"/>
+      <c r="BN25" s="19"/>
       <c r="BO25" s="19"/>
       <c r="BP25" s="19"/>
       <c r="BQ25" s="19"/>
       <c r="BR25" s="19"/>
-      <c r="BS25" s="19"/>
+      <c r="BS25" s="20"/>
       <c r="BT25" s="19"/>
       <c r="BU25" s="20"/>
       <c r="EE25" s="19"/>
@@ -4478,24 +5409,61 @@
     </row>
     <row r="26" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C26" s="24"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="19"/>
+      <c r="BF26" s="19"/>
+      <c r="BG26" s="18"/>
+      <c r="BH26" s="19"/>
+      <c r="BI26" s="19"/>
+      <c r="BJ26" s="19"/>
+      <c r="BK26" s="19"/>
+      <c r="BL26" s="19"/>
+      <c r="BM26" s="19"/>
+      <c r="BN26" s="19"/>
       <c r="BO26" s="19"/>
       <c r="BP26" s="19"/>
       <c r="BQ26" s="19"/>
       <c r="BR26" s="19"/>
-      <c r="BS26" s="19"/>
+      <c r="BS26" s="20"/>
       <c r="BT26" s="19"/>
       <c r="BU26" s="20"/>
       <c r="EE26" s="19"/>
@@ -4506,69 +5474,68 @@
       <c r="EJ26" s="19"/>
       <c r="EK26" s="19"/>
     </row>
-    <row r="27" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:141" ht="23" x14ac:dyDescent="0.25">
       <c r="C27" s="24"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="68"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="19"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="16"/>
-      <c r="AS27" s="16"/>
-      <c r="AT27" s="16"/>
-      <c r="AU27" s="16"/>
-      <c r="AV27" s="16"/>
-      <c r="AW27" s="17"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
       <c r="AX27" s="19"/>
       <c r="AY27" s="19"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="16"/>
-      <c r="BB27" s="16"/>
-      <c r="BC27" s="16"/>
-      <c r="BD27" s="16"/>
-      <c r="BE27" s="16"/>
-      <c r="BF27" s="17"/>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="19"/>
+      <c r="BB27" s="19"/>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="19"/>
+      <c r="BE27" s="19"/>
+      <c r="BF27" s="19"/>
+      <c r="BG27" s="18"/>
+      <c r="BH27" s="19"/>
+      <c r="BI27" s="19"/>
+      <c r="BJ27" s="19"/>
+      <c r="BK27" s="19"/>
+      <c r="BL27" s="19"/>
+      <c r="BM27" s="19"/>
+      <c r="BN27" s="19"/>
       <c r="BO27" s="19"/>
       <c r="BP27" s="19"/>
       <c r="BQ27" s="19"/>
       <c r="BR27" s="19"/>
-      <c r="BS27" s="19"/>
+      <c r="BS27" s="20"/>
       <c r="BT27" s="19"/>
       <c r="BU27" s="19"/>
       <c r="BV27" s="18"/>
@@ -4583,67 +5550,72 @@
     </row>
     <row r="28" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C28" s="24"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="P28" s="18"/>
-      <c r="S28" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="18"/>
-      <c r="AB28" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="U28" s="18"/>
+      <c r="X28" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
-      <c r="AE28" s="20"/>
+      <c r="AE28" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="18"/>
-      <c r="AK28" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="AG28" s="73"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="19"/>
       <c r="AM28" s="19"/>
-      <c r="AN28" s="20"/>
+      <c r="AN28" s="19"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="19"/>
-      <c r="AQ28" s="18"/>
-      <c r="AT28" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="AP28" s="73"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
       <c r="AU28" s="19"/>
       <c r="AV28" s="19"/>
-      <c r="AW28" s="20"/>
+      <c r="AW28" s="19"/>
       <c r="AX28" s="19"/>
       <c r="AY28" s="19"/>
-      <c r="AZ28" s="18"/>
-      <c r="BC28" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="73"/>
       <c r="BD28" s="19"/>
       <c r="BE28" s="19"/>
-      <c r="BF28" s="20"/>
+      <c r="BF28" s="19"/>
+      <c r="BG28" s="18"/>
+      <c r="BH28" s="19"/>
+      <c r="BI28" s="19"/>
+      <c r="BJ28" s="19"/>
+      <c r="BK28" s="19"/>
+      <c r="BL28" s="19"/>
+      <c r="BM28" s="19"/>
+      <c r="BN28" s="19"/>
       <c r="BO28" s="19"/>
       <c r="BP28" s="19"/>
       <c r="BQ28" s="19"/>
       <c r="BR28" s="19"/>
-      <c r="BS28" s="19"/>
+      <c r="BS28" s="20"/>
       <c r="BT28" s="19"/>
       <c r="BU28" s="19"/>
       <c r="BV28" s="18"/>
@@ -4658,67 +5630,72 @@
     </row>
     <row r="29" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C29" s="24"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="20"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="19"/>
       <c r="W29" s="19"/>
       <c r="X29" s="19"/>
-      <c r="Y29" s="18"/>
+      <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
+      <c r="AA29" s="20"/>
       <c r="AB29" s="19"/>
       <c r="AC29" s="19"/>
       <c r="AD29" s="19"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="AG29" s="19"/>
-      <c r="AH29" s="18"/>
+      <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="19"/>
       <c r="AL29" s="19"/>
       <c r="AM29" s="19"/>
-      <c r="AN29" s="20"/>
+      <c r="AN29" s="19"/>
       <c r="AO29" s="19"/>
       <c r="AP29" s="19"/>
-      <c r="AQ29" s="18"/>
+      <c r="AQ29" s="19"/>
       <c r="AR29" s="19"/>
       <c r="AS29" s="19"/>
       <c r="AT29" s="19"/>
       <c r="AU29" s="19"/>
       <c r="AV29" s="19"/>
-      <c r="AW29" s="20"/>
+      <c r="AW29" s="19"/>
       <c r="AX29" s="19"/>
       <c r="AY29" s="19"/>
-      <c r="AZ29" s="18"/>
+      <c r="AZ29" s="19"/>
       <c r="BA29" s="19"/>
       <c r="BB29" s="19"/>
       <c r="BC29" s="19"/>
       <c r="BD29" s="19"/>
       <c r="BE29" s="19"/>
-      <c r="BF29" s="20"/>
+      <c r="BF29" s="19"/>
+      <c r="BG29" s="18"/>
+      <c r="BH29" s="19"/>
+      <c r="BI29" s="19"/>
+      <c r="BJ29" s="19"/>
+      <c r="BK29" s="19"/>
+      <c r="BL29" s="19"/>
+      <c r="BM29" s="19"/>
+      <c r="BN29" s="19"/>
       <c r="BO29" s="19"/>
       <c r="BP29" s="19"/>
       <c r="BQ29" s="19"/>
       <c r="BR29" s="19"/>
-      <c r="BS29" s="19"/>
+      <c r="BS29" s="20"/>
       <c r="BT29" s="19"/>
       <c r="BU29" s="19"/>
       <c r="BV29" s="18"/>
@@ -4733,65 +5710,62 @@
     </row>
     <row r="30" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C30" s="24"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="21"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
       <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="23"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="22"/>
-      <c r="AL30" s="22"/>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="23"/>
-      <c r="AO30" s="19"/>
-      <c r="AP30" s="19"/>
-      <c r="AQ30" s="21"/>
-      <c r="AR30" s="22"/>
-      <c r="AS30" s="22"/>
-      <c r="AT30" s="22"/>
-      <c r="AU30" s="22"/>
-      <c r="AV30" s="22"/>
-      <c r="AW30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="19"/>
+      <c r="AE30" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH30" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL30" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO30" s="112">
+        <v>10</v>
+      </c>
+      <c r="AU30" s="19"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
       <c r="AX30" s="19"/>
       <c r="AY30" s="19"/>
-      <c r="AZ30" s="21"/>
-      <c r="BA30" s="22"/>
-      <c r="BB30" s="22"/>
-      <c r="BC30" s="22"/>
-      <c r="BD30" s="22"/>
-      <c r="BE30" s="22"/>
-      <c r="BF30" s="23"/>
+      <c r="AZ30" s="19"/>
+      <c r="BA30" s="19"/>
+      <c r="BB30" s="19"/>
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="19"/>
+      <c r="BE30" s="19"/>
+      <c r="BF30" s="19"/>
+      <c r="BG30" s="18"/>
+      <c r="BH30" s="19"/>
+      <c r="BI30" s="19"/>
+      <c r="BJ30" s="19"/>
+      <c r="BK30" s="19"/>
+      <c r="BL30" s="19"/>
+      <c r="BM30" s="19"/>
+      <c r="BN30" s="19"/>
       <c r="BO30" s="19"/>
       <c r="BP30" s="19"/>
       <c r="BQ30" s="19"/>
       <c r="BR30" s="19"/>
-      <c r="BS30" s="19"/>
+      <c r="BS30" s="20"/>
       <c r="BT30" s="19"/>
       <c r="BU30" s="19"/>
       <c r="BV30" s="18"/>
@@ -4806,41 +5780,54 @@
     </row>
     <row r="31" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C31" s="24"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" s="89"/>
-      <c r="P31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ31" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="74"/>
+      <c r="U31" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE31" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH31" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="19"/>
+      <c r="BA31" s="19"/>
+      <c r="BB31" s="19"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="19"/>
+      <c r="BE31" s="19"/>
+      <c r="BF31" s="19"/>
+      <c r="BG31" s="18"/>
+      <c r="BH31" s="19"/>
+      <c r="BI31" s="19"/>
+      <c r="BJ31" s="19"/>
+      <c r="BK31" s="19"/>
+      <c r="BL31" s="19"/>
+      <c r="BM31" s="19"/>
+      <c r="BN31" s="19"/>
       <c r="BO31" s="19"/>
       <c r="BP31" s="19"/>
       <c r="BQ31" s="19"/>
       <c r="BR31" s="19"/>
-      <c r="BS31" s="19"/>
+      <c r="BS31" s="20"/>
       <c r="BT31" s="19"/>
       <c r="BU31" s="20"/>
       <c r="EE31" s="19"/>
@@ -4853,52 +5840,63 @@
     </row>
     <row r="32" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C32" s="24"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="P32" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="S32" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y32" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB32" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH32" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK32" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ32" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT32" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ32" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC32" s="86" t="s">
-        <v>43</v>
-      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="U32" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="108"/>
+      <c r="BA32" s="19"/>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="109"/>
+      <c r="BD32" s="19"/>
+      <c r="BE32" s="19"/>
+      <c r="BF32" s="19"/>
+      <c r="BG32" s="18"/>
+      <c r="BH32" s="19"/>
+      <c r="BI32" s="19"/>
+      <c r="BJ32" s="19"/>
+      <c r="BK32" s="19"/>
+      <c r="BL32" s="19"/>
+      <c r="BM32" s="19"/>
+      <c r="BN32" s="19"/>
       <c r="BO32" s="19"/>
       <c r="BP32" s="19"/>
       <c r="BQ32" s="19"/>
       <c r="BR32" s="19"/>
-      <c r="BS32" s="19"/>
+      <c r="BS32" s="20"/>
       <c r="BT32" s="19"/>
       <c r="BU32" s="20"/>
       <c r="EE32" s="19"/>
@@ -4911,24 +5909,61 @@
     </row>
     <row r="33" spans="2:141" x14ac:dyDescent="0.25">
       <c r="C33" s="24"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="94" t="s">
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="89"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="74"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="19"/>
+      <c r="AZ33" s="19"/>
+      <c r="BA33" s="19"/>
+      <c r="BB33" s="19"/>
+      <c r="BC33" s="19"/>
+      <c r="BD33" s="19"/>
+      <c r="BE33" s="19"/>
+      <c r="BF33" s="19"/>
+      <c r="BG33" s="18"/>
+      <c r="BH33" s="19"/>
+      <c r="BI33" s="19"/>
+      <c r="BJ33" s="19"/>
+      <c r="BK33" s="19"/>
+      <c r="BL33" s="19"/>
+      <c r="BM33" s="19"/>
+      <c r="BN33" s="19"/>
       <c r="BO33" s="19"/>
       <c r="BP33" s="19"/>
       <c r="BQ33" s="19"/>
       <c r="BR33" s="19"/>
-      <c r="BS33" s="19"/>
+      <c r="BS33" s="20"/>
       <c r="BT33" s="19"/>
       <c r="BU33" s="20"/>
       <c r="EE33" s="19"/>
@@ -4941,22 +5976,59 @@
     </row>
     <row r="34" spans="2:141" x14ac:dyDescent="0.25">
       <c r="C34" s="24"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19"/>
+      <c r="BA34" s="19"/>
+      <c r="BB34" s="19"/>
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="19"/>
+      <c r="BE34" s="19"/>
+      <c r="BF34" s="19"/>
+      <c r="BG34" s="18"/>
+      <c r="BH34" s="19"/>
+      <c r="BI34" s="19"/>
+      <c r="BJ34" s="19"/>
+      <c r="BK34" s="19"/>
+      <c r="BL34" s="19"/>
+      <c r="BM34" s="19"/>
+      <c r="BN34" s="19"/>
       <c r="BO34" s="19"/>
       <c r="BP34" s="19"/>
       <c r="BQ34" s="19"/>
       <c r="BR34" s="19"/>
-      <c r="BS34" s="19"/>
+      <c r="BS34" s="20"/>
       <c r="BT34" s="19"/>
       <c r="BU34" s="20"/>
       <c r="EE34" s="19"/>
@@ -4967,56 +6039,55 @@
       <c r="EJ34" s="19"/>
       <c r="EK34" s="19"/>
     </row>
-    <row r="35" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:141" ht="23" x14ac:dyDescent="0.25">
       <c r="C35" s="24"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="68"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="68"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="19"/>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="19"/>
       <c r="AO35" s="19"/>
       <c r="AP35" s="19"/>
-      <c r="AQ35" s="68"/>
-      <c r="AR35" s="16"/>
-      <c r="AS35" s="16"/>
-      <c r="AT35" s="16"/>
-      <c r="AU35" s="16"/>
-      <c r="AV35" s="16"/>
-      <c r="AW35" s="17"/>
+      <c r="AQ35" s="19"/>
+      <c r="AR35" s="19"/>
+      <c r="AS35" s="19"/>
+      <c r="AT35" s="19"/>
+      <c r="AU35" s="19"/>
+      <c r="AV35" s="19"/>
+      <c r="AW35" s="19"/>
       <c r="AX35" s="19"/>
       <c r="AY35" s="19"/>
-      <c r="AZ35" s="68"/>
-      <c r="BA35" s="16"/>
-      <c r="BB35" s="16"/>
-      <c r="BC35" s="16"/>
-      <c r="BD35" s="16"/>
-      <c r="BE35" s="16"/>
-      <c r="BF35" s="17"/>
+      <c r="AZ35" s="19"/>
+      <c r="BA35" s="19"/>
+      <c r="BB35" s="19"/>
+      <c r="BC35" s="19"/>
+      <c r="BD35" s="19"/>
+      <c r="BE35" s="19"/>
+      <c r="BF35" s="19"/>
+      <c r="BG35" s="18"/>
+      <c r="BH35" s="19"/>
+      <c r="BI35" s="19"/>
+      <c r="BJ35" s="19"/>
+      <c r="BK35" s="19"/>
+      <c r="BL35" s="19"/>
+      <c r="BM35" s="19"/>
+      <c r="BN35" s="19"/>
       <c r="BO35" s="19"/>
       <c r="BP35" s="19"/>
       <c r="BQ35" s="19"/>
       <c r="BR35" s="19"/>
-      <c r="BS35" s="19"/>
+      <c r="BS35" s="20"/>
       <c r="BT35" s="19"/>
       <c r="BU35" s="20"/>
       <c r="EE35" s="19"/>
@@ -5029,54 +6100,59 @@
     </row>
     <row r="36" spans="2:141" x14ac:dyDescent="0.25">
       <c r="C36" s="24"/>
-      <c r="P36" s="18"/>
-      <c r="S36" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="18"/>
-      <c r="AB36" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="U36" s="18"/>
+      <c r="X36" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="19"/>
       <c r="AC36" s="19"/>
       <c r="AD36" s="19"/>
-      <c r="AE36" s="20"/>
+      <c r="AE36" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="18"/>
-      <c r="AK36" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="AG36" s="73"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="19"/>
       <c r="AL36" s="19"/>
       <c r="AM36" s="19"/>
-      <c r="AN36" s="20"/>
+      <c r="AN36" s="19"/>
       <c r="AO36" s="19"/>
-      <c r="AP36" s="19"/>
-      <c r="AQ36" s="18"/>
-      <c r="AT36" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="AP36" s="73"/>
+      <c r="AQ36" s="19"/>
+      <c r="AR36" s="19"/>
+      <c r="AS36" s="19"/>
+      <c r="AT36" s="19"/>
       <c r="AU36" s="19"/>
       <c r="AV36" s="19"/>
-      <c r="AW36" s="20"/>
+      <c r="AW36" s="19"/>
       <c r="AX36" s="19"/>
       <c r="AY36" s="19"/>
-      <c r="AZ36" s="18"/>
-      <c r="BC36" s="88" t="s">
-        <v>46</v>
-      </c>
+      <c r="AZ36" s="19"/>
+      <c r="BA36" s="19"/>
+      <c r="BB36" s="19"/>
+      <c r="BC36" s="73"/>
       <c r="BD36" s="19"/>
       <c r="BE36" s="19"/>
-      <c r="BF36" s="20"/>
+      <c r="BF36" s="19"/>
+      <c r="BG36" s="18"/>
+      <c r="BH36" s="19"/>
+      <c r="BI36" s="19"/>
+      <c r="BJ36" s="19"/>
+      <c r="BK36" s="19"/>
+      <c r="BL36" s="19"/>
+      <c r="BM36" s="19"/>
+      <c r="BN36" s="19"/>
       <c r="BO36" s="19"/>
       <c r="BP36" s="19"/>
       <c r="BQ36" s="19"/>
       <c r="BR36" s="19"/>
-      <c r="BS36" s="19"/>
+      <c r="BS36" s="20"/>
       <c r="BT36" s="19"/>
       <c r="BU36" s="20"/>
       <c r="EE36" s="19"/>
@@ -5089,54 +6165,59 @@
     </row>
     <row r="37" spans="2:141" x14ac:dyDescent="0.25">
       <c r="C37" s="24"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="20"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="19"/>
       <c r="W37" s="19"/>
       <c r="X37" s="19"/>
-      <c r="Y37" s="18"/>
+      <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
+      <c r="AA37" s="20"/>
       <c r="AB37" s="19"/>
       <c r="AC37" s="19"/>
       <c r="AD37" s="19"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="AG37" s="19"/>
-      <c r="AH37" s="18"/>
+      <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
       <c r="AJ37" s="19"/>
       <c r="AK37" s="19"/>
       <c r="AL37" s="19"/>
       <c r="AM37" s="19"/>
-      <c r="AN37" s="20"/>
+      <c r="AN37" s="19"/>
       <c r="AO37" s="19"/>
       <c r="AP37" s="19"/>
-      <c r="AQ37" s="18"/>
+      <c r="AQ37" s="19"/>
       <c r="AR37" s="19"/>
       <c r="AS37" s="19"/>
       <c r="AT37" s="19"/>
       <c r="AU37" s="19"/>
       <c r="AV37" s="19"/>
-      <c r="AW37" s="20"/>
+      <c r="AW37" s="19"/>
       <c r="AX37" s="19"/>
       <c r="AY37" s="19"/>
-      <c r="AZ37" s="18"/>
+      <c r="AZ37" s="19"/>
       <c r="BA37" s="19"/>
       <c r="BB37" s="19"/>
       <c r="BC37" s="19"/>
       <c r="BD37" s="19"/>
       <c r="BE37" s="19"/>
-      <c r="BF37" s="20"/>
+      <c r="BF37" s="19"/>
+      <c r="BG37" s="18"/>
+      <c r="BH37" s="19"/>
+      <c r="BI37" s="19"/>
+      <c r="BJ37" s="19"/>
+      <c r="BK37" s="19"/>
+      <c r="BL37" s="19"/>
+      <c r="BM37" s="19"/>
+      <c r="BN37" s="19"/>
       <c r="BO37" s="19"/>
       <c r="BP37" s="19"/>
       <c r="BQ37" s="19"/>
       <c r="BR37" s="19"/>
-      <c r="BS37" s="19"/>
+      <c r="BS37" s="20"/>
       <c r="BT37" s="19"/>
       <c r="BU37" s="20"/>
       <c r="EE37" s="19"/>
@@ -5149,54 +6230,51 @@
     </row>
     <row r="38" spans="2:141" x14ac:dyDescent="0.25">
       <c r="C38" s="24"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="23"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="23"/>
-      <c r="AO38" s="19"/>
-      <c r="AP38" s="19"/>
-      <c r="AQ38" s="21"/>
-      <c r="AR38" s="22"/>
-      <c r="AS38" s="22"/>
-      <c r="AT38" s="22"/>
-      <c r="AU38" s="22"/>
-      <c r="AV38" s="22"/>
-      <c r="AW38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="19"/>
+      <c r="AE38" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH38" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL38" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO38" s="112">
+        <v>10</v>
+      </c>
+      <c r="AU38" s="19"/>
+      <c r="AV38" s="19"/>
+      <c r="AW38" s="19"/>
       <c r="AX38" s="19"/>
       <c r="AY38" s="19"/>
-      <c r="AZ38" s="21"/>
-      <c r="BA38" s="22"/>
-      <c r="BB38" s="22"/>
-      <c r="BC38" s="22"/>
-      <c r="BD38" s="22"/>
-      <c r="BE38" s="22"/>
-      <c r="BF38" s="23"/>
+      <c r="AZ38" s="19"/>
+      <c r="BA38" s="19"/>
+      <c r="BB38" s="19"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="19"/>
+      <c r="BF38" s="19"/>
+      <c r="BG38" s="18"/>
+      <c r="BH38" s="19"/>
+      <c r="BI38" s="19"/>
+      <c r="BJ38" s="19"/>
+      <c r="BK38" s="19"/>
+      <c r="BL38" s="19"/>
+      <c r="BM38" s="19"/>
+      <c r="BN38" s="19"/>
       <c r="BO38" s="19"/>
       <c r="BP38" s="19"/>
       <c r="BQ38" s="19"/>
       <c r="BR38" s="19"/>
-      <c r="BS38" s="19"/>
+      <c r="BS38" s="20"/>
       <c r="BT38" s="19"/>
       <c r="BU38" s="20"/>
       <c r="EE38" s="19"/>
@@ -5209,26 +6287,39 @@
     </row>
     <row r="39" spans="2:141" x14ac:dyDescent="0.25">
       <c r="C39" s="24"/>
-      <c r="P39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ39" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="U39" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE39" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH39" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="19"/>
+      <c r="AY39" s="19"/>
+      <c r="AZ39" s="19"/>
+      <c r="BA39" s="19"/>
+      <c r="BB39" s="19"/>
+      <c r="BC39" s="19"/>
+      <c r="BD39" s="19"/>
+      <c r="BE39" s="19"/>
+      <c r="BF39" s="19"/>
+      <c r="BG39" s="18"/>
+      <c r="BH39" s="19"/>
+      <c r="BI39" s="19"/>
+      <c r="BJ39" s="19"/>
+      <c r="BK39" s="19"/>
+      <c r="BL39" s="19"/>
+      <c r="BM39" s="19"/>
+      <c r="BN39" s="19"/>
       <c r="BO39" s="19"/>
       <c r="BP39" s="19"/>
       <c r="BQ39" s="19"/>
       <c r="BR39" s="19"/>
-      <c r="BS39" s="19"/>
+      <c r="BS39" s="20"/>
       <c r="BT39" s="19"/>
       <c r="BU39" s="20"/>
       <c r="EE39" s="19"/>
@@ -5241,41 +6332,52 @@
     </row>
     <row r="40" spans="2:141" x14ac:dyDescent="0.25">
       <c r="C40" s="24"/>
-      <c r="P40" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="S40" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y40" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB40" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH40" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK40" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ40" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT40" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ40" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC40" s="86" t="s">
-        <v>43</v>
-      </c>
+      <c r="U40" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="19"/>
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="19"/>
+      <c r="AV40" s="19"/>
+      <c r="AW40" s="19"/>
+      <c r="AX40" s="19"/>
+      <c r="AY40" s="19"/>
+      <c r="AZ40" s="108"/>
+      <c r="BA40" s="19"/>
+      <c r="BB40" s="19"/>
+      <c r="BC40" s="109"/>
+      <c r="BD40" s="19"/>
+      <c r="BE40" s="19"/>
+      <c r="BF40" s="19"/>
+      <c r="BG40" s="18"/>
+      <c r="BH40" s="19"/>
+      <c r="BI40" s="19"/>
+      <c r="BJ40" s="19"/>
+      <c r="BK40" s="19"/>
+      <c r="BL40" s="19"/>
+      <c r="BM40" s="19"/>
+      <c r="BN40" s="19"/>
       <c r="BO40" s="19"/>
       <c r="BP40" s="19"/>
       <c r="BQ40" s="19"/>
       <c r="BR40" s="19"/>
-      <c r="BS40" s="19"/>
+      <c r="BS40" s="20"/>
       <c r="BT40" s="19"/>
       <c r="BU40" s="20"/>
       <c r="EE40" s="19"/>
@@ -5288,11 +6390,19 @@
     </row>
     <row r="41" spans="2:141" x14ac:dyDescent="0.25">
       <c r="C41" s="24"/>
+      <c r="BG41" s="18"/>
+      <c r="BH41" s="19"/>
+      <c r="BI41" s="19"/>
+      <c r="BJ41" s="19"/>
+      <c r="BK41" s="19"/>
+      <c r="BL41" s="19"/>
+      <c r="BM41" s="19"/>
+      <c r="BN41" s="19"/>
       <c r="BO41" s="19"/>
       <c r="BP41" s="19"/>
       <c r="BQ41" s="19"/>
       <c r="BR41" s="19"/>
-      <c r="BS41" s="19"/>
+      <c r="BS41" s="20"/>
       <c r="BT41" s="19"/>
       <c r="BU41" s="20"/>
       <c r="EE41" s="19"/>
@@ -5305,12 +6415,20 @@
     </row>
     <row r="42" spans="2:141" x14ac:dyDescent="0.25">
       <c r="C42" s="24"/>
-      <c r="AJ42" s="95"/>
-      <c r="BO42" s="19"/>
-      <c r="BP42" s="19"/>
-      <c r="BQ42" s="19"/>
-      <c r="BR42" s="19"/>
-      <c r="BS42" s="19"/>
+      <c r="AJ42" s="79"/>
+      <c r="BG42" s="21"/>
+      <c r="BH42" s="22"/>
+      <c r="BI42" s="22"/>
+      <c r="BJ42" s="22"/>
+      <c r="BK42" s="22"/>
+      <c r="BL42" s="22"/>
+      <c r="BM42" s="22"/>
+      <c r="BN42" s="22"/>
+      <c r="BO42" s="22"/>
+      <c r="BP42" s="22"/>
+      <c r="BQ42" s="22"/>
+      <c r="BR42" s="22"/>
+      <c r="BS42" s="23"/>
       <c r="BT42" s="19"/>
       <c r="BU42" s="19"/>
       <c r="BV42" s="18"/>
@@ -5559,10 +6677,10 @@
       <c r="BU46" s="19"/>
     </row>
     <row r="47" spans="2:141" x14ac:dyDescent="0.25">
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="60"/>
+      <c r="D47" s="104"/>
       <c r="E47" s="32" t="s">
         <v>19</v>
       </c>
@@ -5651,106 +6769,106 @@
     </row>
     <row r="48" spans="2:141" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="35"/>
-      <c r="C48" s="61">
+      <c r="C48" s="87">
         <f>ROW()-ROW($C$47)</f>
         <v>1</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="54"/>
-      <c r="AB48" s="54"/>
-      <c r="AC48" s="54"/>
-      <c r="AD48" s="54"/>
-      <c r="AE48" s="55"/>
-      <c r="AF48" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG48" s="63"/>
-      <c r="AH48" s="63"/>
-      <c r="AI48" s="63"/>
-      <c r="AJ48" s="63"/>
-      <c r="AK48" s="63"/>
-      <c r="AL48" s="63"/>
-      <c r="AM48" s="63"/>
-      <c r="AN48" s="52"/>
-      <c r="AO48" s="51" t="s">
+      <c r="D48" s="88"/>
+      <c r="E48" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="O48" s="106"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="106"/>
+      <c r="R48" s="106"/>
+      <c r="S48" s="106"/>
+      <c r="T48" s="106"/>
+      <c r="U48" s="106"/>
+      <c r="V48" s="106"/>
+      <c r="W48" s="106"/>
+      <c r="X48" s="106"/>
+      <c r="Y48" s="106"/>
+      <c r="Z48" s="106"/>
+      <c r="AA48" s="106"/>
+      <c r="AB48" s="106"/>
+      <c r="AC48" s="106"/>
+      <c r="AD48" s="106"/>
+      <c r="AE48" s="107"/>
+      <c r="AF48" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG48" s="90"/>
+      <c r="AH48" s="90"/>
+      <c r="AI48" s="90"/>
+      <c r="AJ48" s="90"/>
+      <c r="AK48" s="90"/>
+      <c r="AL48" s="90"/>
+      <c r="AM48" s="90"/>
+      <c r="AN48" s="91"/>
+      <c r="AO48" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP48" s="90"/>
+      <c r="AQ48" s="90"/>
+      <c r="AR48" s="90"/>
+      <c r="AS48" s="91"/>
+      <c r="AT48" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="AP48" s="63"/>
-      <c r="AQ48" s="63"/>
-      <c r="AR48" s="63"/>
-      <c r="AS48" s="52"/>
-      <c r="AT48" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU48" s="63"/>
-      <c r="AV48" s="63"/>
-      <c r="AW48" s="52"/>
-      <c r="AX48" s="51" t="s">
+      <c r="AU48" s="90"/>
+      <c r="AV48" s="90"/>
+      <c r="AW48" s="91"/>
+      <c r="AX48" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY48" s="90"/>
+      <c r="AZ48" s="90"/>
+      <c r="BA48" s="90"/>
+      <c r="BB48" s="90"/>
+      <c r="BC48" s="91"/>
+      <c r="BD48" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE48" s="91"/>
+      <c r="BF48" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="AY48" s="63"/>
-      <c r="AZ48" s="63"/>
-      <c r="BA48" s="63"/>
-      <c r="BB48" s="63"/>
-      <c r="BC48" s="52"/>
-      <c r="BD48" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE48" s="52"/>
-      <c r="BF48" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="BG48" s="63"/>
-      <c r="BH48" s="63"/>
-      <c r="BI48" s="63"/>
-      <c r="BJ48" s="63"/>
-      <c r="BK48" s="63"/>
-      <c r="BL48" s="63"/>
-      <c r="BM48" s="63"/>
-      <c r="BN48" s="63"/>
-      <c r="BO48" s="63"/>
-      <c r="BP48" s="63"/>
-      <c r="BQ48" s="63"/>
-      <c r="BR48" s="63"/>
-      <c r="BS48" s="63"/>
-      <c r="BT48" s="63"/>
-      <c r="BU48" s="52"/>
+      <c r="BG48" s="90"/>
+      <c r="BH48" s="90"/>
+      <c r="BI48" s="90"/>
+      <c r="BJ48" s="90"/>
+      <c r="BK48" s="90"/>
+      <c r="BL48" s="90"/>
+      <c r="BM48" s="90"/>
+      <c r="BN48" s="90"/>
+      <c r="BO48" s="90"/>
+      <c r="BP48" s="90"/>
+      <c r="BQ48" s="90"/>
+      <c r="BR48" s="90"/>
+      <c r="BS48" s="90"/>
+      <c r="BT48" s="90"/>
+      <c r="BU48" s="91"/>
     </row>
     <row r="49" spans="2:73" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="35"/>
-      <c r="C49" s="61">
+      <c r="C49" s="87">
         <f>ROW()-ROW($C$47)</f>
         <v>2</v>
       </c>
-      <c r="D49" s="62"/>
+      <c r="D49" s="88"/>
       <c r="E49" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
@@ -5760,90 +6878,90 @@
       <c r="K49" s="45"/>
       <c r="L49" s="45"/>
       <c r="M49" s="46"/>
-      <c r="N49" s="51" t="s">
+      <c r="N49" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="90"/>
+      <c r="U49" s="90"/>
+      <c r="V49" s="90"/>
+      <c r="W49" s="90"/>
+      <c r="X49" s="90"/>
+      <c r="Y49" s="90"/>
+      <c r="Z49" s="90"/>
+      <c r="AA49" s="90"/>
+      <c r="AB49" s="90"/>
+      <c r="AC49" s="90"/>
+      <c r="AD49" s="90"/>
+      <c r="AE49" s="91"/>
+      <c r="AF49" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG49" s="90"/>
+      <c r="AH49" s="90"/>
+      <c r="AI49" s="90"/>
+      <c r="AJ49" s="90"/>
+      <c r="AK49" s="90"/>
+      <c r="AL49" s="90"/>
+      <c r="AM49" s="90"/>
+      <c r="AN49" s="91"/>
+      <c r="AO49" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP49" s="90"/>
+      <c r="AQ49" s="90"/>
+      <c r="AR49" s="90"/>
+      <c r="AS49" s="91"/>
+      <c r="AT49" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU49" s="90"/>
+      <c r="AV49" s="90"/>
+      <c r="AW49" s="91"/>
+      <c r="AX49" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY49" s="90"/>
+      <c r="AZ49" s="90"/>
+      <c r="BA49" s="90"/>
+      <c r="BB49" s="90"/>
+      <c r="BC49" s="91"/>
+      <c r="BD49" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE49" s="91"/>
+      <c r="BF49" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
-      <c r="T49" s="63"/>
-      <c r="U49" s="63"/>
-      <c r="V49" s="63"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="63"/>
-      <c r="Y49" s="63"/>
-      <c r="Z49" s="63"/>
-      <c r="AA49" s="63"/>
-      <c r="AB49" s="63"/>
-      <c r="AC49" s="63"/>
-      <c r="AD49" s="63"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG49" s="63"/>
-      <c r="AH49" s="63"/>
-      <c r="AI49" s="63"/>
-      <c r="AJ49" s="63"/>
-      <c r="AK49" s="63"/>
-      <c r="AL49" s="63"/>
-      <c r="AM49" s="63"/>
-      <c r="AN49" s="52"/>
-      <c r="AO49" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP49" s="63"/>
-      <c r="AQ49" s="63"/>
-      <c r="AR49" s="63"/>
-      <c r="AS49" s="52"/>
-      <c r="AT49" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU49" s="63"/>
-      <c r="AV49" s="63"/>
-      <c r="AW49" s="52"/>
-      <c r="AX49" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY49" s="63"/>
-      <c r="AZ49" s="63"/>
-      <c r="BA49" s="63"/>
-      <c r="BB49" s="63"/>
-      <c r="BC49" s="52"/>
-      <c r="BD49" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE49" s="52"/>
-      <c r="BF49" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG49" s="63"/>
-      <c r="BH49" s="63"/>
-      <c r="BI49" s="63"/>
-      <c r="BJ49" s="63"/>
-      <c r="BK49" s="63"/>
-      <c r="BL49" s="63"/>
-      <c r="BM49" s="63"/>
-      <c r="BN49" s="63"/>
-      <c r="BO49" s="63"/>
-      <c r="BP49" s="63"/>
-      <c r="BQ49" s="63"/>
-      <c r="BR49" s="63"/>
-      <c r="BS49" s="63"/>
-      <c r="BT49" s="63"/>
-      <c r="BU49" s="52"/>
+      <c r="BG49" s="90"/>
+      <c r="BH49" s="90"/>
+      <c r="BI49" s="90"/>
+      <c r="BJ49" s="90"/>
+      <c r="BK49" s="90"/>
+      <c r="BL49" s="90"/>
+      <c r="BM49" s="90"/>
+      <c r="BN49" s="90"/>
+      <c r="BO49" s="90"/>
+      <c r="BP49" s="90"/>
+      <c r="BQ49" s="90"/>
+      <c r="BR49" s="90"/>
+      <c r="BS49" s="90"/>
+      <c r="BT49" s="90"/>
+      <c r="BU49" s="91"/>
     </row>
     <row r="50" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B50" s="35"/>
-      <c r="C50" s="61">
+      <c r="C50" s="87">
         <f>ROW()-ROW($C$47)</f>
         <v>3</v>
       </c>
-      <c r="D50" s="62"/>
+      <c r="D50" s="88"/>
       <c r="E50" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="45"/>
       <c r="G50" s="45"/>
@@ -5853,88 +6971,88 @@
       <c r="K50" s="45"/>
       <c r="L50" s="45"/>
       <c r="M50" s="46"/>
-      <c r="N50" s="51" t="s">
+      <c r="N50" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="O50" s="90"/>
+      <c r="P50" s="90"/>
+      <c r="Q50" s="90"/>
+      <c r="R50" s="90"/>
+      <c r="S50" s="90"/>
+      <c r="T50" s="90"/>
+      <c r="U50" s="90"/>
+      <c r="V50" s="90"/>
+      <c r="W50" s="90"/>
+      <c r="X50" s="90"/>
+      <c r="Y50" s="90"/>
+      <c r="Z50" s="90"/>
+      <c r="AA50" s="90"/>
+      <c r="AB50" s="90"/>
+      <c r="AC50" s="90"/>
+      <c r="AD50" s="90"/>
+      <c r="AE50" s="91"/>
+      <c r="AF50" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG50" s="90"/>
+      <c r="AH50" s="90"/>
+      <c r="AI50" s="90"/>
+      <c r="AJ50" s="90"/>
+      <c r="AK50" s="90"/>
+      <c r="AL50" s="90"/>
+      <c r="AM50" s="90"/>
+      <c r="AN50" s="91"/>
+      <c r="AO50" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP50" s="90"/>
+      <c r="AQ50" s="90"/>
+      <c r="AR50" s="90"/>
+      <c r="AS50" s="91"/>
+      <c r="AT50" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU50" s="90"/>
+      <c r="AV50" s="90"/>
+      <c r="AW50" s="91"/>
+      <c r="AX50" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY50" s="90"/>
+      <c r="AZ50" s="90"/>
+      <c r="BA50" s="90"/>
+      <c r="BB50" s="90"/>
+      <c r="BC50" s="91"/>
+      <c r="BD50" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="63"/>
-      <c r="V50" s="63"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="63"/>
-      <c r="Y50" s="63"/>
-      <c r="Z50" s="63"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="63"/>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="63"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG50" s="63"/>
-      <c r="AH50" s="63"/>
-      <c r="AI50" s="63"/>
-      <c r="AJ50" s="63"/>
-      <c r="AK50" s="63"/>
-      <c r="AL50" s="63"/>
-      <c r="AM50" s="63"/>
-      <c r="AN50" s="52"/>
-      <c r="AO50" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP50" s="63"/>
-      <c r="AQ50" s="63"/>
-      <c r="AR50" s="63"/>
-      <c r="AS50" s="52"/>
-      <c r="AT50" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU50" s="63"/>
-      <c r="AV50" s="63"/>
-      <c r="AW50" s="52"/>
-      <c r="AX50" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY50" s="63"/>
-      <c r="AZ50" s="63"/>
-      <c r="BA50" s="63"/>
-      <c r="BB50" s="63"/>
-      <c r="BC50" s="52"/>
-      <c r="BD50" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE50" s="52"/>
-      <c r="BF50" s="64"/>
-      <c r="BG50" s="57"/>
-      <c r="BH50" s="57"/>
-      <c r="BI50" s="57"/>
-      <c r="BJ50" s="57"/>
-      <c r="BK50" s="57"/>
-      <c r="BL50" s="57"/>
-      <c r="BM50" s="57"/>
-      <c r="BN50" s="57"/>
-      <c r="BO50" s="57"/>
-      <c r="BP50" s="57"/>
-      <c r="BQ50" s="57"/>
-      <c r="BR50" s="57"/>
-      <c r="BS50" s="57"/>
-      <c r="BT50" s="57"/>
-      <c r="BU50" s="58"/>
+      <c r="BE50" s="91"/>
+      <c r="BF50" s="92"/>
+      <c r="BG50" s="93"/>
+      <c r="BH50" s="93"/>
+      <c r="BI50" s="93"/>
+      <c r="BJ50" s="93"/>
+      <c r="BK50" s="93"/>
+      <c r="BL50" s="93"/>
+      <c r="BM50" s="93"/>
+      <c r="BN50" s="93"/>
+      <c r="BO50" s="93"/>
+      <c r="BP50" s="93"/>
+      <c r="BQ50" s="93"/>
+      <c r="BR50" s="93"/>
+      <c r="BS50" s="93"/>
+      <c r="BT50" s="93"/>
+      <c r="BU50" s="94"/>
     </row>
     <row r="51" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B51" s="35"/>
-      <c r="C51" s="61">
+      <c r="C51" s="87">
         <f>ROW()-ROW($C$47)</f>
         <v>4</v>
       </c>
-      <c r="D51" s="62"/>
+      <c r="D51" s="88"/>
       <c r="E51" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
@@ -5944,78 +7062,78 @@
       <c r="K51" s="45"/>
       <c r="L51" s="45"/>
       <c r="M51" s="46"/>
-      <c r="N51" s="51" t="s">
+      <c r="N51" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" s="90"/>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="90"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="90"/>
+      <c r="U51" s="90"/>
+      <c r="V51" s="90"/>
+      <c r="W51" s="90"/>
+      <c r="X51" s="90"/>
+      <c r="Y51" s="90"/>
+      <c r="Z51" s="90"/>
+      <c r="AA51" s="90"/>
+      <c r="AB51" s="90"/>
+      <c r="AC51" s="90"/>
+      <c r="AD51" s="90"/>
+      <c r="AE51" s="91"/>
+      <c r="AF51" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG51" s="90"/>
+      <c r="AH51" s="90"/>
+      <c r="AI51" s="90"/>
+      <c r="AJ51" s="90"/>
+      <c r="AK51" s="90"/>
+      <c r="AL51" s="90"/>
+      <c r="AM51" s="90"/>
+      <c r="AN51" s="91"/>
+      <c r="AO51" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP51" s="90"/>
+      <c r="AQ51" s="90"/>
+      <c r="AR51" s="90"/>
+      <c r="AS51" s="91"/>
+      <c r="AT51" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="O51" s="63"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="63"/>
-      <c r="S51" s="63"/>
-      <c r="T51" s="63"/>
-      <c r="U51" s="63"/>
-      <c r="V51" s="63"/>
-      <c r="W51" s="63"/>
-      <c r="X51" s="63"/>
-      <c r="Y51" s="63"/>
-      <c r="Z51" s="63"/>
-      <c r="AA51" s="63"/>
-      <c r="AB51" s="63"/>
-      <c r="AC51" s="63"/>
-      <c r="AD51" s="63"/>
-      <c r="AE51" s="52"/>
-      <c r="AF51" s="51" t="s">
+      <c r="AU51" s="96"/>
+      <c r="AV51" s="96"/>
+      <c r="AW51" s="97"/>
+      <c r="AX51" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY51" s="90"/>
+      <c r="AZ51" s="90"/>
+      <c r="BA51" s="90"/>
+      <c r="BB51" s="90"/>
+      <c r="BC51" s="91"/>
+      <c r="BD51" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="AG51" s="63"/>
-      <c r="AH51" s="63"/>
-      <c r="AI51" s="63"/>
-      <c r="AJ51" s="63"/>
-      <c r="AK51" s="63"/>
-      <c r="AL51" s="63"/>
-      <c r="AM51" s="63"/>
-      <c r="AN51" s="52"/>
-      <c r="AO51" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP51" s="63"/>
-      <c r="AQ51" s="63"/>
-      <c r="AR51" s="63"/>
-      <c r="AS51" s="52"/>
-      <c r="AT51" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU51" s="66"/>
-      <c r="AV51" s="66"/>
-      <c r="AW51" s="67"/>
-      <c r="AX51" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY51" s="63"/>
-      <c r="AZ51" s="63"/>
-      <c r="BA51" s="63"/>
-      <c r="BB51" s="63"/>
-      <c r="BC51" s="52"/>
-      <c r="BD51" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE51" s="52"/>
-      <c r="BF51" s="64"/>
-      <c r="BG51" s="57"/>
-      <c r="BH51" s="57"/>
-      <c r="BI51" s="57"/>
-      <c r="BJ51" s="57"/>
-      <c r="BK51" s="57"/>
-      <c r="BL51" s="57"/>
-      <c r="BM51" s="57"/>
-      <c r="BN51" s="57"/>
-      <c r="BO51" s="57"/>
-      <c r="BP51" s="57"/>
-      <c r="BQ51" s="57"/>
-      <c r="BR51" s="57"/>
-      <c r="BS51" s="57"/>
-      <c r="BT51" s="57"/>
-      <c r="BU51" s="58"/>
+      <c r="BE51" s="91"/>
+      <c r="BF51" s="92"/>
+      <c r="BG51" s="93"/>
+      <c r="BH51" s="93"/>
+      <c r="BI51" s="93"/>
+      <c r="BJ51" s="93"/>
+      <c r="BK51" s="93"/>
+      <c r="BL51" s="93"/>
+      <c r="BM51" s="93"/>
+      <c r="BN51" s="93"/>
+      <c r="BO51" s="93"/>
+      <c r="BP51" s="93"/>
+      <c r="BQ51" s="93"/>
+      <c r="BR51" s="93"/>
+      <c r="BS51" s="93"/>
+      <c r="BT51" s="93"/>
+      <c r="BU51" s="94"/>
     </row>
     <row r="52" spans="2:73" x14ac:dyDescent="0.25">
       <c r="C52" s="19"/>
@@ -6023,7 +7141,7 @@
     </row>
     <row r="53" spans="2:73" x14ac:dyDescent="0.25">
       <c r="C53" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
@@ -6097,10 +7215,10 @@
       <c r="BU53" s="19"/>
     </row>
     <row r="54" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="60"/>
+      <c r="D54" s="104"/>
       <c r="E54" s="32" t="s">
         <v>19</v>
       </c>
@@ -6189,13 +7307,13 @@
     </row>
     <row r="55" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B55" s="35"/>
-      <c r="C55" s="61">
+      <c r="C55" s="87">
         <f>ROW()-ROW($C$54)</f>
         <v>1</v>
       </c>
-      <c r="D55" s="62"/>
+      <c r="D55" s="88"/>
       <c r="E55" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F55" s="45"/>
       <c r="G55" s="45"/>
@@ -6205,837 +7323,908 @@
       <c r="K55" s="45"/>
       <c r="L55" s="45"/>
       <c r="M55" s="46"/>
-      <c r="N55" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="63"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="63"/>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
-      <c r="AD55" s="63"/>
-      <c r="AE55" s="52"/>
-      <c r="AF55" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG55" s="63"/>
-      <c r="AH55" s="63"/>
-      <c r="AI55" s="63"/>
-      <c r="AJ55" s="63"/>
-      <c r="AK55" s="63"/>
-      <c r="AL55" s="63"/>
-      <c r="AM55" s="63"/>
-      <c r="AN55" s="52"/>
-      <c r="AO55" s="51" t="s">
+      <c r="N55" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="O55" s="90"/>
+      <c r="P55" s="90"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="90"/>
+      <c r="W55" s="90"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="90"/>
+      <c r="Z55" s="90"/>
+      <c r="AA55" s="90"/>
+      <c r="AB55" s="90"/>
+      <c r="AC55" s="90"/>
+      <c r="AD55" s="90"/>
+      <c r="AE55" s="91"/>
+      <c r="AF55" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG55" s="90"/>
+      <c r="AH55" s="90"/>
+      <c r="AI55" s="90"/>
+      <c r="AJ55" s="90"/>
+      <c r="AK55" s="90"/>
+      <c r="AL55" s="90"/>
+      <c r="AM55" s="90"/>
+      <c r="AN55" s="91"/>
+      <c r="AO55" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP55" s="90"/>
+      <c r="AQ55" s="90"/>
+      <c r="AR55" s="90"/>
+      <c r="AS55" s="91"/>
+      <c r="AT55" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="AP55" s="63"/>
-      <c r="AQ55" s="63"/>
-      <c r="AR55" s="63"/>
-      <c r="AS55" s="52"/>
-      <c r="AT55" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU55" s="66"/>
-      <c r="AV55" s="66"/>
-      <c r="AW55" s="67"/>
-      <c r="AX55" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY55" s="63"/>
-      <c r="AZ55" s="63"/>
-      <c r="BA55" s="63"/>
-      <c r="BB55" s="63"/>
-      <c r="BC55" s="52"/>
-      <c r="BD55" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE55" s="52"/>
-      <c r="BF55" s="64"/>
-      <c r="BG55" s="57"/>
-      <c r="BH55" s="57"/>
-      <c r="BI55" s="57"/>
-      <c r="BJ55" s="57"/>
-      <c r="BK55" s="57"/>
-      <c r="BL55" s="57"/>
-      <c r="BM55" s="57"/>
-      <c r="BN55" s="57"/>
-      <c r="BO55" s="57"/>
-      <c r="BP55" s="57"/>
-      <c r="BQ55" s="57"/>
-      <c r="BR55" s="57"/>
-      <c r="BS55" s="57"/>
-      <c r="BT55" s="57"/>
-      <c r="BU55" s="58"/>
+      <c r="AU55" s="96"/>
+      <c r="AV55" s="96"/>
+      <c r="AW55" s="97"/>
+      <c r="AX55" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY55" s="90"/>
+      <c r="AZ55" s="90"/>
+      <c r="BA55" s="90"/>
+      <c r="BB55" s="90"/>
+      <c r="BC55" s="91"/>
+      <c r="BD55" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE55" s="91"/>
+      <c r="BF55" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG55" s="93"/>
+      <c r="BH55" s="93"/>
+      <c r="BI55" s="93"/>
+      <c r="BJ55" s="93"/>
+      <c r="BK55" s="93"/>
+      <c r="BL55" s="93"/>
+      <c r="BM55" s="93"/>
+      <c r="BN55" s="93"/>
+      <c r="BO55" s="93"/>
+      <c r="BP55" s="93"/>
+      <c r="BQ55" s="93"/>
+      <c r="BR55" s="93"/>
+      <c r="BS55" s="93"/>
+      <c r="BT55" s="93"/>
+      <c r="BU55" s="94"/>
     </row>
     <row r="56" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B56" s="35"/>
-      <c r="C56" s="61">
+      <c r="C56" s="87">
         <f>ROW()-ROW($C$54)</f>
         <v>2</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="54"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG56" s="63"/>
-      <c r="AH56" s="63"/>
-      <c r="AI56" s="63"/>
-      <c r="AJ56" s="63"/>
-      <c r="AK56" s="63"/>
-      <c r="AL56" s="63"/>
-      <c r="AM56" s="63"/>
-      <c r="AN56" s="52"/>
-      <c r="AO56" s="51" t="s">
+      <c r="D56" s="88"/>
+      <c r="E56" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="93"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="O56" s="106"/>
+      <c r="P56" s="106"/>
+      <c r="Q56" s="106"/>
+      <c r="R56" s="106"/>
+      <c r="S56" s="106"/>
+      <c r="T56" s="106"/>
+      <c r="U56" s="106"/>
+      <c r="V56" s="106"/>
+      <c r="W56" s="106"/>
+      <c r="X56" s="106"/>
+      <c r="Y56" s="106"/>
+      <c r="Z56" s="106"/>
+      <c r="AA56" s="106"/>
+      <c r="AB56" s="106"/>
+      <c r="AC56" s="106"/>
+      <c r="AD56" s="106"/>
+      <c r="AE56" s="107"/>
+      <c r="AF56" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG56" s="90"/>
+      <c r="AH56" s="90"/>
+      <c r="AI56" s="90"/>
+      <c r="AJ56" s="90"/>
+      <c r="AK56" s="90"/>
+      <c r="AL56" s="90"/>
+      <c r="AM56" s="90"/>
+      <c r="AN56" s="91"/>
+      <c r="AO56" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP56" s="90"/>
+      <c r="AQ56" s="90"/>
+      <c r="AR56" s="90"/>
+      <c r="AS56" s="91"/>
+      <c r="AT56" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU56" s="96"/>
+      <c r="AV56" s="96"/>
+      <c r="AW56" s="97"/>
+      <c r="AX56" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="AP56" s="63"/>
-      <c r="AQ56" s="63"/>
-      <c r="AR56" s="63"/>
-      <c r="AS56" s="52"/>
-      <c r="AT56" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU56" s="66"/>
-      <c r="AV56" s="66"/>
-      <c r="AW56" s="67"/>
-      <c r="AX56" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY56" s="63"/>
-      <c r="AZ56" s="63"/>
-      <c r="BA56" s="63"/>
-      <c r="BB56" s="63"/>
-      <c r="BC56" s="52"/>
-      <c r="BD56" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE56" s="52"/>
-      <c r="BF56" s="51"/>
-      <c r="BG56" s="63"/>
-      <c r="BH56" s="63"/>
-      <c r="BI56" s="63"/>
-      <c r="BJ56" s="63"/>
-      <c r="BK56" s="63"/>
-      <c r="BL56" s="63"/>
-      <c r="BM56" s="63"/>
-      <c r="BN56" s="63"/>
-      <c r="BO56" s="63"/>
-      <c r="BP56" s="63"/>
-      <c r="BQ56" s="63"/>
-      <c r="BR56" s="63"/>
-      <c r="BS56" s="63"/>
-      <c r="BT56" s="63"/>
-      <c r="BU56" s="52"/>
+      <c r="AY56" s="90"/>
+      <c r="AZ56" s="90"/>
+      <c r="BA56" s="90"/>
+      <c r="BB56" s="90"/>
+      <c r="BC56" s="91"/>
+      <c r="BD56" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE56" s="91"/>
+      <c r="BF56" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG56" s="93"/>
+      <c r="BH56" s="93"/>
+      <c r="BI56" s="93"/>
+      <c r="BJ56" s="93"/>
+      <c r="BK56" s="93"/>
+      <c r="BL56" s="93"/>
+      <c r="BM56" s="93"/>
+      <c r="BN56" s="93"/>
+      <c r="BO56" s="93"/>
+      <c r="BP56" s="93"/>
+      <c r="BQ56" s="93"/>
+      <c r="BR56" s="93"/>
+      <c r="BS56" s="93"/>
+      <c r="BT56" s="93"/>
+      <c r="BU56" s="94"/>
     </row>
     <row r="57" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B57" s="35"/>
-      <c r="C57" s="61">
-        <f>ROW()-ROW($C$54)</f>
+      <c r="C57" s="87">
+        <f t="shared" ref="C57:C61" si="0">ROW()-ROW($C$54)</f>
         <v>3</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="63"/>
-      <c r="T57" s="63"/>
-      <c r="U57" s="63"/>
-      <c r="V57" s="63"/>
-      <c r="W57" s="63"/>
-      <c r="X57" s="63"/>
-      <c r="Y57" s="63"/>
-      <c r="Z57" s="63"/>
-      <c r="AA57" s="63"/>
-      <c r="AB57" s="63"/>
-      <c r="AC57" s="63"/>
-      <c r="AD57" s="63"/>
-      <c r="AE57" s="52"/>
-      <c r="AF57" s="51" t="s">
+      <c r="D57" s="88"/>
+      <c r="E57" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="93"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="O57" s="106"/>
+      <c r="P57" s="106"/>
+      <c r="Q57" s="106"/>
+      <c r="R57" s="106"/>
+      <c r="S57" s="106"/>
+      <c r="T57" s="106"/>
+      <c r="U57" s="106"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
+      <c r="X57" s="106"/>
+      <c r="Y57" s="106"/>
+      <c r="Z57" s="106"/>
+      <c r="AA57" s="106"/>
+      <c r="AB57" s="106"/>
+      <c r="AC57" s="106"/>
+      <c r="AD57" s="106"/>
+      <c r="AE57" s="107"/>
+      <c r="AF57" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AG57" s="63"/>
-      <c r="AH57" s="63"/>
-      <c r="AI57" s="63"/>
-      <c r="AJ57" s="63"/>
-      <c r="AK57" s="63"/>
-      <c r="AL57" s="63"/>
-      <c r="AM57" s="63"/>
-      <c r="AN57" s="52"/>
-      <c r="AO57" s="51" t="s">
+      <c r="AG57" s="90"/>
+      <c r="AH57" s="90"/>
+      <c r="AI57" s="90"/>
+      <c r="AJ57" s="90"/>
+      <c r="AK57" s="90"/>
+      <c r="AL57" s="90"/>
+      <c r="AM57" s="90"/>
+      <c r="AN57" s="91"/>
+      <c r="AO57" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP57" s="90"/>
+      <c r="AQ57" s="90"/>
+      <c r="AR57" s="90"/>
+      <c r="AS57" s="91"/>
+      <c r="AT57" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU57" s="96"/>
+      <c r="AV57" s="96"/>
+      <c r="AW57" s="97"/>
+      <c r="AX57" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="AP57" s="63"/>
-      <c r="AQ57" s="63"/>
-      <c r="AR57" s="63"/>
-      <c r="AS57" s="52"/>
-      <c r="AT57" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU57" s="66"/>
-      <c r="AV57" s="66"/>
-      <c r="AW57" s="67"/>
-      <c r="AX57" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY57" s="63"/>
-      <c r="AZ57" s="63"/>
-      <c r="BA57" s="63"/>
-      <c r="BB57" s="63"/>
-      <c r="BC57" s="52"/>
-      <c r="BD57" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE57" s="52"/>
-      <c r="BF57" s="56"/>
-      <c r="BG57" s="63"/>
-      <c r="BH57" s="63"/>
-      <c r="BI57" s="63"/>
-      <c r="BJ57" s="63"/>
-      <c r="BK57" s="63"/>
-      <c r="BL57" s="63"/>
-      <c r="BM57" s="63"/>
-      <c r="BN57" s="63"/>
-      <c r="BO57" s="63"/>
-      <c r="BP57" s="63"/>
-      <c r="BQ57" s="63"/>
-      <c r="BR57" s="63"/>
-      <c r="BS57" s="63"/>
-      <c r="BT57" s="63"/>
-      <c r="BU57" s="52"/>
+      <c r="AY57" s="90"/>
+      <c r="AZ57" s="90"/>
+      <c r="BA57" s="90"/>
+      <c r="BB57" s="90"/>
+      <c r="BC57" s="91"/>
+      <c r="BD57" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE57" s="91"/>
+      <c r="BF57" s="89"/>
+      <c r="BG57" s="90"/>
+      <c r="BH57" s="90"/>
+      <c r="BI57" s="90"/>
+      <c r="BJ57" s="90"/>
+      <c r="BK57" s="90"/>
+      <c r="BL57" s="90"/>
+      <c r="BM57" s="90"/>
+      <c r="BN57" s="90"/>
+      <c r="BO57" s="90"/>
+      <c r="BP57" s="90"/>
+      <c r="BQ57" s="90"/>
+      <c r="BR57" s="90"/>
+      <c r="BS57" s="90"/>
+      <c r="BT57" s="90"/>
+      <c r="BU57" s="91"/>
     </row>
     <row r="58" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B58" s="35"/>
-      <c r="C58" s="61">
-        <f>ROW()-ROW($C$54)</f>
+      <c r="C58" s="87">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D58" s="62"/>
-      <c r="E58" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="63"/>
-      <c r="S58" s="63"/>
-      <c r="T58" s="63"/>
-      <c r="U58" s="63"/>
-      <c r="V58" s="63"/>
-      <c r="W58" s="63"/>
-      <c r="X58" s="63"/>
-      <c r="Y58" s="63"/>
-      <c r="Z58" s="63"/>
-      <c r="AA58" s="63"/>
-      <c r="AB58" s="63"/>
-      <c r="AC58" s="63"/>
-      <c r="AD58" s="63"/>
-      <c r="AE58" s="52"/>
-      <c r="AF58" s="51" t="s">
+      <c r="D58" s="88"/>
+      <c r="E58" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="93"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="94"/>
+      <c r="N58" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="O58" s="106"/>
+      <c r="P58" s="106"/>
+      <c r="Q58" s="106"/>
+      <c r="R58" s="106"/>
+      <c r="S58" s="106"/>
+      <c r="T58" s="106"/>
+      <c r="U58" s="106"/>
+      <c r="V58" s="106"/>
+      <c r="W58" s="106"/>
+      <c r="X58" s="106"/>
+      <c r="Y58" s="106"/>
+      <c r="Z58" s="106"/>
+      <c r="AA58" s="106"/>
+      <c r="AB58" s="106"/>
+      <c r="AC58" s="106"/>
+      <c r="AD58" s="106"/>
+      <c r="AE58" s="107"/>
+      <c r="AF58" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AG58" s="63"/>
-      <c r="AH58" s="63"/>
-      <c r="AI58" s="63"/>
-      <c r="AJ58" s="63"/>
-      <c r="AK58" s="63"/>
-      <c r="AL58" s="63"/>
-      <c r="AM58" s="63"/>
-      <c r="AN58" s="52"/>
-      <c r="AO58" s="51" t="s">
+      <c r="AG58" s="90"/>
+      <c r="AH58" s="90"/>
+      <c r="AI58" s="90"/>
+      <c r="AJ58" s="90"/>
+      <c r="AK58" s="90"/>
+      <c r="AL58" s="90"/>
+      <c r="AM58" s="90"/>
+      <c r="AN58" s="91"/>
+      <c r="AO58" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP58" s="90"/>
+      <c r="AQ58" s="90"/>
+      <c r="AR58" s="90"/>
+      <c r="AS58" s="91"/>
+      <c r="AT58" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU58" s="96"/>
+      <c r="AV58" s="96"/>
+      <c r="AW58" s="97"/>
+      <c r="AX58" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="AP58" s="63"/>
-      <c r="AQ58" s="63"/>
-      <c r="AR58" s="63"/>
-      <c r="AS58" s="52"/>
-      <c r="AT58" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU58" s="66"/>
-      <c r="AV58" s="66"/>
-      <c r="AW58" s="67"/>
-      <c r="AX58" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY58" s="63"/>
-      <c r="AZ58" s="63"/>
-      <c r="BA58" s="63"/>
-      <c r="BB58" s="63"/>
-      <c r="BC58" s="52"/>
-      <c r="BD58" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE58" s="52"/>
-      <c r="BF58" s="64"/>
-      <c r="BG58" s="57"/>
-      <c r="BH58" s="57"/>
-      <c r="BI58" s="57"/>
-      <c r="BJ58" s="57"/>
-      <c r="BK58" s="57"/>
-      <c r="BL58" s="57"/>
-      <c r="BM58" s="57"/>
-      <c r="BN58" s="57"/>
-      <c r="BO58" s="57"/>
-      <c r="BP58" s="57"/>
-      <c r="BQ58" s="57"/>
-      <c r="BR58" s="57"/>
-      <c r="BS58" s="57"/>
-      <c r="BT58" s="57"/>
-      <c r="BU58" s="58"/>
+      <c r="AY58" s="90"/>
+      <c r="AZ58" s="90"/>
+      <c r="BA58" s="90"/>
+      <c r="BB58" s="90"/>
+      <c r="BC58" s="91"/>
+      <c r="BD58" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE58" s="91"/>
+      <c r="BF58" s="89"/>
+      <c r="BG58" s="90"/>
+      <c r="BH58" s="90"/>
+      <c r="BI58" s="90"/>
+      <c r="BJ58" s="90"/>
+      <c r="BK58" s="90"/>
+      <c r="BL58" s="90"/>
+      <c r="BM58" s="90"/>
+      <c r="BN58" s="90"/>
+      <c r="BO58" s="90"/>
+      <c r="BP58" s="90"/>
+      <c r="BQ58" s="90"/>
+      <c r="BR58" s="90"/>
+      <c r="BS58" s="90"/>
+      <c r="BT58" s="90"/>
+      <c r="BU58" s="91"/>
     </row>
     <row r="59" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B59" s="35"/>
-      <c r="C59" s="61">
+      <c r="C59" s="87">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D59" s="88"/>
+      <c r="E59" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="93"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="M59" s="94"/>
+      <c r="N59" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="O59" s="106"/>
+      <c r="P59" s="106"/>
+      <c r="Q59" s="106"/>
+      <c r="R59" s="106"/>
+      <c r="S59" s="106"/>
+      <c r="T59" s="106"/>
+      <c r="U59" s="106"/>
+      <c r="V59" s="106"/>
+      <c r="W59" s="106"/>
+      <c r="X59" s="106"/>
+      <c r="Y59" s="106"/>
+      <c r="Z59" s="106"/>
+      <c r="AA59" s="106"/>
+      <c r="AB59" s="106"/>
+      <c r="AC59" s="106"/>
+      <c r="AD59" s="106"/>
+      <c r="AE59" s="107"/>
+      <c r="AF59" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG59" s="90"/>
+      <c r="AH59" s="90"/>
+      <c r="AI59" s="90"/>
+      <c r="AJ59" s="90"/>
+      <c r="AK59" s="90"/>
+      <c r="AL59" s="90"/>
+      <c r="AM59" s="90"/>
+      <c r="AN59" s="91"/>
+      <c r="AO59" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP59" s="90"/>
+      <c r="AQ59" s="90"/>
+      <c r="AR59" s="90"/>
+      <c r="AS59" s="91"/>
+      <c r="AT59" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU59" s="96"/>
+      <c r="AV59" s="96"/>
+      <c r="AW59" s="97"/>
+      <c r="AX59" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY59" s="90"/>
+      <c r="AZ59" s="90"/>
+      <c r="BA59" s="90"/>
+      <c r="BB59" s="90"/>
+      <c r="BC59" s="91"/>
+      <c r="BD59" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE59" s="91"/>
+      <c r="BF59" s="89"/>
+      <c r="BG59" s="90"/>
+      <c r="BH59" s="90"/>
+      <c r="BI59" s="90"/>
+      <c r="BJ59" s="90"/>
+      <c r="BK59" s="90"/>
+      <c r="BL59" s="90"/>
+      <c r="BM59" s="90"/>
+      <c r="BN59" s="90"/>
+      <c r="BO59" s="90"/>
+      <c r="BP59" s="90"/>
+      <c r="BQ59" s="90"/>
+      <c r="BR59" s="90"/>
+      <c r="BS59" s="90"/>
+      <c r="BT59" s="90"/>
+      <c r="BU59" s="91"/>
+    </row>
+    <row r="60" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B60" s="35"/>
+      <c r="C60" s="87">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D60" s="88"/>
+      <c r="E60" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="93"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="93"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="93"/>
+      <c r="L60" s="93"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="O60" s="106"/>
+      <c r="P60" s="106"/>
+      <c r="Q60" s="106"/>
+      <c r="R60" s="106"/>
+      <c r="S60" s="106"/>
+      <c r="T60" s="106"/>
+      <c r="U60" s="106"/>
+      <c r="V60" s="106"/>
+      <c r="W60" s="106"/>
+      <c r="X60" s="106"/>
+      <c r="Y60" s="106"/>
+      <c r="Z60" s="106"/>
+      <c r="AA60" s="106"/>
+      <c r="AB60" s="106"/>
+      <c r="AC60" s="106"/>
+      <c r="AD60" s="106"/>
+      <c r="AE60" s="107"/>
+      <c r="AF60" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG60" s="90"/>
+      <c r="AH60" s="90"/>
+      <c r="AI60" s="90"/>
+      <c r="AJ60" s="90"/>
+      <c r="AK60" s="90"/>
+      <c r="AL60" s="90"/>
+      <c r="AM60" s="90"/>
+      <c r="AN60" s="91"/>
+      <c r="AO60" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP60" s="90"/>
+      <c r="AQ60" s="90"/>
+      <c r="AR60" s="90"/>
+      <c r="AS60" s="91"/>
+      <c r="AT60" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU60" s="96"/>
+      <c r="AV60" s="96"/>
+      <c r="AW60" s="97"/>
+      <c r="AX60" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY60" s="90"/>
+      <c r="AZ60" s="90"/>
+      <c r="BA60" s="90"/>
+      <c r="BB60" s="90"/>
+      <c r="BC60" s="91"/>
+      <c r="BD60" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE60" s="91"/>
+      <c r="BF60" s="89"/>
+      <c r="BG60" s="90"/>
+      <c r="BH60" s="90"/>
+      <c r="BI60" s="90"/>
+      <c r="BJ60" s="90"/>
+      <c r="BK60" s="90"/>
+      <c r="BL60" s="90"/>
+      <c r="BM60" s="90"/>
+      <c r="BN60" s="90"/>
+      <c r="BO60" s="90"/>
+      <c r="BP60" s="90"/>
+      <c r="BQ60" s="90"/>
+      <c r="BR60" s="90"/>
+      <c r="BS60" s="90"/>
+      <c r="BT60" s="90"/>
+      <c r="BU60" s="91"/>
+    </row>
+    <row r="61" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B61" s="35"/>
+      <c r="C61" s="87">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D61" s="88"/>
+      <c r="E61" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="O61" s="106"/>
+      <c r="P61" s="106"/>
+      <c r="Q61" s="106"/>
+      <c r="R61" s="106"/>
+      <c r="S61" s="106"/>
+      <c r="T61" s="106"/>
+      <c r="U61" s="106"/>
+      <c r="V61" s="106"/>
+      <c r="W61" s="106"/>
+      <c r="X61" s="106"/>
+      <c r="Y61" s="106"/>
+      <c r="Z61" s="106"/>
+      <c r="AA61" s="106"/>
+      <c r="AB61" s="106"/>
+      <c r="AC61" s="106"/>
+      <c r="AD61" s="106"/>
+      <c r="AE61" s="107"/>
+      <c r="AF61" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG61" s="51"/>
+      <c r="AH61" s="51"/>
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="51"/>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="51"/>
+      <c r="AM61" s="51"/>
+      <c r="AN61" s="48"/>
+      <c r="AO61" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP61" s="51"/>
+      <c r="AQ61" s="51"/>
+      <c r="AR61" s="51"/>
+      <c r="AS61" s="48"/>
+      <c r="AT61" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU61" s="54"/>
+      <c r="AV61" s="54"/>
+      <c r="AW61" s="55"/>
+      <c r="AX61" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY61" s="51"/>
+      <c r="AZ61" s="51"/>
+      <c r="BA61" s="51"/>
+      <c r="BB61" s="51"/>
+      <c r="BC61" s="48"/>
+      <c r="BD61" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE61" s="48"/>
+      <c r="BF61" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG61" s="51"/>
+      <c r="BH61" s="51"/>
+      <c r="BI61" s="51"/>
+      <c r="BJ61" s="51"/>
+      <c r="BK61" s="51"/>
+      <c r="BL61" s="51"/>
+      <c r="BM61" s="51"/>
+      <c r="BN61" s="51"/>
+      <c r="BO61" s="51"/>
+      <c r="BP61" s="51"/>
+      <c r="BQ61" s="51"/>
+      <c r="BR61" s="51"/>
+      <c r="BS61" s="51"/>
+      <c r="BT61" s="51"/>
+      <c r="BU61" s="48"/>
+    </row>
+    <row r="62" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B62" s="35"/>
+      <c r="C62" s="87">
         <f>ROW()-ROW($C$54)</f>
-        <v>5</v>
-      </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="88"/>
+      <c r="E62" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="O62" s="90"/>
+      <c r="P62" s="90"/>
+      <c r="Q62" s="90"/>
+      <c r="R62" s="90"/>
+      <c r="S62" s="90"/>
+      <c r="T62" s="90"/>
+      <c r="U62" s="90"/>
+      <c r="V62" s="90"/>
+      <c r="W62" s="90"/>
+      <c r="X62" s="90"/>
+      <c r="Y62" s="90"/>
+      <c r="Z62" s="90"/>
+      <c r="AA62" s="90"/>
+      <c r="AB62" s="90"/>
+      <c r="AC62" s="90"/>
+      <c r="AD62" s="90"/>
+      <c r="AE62" s="91"/>
+      <c r="AF62" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG62" s="90"/>
+      <c r="AH62" s="90"/>
+      <c r="AI62" s="90"/>
+      <c r="AJ62" s="90"/>
+      <c r="AK62" s="90"/>
+      <c r="AL62" s="90"/>
+      <c r="AM62" s="90"/>
+      <c r="AN62" s="91"/>
+      <c r="AO62" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP62" s="90"/>
+      <c r="AQ62" s="90"/>
+      <c r="AR62" s="90"/>
+      <c r="AS62" s="91"/>
+      <c r="AT62" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU62" s="96"/>
+      <c r="AV62" s="96"/>
+      <c r="AW62" s="97"/>
+      <c r="AX62" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY62" s="90"/>
+      <c r="AZ62" s="90"/>
+      <c r="BA62" s="90"/>
+      <c r="BB62" s="90"/>
+      <c r="BC62" s="91"/>
+      <c r="BD62" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE62" s="91"/>
+      <c r="BF62" s="102"/>
+      <c r="BG62" s="90"/>
+      <c r="BH62" s="90"/>
+      <c r="BI62" s="90"/>
+      <c r="BJ62" s="90"/>
+      <c r="BK62" s="90"/>
+      <c r="BL62" s="90"/>
+      <c r="BM62" s="90"/>
+      <c r="BN62" s="90"/>
+      <c r="BO62" s="90"/>
+      <c r="BP62" s="90"/>
+      <c r="BQ62" s="90"/>
+      <c r="BR62" s="90"/>
+      <c r="BS62" s="90"/>
+      <c r="BT62" s="90"/>
+      <c r="BU62" s="91"/>
+    </row>
+    <row r="63" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B63" s="35"/>
+      <c r="C63" s="87">
+        <f>ROW()-ROW($C$54)</f>
+        <v>9</v>
+      </c>
+      <c r="D63" s="88"/>
+      <c r="E63" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="90"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="90"/>
+      <c r="U63" s="90"/>
+      <c r="V63" s="90"/>
+      <c r="W63" s="90"/>
+      <c r="X63" s="90"/>
+      <c r="Y63" s="90"/>
+      <c r="Z63" s="90"/>
+      <c r="AA63" s="90"/>
+      <c r="AB63" s="90"/>
+      <c r="AC63" s="90"/>
+      <c r="AD63" s="90"/>
+      <c r="AE63" s="91"/>
+      <c r="AF63" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG63" s="90"/>
+      <c r="AH63" s="90"/>
+      <c r="AI63" s="90"/>
+      <c r="AJ63" s="90"/>
+      <c r="AK63" s="90"/>
+      <c r="AL63" s="90"/>
+      <c r="AM63" s="90"/>
+      <c r="AN63" s="91"/>
+      <c r="AO63" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP63" s="90"/>
+      <c r="AQ63" s="90"/>
+      <c r="AR63" s="90"/>
+      <c r="AS63" s="91"/>
+      <c r="AT63" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU63" s="96"/>
+      <c r="AV63" s="96"/>
+      <c r="AW63" s="97"/>
+      <c r="AX63" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY63" s="90"/>
+      <c r="AZ63" s="90"/>
+      <c r="BA63" s="90"/>
+      <c r="BB63" s="90"/>
+      <c r="BC63" s="91"/>
+      <c r="BD63" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE63" s="91"/>
+      <c r="BF63" s="92"/>
+      <c r="BG63" s="93"/>
+      <c r="BH63" s="93"/>
+      <c r="BI63" s="93"/>
+      <c r="BJ63" s="93"/>
+      <c r="BK63" s="93"/>
+      <c r="BL63" s="93"/>
+      <c r="BM63" s="93"/>
+      <c r="BN63" s="93"/>
+      <c r="BO63" s="93"/>
+      <c r="BP63" s="93"/>
+      <c r="BQ63" s="93"/>
+      <c r="BR63" s="93"/>
+      <c r="BS63" s="93"/>
+      <c r="BT63" s="93"/>
+      <c r="BU63" s="94"/>
+    </row>
+    <row r="64" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B64" s="35"/>
+      <c r="C64" s="87">
+        <f>ROW()-ROW($C$54)</f>
+        <v>10</v>
+      </c>
+      <c r="D64" s="88"/>
+      <c r="E64" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="O64" s="90"/>
+      <c r="P64" s="90"/>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="90"/>
+      <c r="S64" s="90"/>
+      <c r="T64" s="90"/>
+      <c r="U64" s="90"/>
+      <c r="V64" s="90"/>
+      <c r="W64" s="90"/>
+      <c r="X64" s="90"/>
+      <c r="Y64" s="90"/>
+      <c r="Z64" s="90"/>
+      <c r="AA64" s="90"/>
+      <c r="AB64" s="90"/>
+      <c r="AC64" s="90"/>
+      <c r="AD64" s="90"/>
+      <c r="AE64" s="91"/>
+      <c r="AF64" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="51" t="s">
+      <c r="AG64" s="90"/>
+      <c r="AH64" s="90"/>
+      <c r="AI64" s="90"/>
+      <c r="AJ64" s="90"/>
+      <c r="AK64" s="90"/>
+      <c r="AL64" s="90"/>
+      <c r="AM64" s="90"/>
+      <c r="AN64" s="91"/>
+      <c r="AO64" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP64" s="90"/>
+      <c r="AQ64" s="90"/>
+      <c r="AR64" s="90"/>
+      <c r="AS64" s="91"/>
+      <c r="AT64" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU64" s="96"/>
+      <c r="AV64" s="96"/>
+      <c r="AW64" s="97"/>
+      <c r="AX64" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY64" s="90"/>
+      <c r="AZ64" s="90"/>
+      <c r="BA64" s="90"/>
+      <c r="BB64" s="90"/>
+      <c r="BC64" s="91"/>
+      <c r="BD64" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE64" s="91"/>
+      <c r="BF64" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="63"/>
-      <c r="S59" s="63"/>
-      <c r="T59" s="63"/>
-      <c r="U59" s="63"/>
-      <c r="V59" s="63"/>
-      <c r="W59" s="63"/>
-      <c r="X59" s="63"/>
-      <c r="Y59" s="63"/>
-      <c r="Z59" s="63"/>
-      <c r="AA59" s="63"/>
-      <c r="AB59" s="63"/>
-      <c r="AC59" s="63"/>
-      <c r="AD59" s="63"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG59" s="63"/>
-      <c r="AH59" s="63"/>
-      <c r="AI59" s="63"/>
-      <c r="AJ59" s="63"/>
-      <c r="AK59" s="63"/>
-      <c r="AL59" s="63"/>
-      <c r="AM59" s="63"/>
-      <c r="AN59" s="52"/>
-      <c r="AO59" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP59" s="63"/>
-      <c r="AQ59" s="63"/>
-      <c r="AR59" s="63"/>
-      <c r="AS59" s="52"/>
-      <c r="AT59" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU59" s="66"/>
-      <c r="AV59" s="66"/>
-      <c r="AW59" s="67"/>
-      <c r="AX59" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY59" s="63"/>
-      <c r="AZ59" s="63"/>
-      <c r="BA59" s="63"/>
-      <c r="BB59" s="63"/>
-      <c r="BC59" s="52"/>
-      <c r="BD59" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE59" s="52"/>
-      <c r="BF59" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG59" s="57"/>
-      <c r="BH59" s="57"/>
-      <c r="BI59" s="57"/>
-      <c r="BJ59" s="57"/>
-      <c r="BK59" s="57"/>
-      <c r="BL59" s="57"/>
-      <c r="BM59" s="57"/>
-      <c r="BN59" s="57"/>
-      <c r="BO59" s="57"/>
-      <c r="BP59" s="57"/>
-      <c r="BQ59" s="57"/>
-      <c r="BR59" s="57"/>
-      <c r="BS59" s="57"/>
-      <c r="BT59" s="57"/>
-      <c r="BU59" s="58"/>
-    </row>
-    <row r="60" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="19"/>
-      <c r="AG60" s="19"/>
-      <c r="AH60" s="19"/>
-      <c r="AI60" s="19"/>
-      <c r="AJ60" s="19"/>
-      <c r="AK60" s="19"/>
-      <c r="AL60" s="19"/>
-      <c r="AM60" s="19"/>
-      <c r="AN60" s="19"/>
-      <c r="AO60" s="19"/>
-      <c r="AP60" s="19"/>
-      <c r="AQ60" s="19"/>
-      <c r="AR60" s="19"/>
-      <c r="AS60" s="19"/>
-      <c r="AT60" s="19"/>
-      <c r="AU60" s="19"/>
-      <c r="AV60" s="19"/>
-      <c r="AW60" s="19"/>
-      <c r="AX60" s="19"/>
-      <c r="AY60" s="19"/>
-      <c r="AZ60" s="19"/>
-      <c r="BA60" s="19"/>
-      <c r="BB60" s="19"/>
-      <c r="BC60" s="19"/>
-      <c r="BD60" s="19"/>
-      <c r="BE60" s="19"/>
-      <c r="BF60" s="19"/>
-      <c r="BG60" s="19"/>
-      <c r="BH60" s="19"/>
-      <c r="BI60" s="19"/>
-      <c r="BJ60" s="19"/>
-      <c r="BK60" s="19"/>
-      <c r="BL60" s="19"/>
-      <c r="BM60" s="19"/>
-      <c r="BN60" s="19"/>
-      <c r="BO60" s="19"/>
-      <c r="BP60" s="19"/>
-      <c r="BQ60" s="19"/>
-      <c r="BR60" s="19"/>
-      <c r="BS60" s="19"/>
-      <c r="BT60" s="19"/>
-      <c r="BU60" s="19"/>
-    </row>
-    <row r="61" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C61" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="19"/>
-      <c r="AA61" s="19"/>
-      <c r="AB61" s="19"/>
-      <c r="AC61" s="19"/>
-      <c r="AD61" s="19"/>
-      <c r="AE61" s="19"/>
-      <c r="AF61" s="19"/>
-      <c r="AG61" s="19"/>
-      <c r="AH61" s="19"/>
-      <c r="AI61" s="19"/>
-      <c r="AJ61" s="19"/>
-      <c r="AK61" s="19"/>
-      <c r="AL61" s="19"/>
-      <c r="AM61" s="19"/>
-      <c r="AN61" s="19"/>
-      <c r="AO61" s="19"/>
-      <c r="AP61" s="19"/>
-      <c r="AQ61" s="19"/>
-      <c r="AR61" s="19"/>
-      <c r="AS61" s="19"/>
-      <c r="AT61" s="19"/>
-      <c r="AU61" s="19"/>
-      <c r="AV61" s="19"/>
-      <c r="AW61" s="19"/>
-      <c r="AX61" s="19"/>
-      <c r="AY61" s="19"/>
-      <c r="AZ61" s="19"/>
-      <c r="BA61" s="19"/>
-      <c r="BB61" s="19"/>
-      <c r="BC61" s="19"/>
-      <c r="BD61" s="19"/>
-      <c r="BE61" s="19"/>
-      <c r="BF61" s="19"/>
-      <c r="BG61" s="19"/>
-      <c r="BH61" s="19"/>
-      <c r="BI61" s="19"/>
-      <c r="BJ61" s="19"/>
-      <c r="BK61" s="19"/>
-      <c r="BL61" s="19"/>
-      <c r="BM61" s="19"/>
-      <c r="BN61" s="19"/>
-      <c r="BO61" s="19"/>
-      <c r="BP61" s="19"/>
-      <c r="BQ61" s="19"/>
-      <c r="BR61" s="19"/>
-      <c r="BS61" s="19"/>
-      <c r="BT61" s="19"/>
-      <c r="BU61" s="19"/>
-    </row>
-    <row r="62" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C62" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="60"/>
-      <c r="E62" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="34"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="34"/>
-      <c r="AF62" s="34"/>
-      <c r="AG62" s="34"/>
-      <c r="AH62" s="34"/>
-      <c r="AI62" s="34"/>
-      <c r="AJ62" s="34"/>
-      <c r="AK62" s="33"/>
-      <c r="AL62" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM62" s="34"/>
-      <c r="AN62" s="34"/>
-      <c r="AO62" s="34"/>
-      <c r="AP62" s="34"/>
-      <c r="AQ62" s="34"/>
-      <c r="AR62" s="34"/>
-      <c r="AS62" s="34"/>
-      <c r="AT62" s="34"/>
-      <c r="AU62" s="34"/>
-      <c r="AV62" s="34"/>
-      <c r="AW62" s="34"/>
-      <c r="AX62" s="34"/>
-      <c r="AY62" s="34"/>
-      <c r="AZ62" s="34"/>
-      <c r="BA62" s="34"/>
-      <c r="BB62" s="34"/>
-      <c r="BC62" s="34"/>
-      <c r="BD62" s="34"/>
-      <c r="BE62" s="34"/>
-      <c r="BF62" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG62" s="34"/>
-      <c r="BH62" s="34"/>
-      <c r="BI62" s="34"/>
-      <c r="BJ62" s="34"/>
-      <c r="BK62" s="34"/>
-      <c r="BL62" s="34"/>
-      <c r="BM62" s="34"/>
-      <c r="BN62" s="34"/>
-      <c r="BO62" s="34"/>
-      <c r="BP62" s="34"/>
-      <c r="BQ62" s="34"/>
-      <c r="BR62" s="34"/>
-      <c r="BS62" s="34"/>
-      <c r="BT62" s="34"/>
-      <c r="BU62" s="33"/>
-    </row>
-    <row r="63" spans="2:73" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="61">
-        <f t="shared" ref="C63" si="0">ROW()-ROW($C$62)</f>
-        <v>1</v>
-      </c>
-      <c r="D63" s="62"/>
-      <c r="E63" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="39"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="39"/>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="39"/>
-      <c r="AH63" s="39"/>
-      <c r="AI63" s="39"/>
-      <c r="AJ63" s="39"/>
-      <c r="AK63" s="40"/>
-      <c r="AL63" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM63" s="39"/>
-      <c r="AN63" s="39"/>
-      <c r="AO63" s="39"/>
-      <c r="AP63" s="39"/>
-      <c r="AQ63" s="39"/>
-      <c r="AR63" s="39"/>
-      <c r="AS63" s="39"/>
-      <c r="AT63" s="39"/>
-      <c r="AU63" s="39"/>
-      <c r="AV63" s="39"/>
-      <c r="AW63" s="39"/>
-      <c r="AX63" s="39"/>
-      <c r="AY63" s="39"/>
-      <c r="AZ63" s="39"/>
-      <c r="BA63" s="39"/>
-      <c r="BB63" s="39"/>
-      <c r="BC63" s="39"/>
-      <c r="BD63" s="39"/>
-      <c r="BE63" s="39"/>
-      <c r="BF63" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG63" s="97"/>
-      <c r="BH63" s="97"/>
-      <c r="BI63" s="97"/>
-      <c r="BJ63" s="97"/>
-      <c r="BK63" s="97"/>
-      <c r="BL63" s="97"/>
-      <c r="BM63" s="97"/>
-      <c r="BN63" s="97"/>
-      <c r="BO63" s="97"/>
-      <c r="BP63" s="97"/>
-      <c r="BQ63" s="97"/>
-      <c r="BR63" s="97"/>
-      <c r="BS63" s="97"/>
-      <c r="BT63" s="97"/>
-      <c r="BU63" s="98"/>
-    </row>
-    <row r="64" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="19"/>
-      <c r="Z64" s="19"/>
-      <c r="AA64" s="19"/>
-      <c r="AB64" s="19"/>
-      <c r="AC64" s="19"/>
-      <c r="AD64" s="19"/>
-      <c r="AE64" s="19"/>
-      <c r="AF64" s="19"/>
-      <c r="AG64" s="19"/>
-      <c r="AH64" s="19"/>
-      <c r="AI64" s="19"/>
-      <c r="AJ64" s="19"/>
-      <c r="AK64" s="19"/>
-      <c r="AL64" s="19"/>
-      <c r="AM64" s="19"/>
-      <c r="AN64" s="19"/>
-      <c r="AO64" s="19"/>
-      <c r="AP64" s="19"/>
-      <c r="AQ64" s="19"/>
-      <c r="AR64" s="19"/>
-      <c r="AS64" s="19"/>
-      <c r="AT64" s="19"/>
-      <c r="AU64" s="19"/>
-      <c r="AV64" s="19"/>
-      <c r="AW64" s="19"/>
-      <c r="AX64" s="19"/>
-      <c r="AY64" s="19"/>
-      <c r="AZ64" s="19"/>
-      <c r="BA64" s="19"/>
-      <c r="BB64" s="19"/>
-      <c r="BC64" s="19"/>
-      <c r="BD64" s="19"/>
-      <c r="BE64" s="19"/>
-      <c r="BF64" s="19"/>
-      <c r="BG64" s="19"/>
-      <c r="BH64" s="19"/>
-      <c r="BI64" s="19"/>
-      <c r="BJ64" s="19"/>
-      <c r="BK64" s="19"/>
-      <c r="BL64" s="19"/>
-      <c r="BM64" s="19"/>
-      <c r="BN64" s="19"/>
-      <c r="BO64" s="19"/>
-      <c r="BP64" s="19"/>
-      <c r="BQ64" s="19"/>
-      <c r="BR64" s="19"/>
-      <c r="BS64" s="19"/>
-      <c r="BT64" s="19"/>
-      <c r="BU64" s="19"/>
+      <c r="BG64" s="93"/>
+      <c r="BH64" s="93"/>
+      <c r="BI64" s="93"/>
+      <c r="BJ64" s="93"/>
+      <c r="BK64" s="93"/>
+      <c r="BL64" s="93"/>
+      <c r="BM64" s="93"/>
+      <c r="BN64" s="93"/>
+      <c r="BO64" s="93"/>
+      <c r="BP64" s="93"/>
+      <c r="BQ64" s="93"/>
+      <c r="BR64" s="93"/>
+      <c r="BS64" s="93"/>
+      <c r="BT64" s="93"/>
+      <c r="BU64" s="94"/>
     </row>
     <row r="65" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C65" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
@@ -7108,256 +8297,657 @@
       <c r="BU65" s="19"/>
     </row>
     <row r="66" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19"/>
+      <c r="AE66" s="19"/>
+      <c r="AF66" s="19"/>
+      <c r="AG66" s="19"/>
+      <c r="AH66" s="19"/>
+      <c r="AI66" s="19"/>
+      <c r="AJ66" s="19"/>
+      <c r="AK66" s="19"/>
+      <c r="AL66" s="19"/>
+      <c r="AM66" s="19"/>
+      <c r="AN66" s="19"/>
+      <c r="AO66" s="19"/>
+      <c r="AP66" s="19"/>
+      <c r="AQ66" s="19"/>
+      <c r="AR66" s="19"/>
+      <c r="AS66" s="19"/>
+      <c r="AT66" s="19"/>
+      <c r="AU66" s="19"/>
+      <c r="AV66" s="19"/>
+      <c r="AW66" s="19"/>
+      <c r="AX66" s="19"/>
+      <c r="AY66" s="19"/>
+      <c r="AZ66" s="19"/>
+      <c r="BA66" s="19"/>
+      <c r="BB66" s="19"/>
+      <c r="BC66" s="19"/>
+      <c r="BD66" s="19"/>
+      <c r="BE66" s="19"/>
+      <c r="BF66" s="19"/>
+      <c r="BG66" s="19"/>
+      <c r="BH66" s="19"/>
+      <c r="BI66" s="19"/>
+      <c r="BJ66" s="19"/>
+      <c r="BK66" s="19"/>
+      <c r="BL66" s="19"/>
+      <c r="BM66" s="19"/>
+      <c r="BN66" s="19"/>
+      <c r="BO66" s="19"/>
+      <c r="BP66" s="19"/>
+      <c r="BQ66" s="19"/>
+      <c r="BR66" s="19"/>
+      <c r="BS66" s="19"/>
+      <c r="BT66" s="19"/>
+      <c r="BU66" s="19"/>
+    </row>
+    <row r="67" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C67" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="104"/>
+      <c r="E67" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="34"/>
+      <c r="AC67" s="34"/>
+      <c r="AD67" s="34"/>
+      <c r="AE67" s="34"/>
+      <c r="AF67" s="34"/>
+      <c r="AG67" s="34"/>
+      <c r="AH67" s="34"/>
+      <c r="AI67" s="34"/>
+      <c r="AJ67" s="34"/>
+      <c r="AK67" s="33"/>
+      <c r="AL67" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM67" s="34"/>
+      <c r="AN67" s="34"/>
+      <c r="AO67" s="34"/>
+      <c r="AP67" s="34"/>
+      <c r="AQ67" s="34"/>
+      <c r="AR67" s="34"/>
+      <c r="AS67" s="34"/>
+      <c r="AT67" s="34"/>
+      <c r="AU67" s="34"/>
+      <c r="AV67" s="34"/>
+      <c r="AW67" s="34"/>
+      <c r="AX67" s="34"/>
+      <c r="AY67" s="34"/>
+      <c r="AZ67" s="34"/>
+      <c r="BA67" s="34"/>
+      <c r="BB67" s="34"/>
+      <c r="BC67" s="34"/>
+      <c r="BD67" s="34"/>
+      <c r="BE67" s="34"/>
+      <c r="BF67" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG67" s="34"/>
+      <c r="BH67" s="34"/>
+      <c r="BI67" s="34"/>
+      <c r="BJ67" s="34"/>
+      <c r="BK67" s="34"/>
+      <c r="BL67" s="34"/>
+      <c r="BM67" s="34"/>
+      <c r="BN67" s="34"/>
+      <c r="BO67" s="34"/>
+      <c r="BP67" s="34"/>
+      <c r="BQ67" s="34"/>
+      <c r="BR67" s="34"/>
+      <c r="BS67" s="34"/>
+      <c r="BT67" s="34"/>
+      <c r="BU67" s="33"/>
+    </row>
+    <row r="68" spans="3:73" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="87">
+        <f t="shared" ref="C68" si="1">ROW()-ROW($C$67)</f>
+        <v>1</v>
+      </c>
+      <c r="D68" s="88"/>
+      <c r="E68" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="39"/>
+      <c r="AB68" s="39"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="39"/>
+      <c r="AE68" s="39"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="39"/>
+      <c r="AH68" s="39"/>
+      <c r="AI68" s="39"/>
+      <c r="AJ68" s="39"/>
+      <c r="AK68" s="40"/>
+      <c r="AL68" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM68" s="39"/>
+      <c r="AN68" s="39"/>
+      <c r="AO68" s="39"/>
+      <c r="AP68" s="39"/>
+      <c r="AQ68" s="39"/>
+      <c r="AR68" s="39"/>
+      <c r="AS68" s="39"/>
+      <c r="AT68" s="39"/>
+      <c r="AU68" s="39"/>
+      <c r="AV68" s="39"/>
+      <c r="AW68" s="39"/>
+      <c r="AX68" s="39"/>
+      <c r="AY68" s="39"/>
+      <c r="AZ68" s="39"/>
+      <c r="BA68" s="39"/>
+      <c r="BB68" s="39"/>
+      <c r="BC68" s="39"/>
+      <c r="BD68" s="39"/>
+      <c r="BE68" s="39"/>
+      <c r="BF68" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG68" s="85"/>
+      <c r="BH68" s="85"/>
+      <c r="BI68" s="85"/>
+      <c r="BJ68" s="85"/>
+      <c r="BK68" s="85"/>
+      <c r="BL68" s="85"/>
+      <c r="BM68" s="85"/>
+      <c r="BN68" s="85"/>
+      <c r="BO68" s="85"/>
+      <c r="BP68" s="85"/>
+      <c r="BQ68" s="85"/>
+      <c r="BR68" s="85"/>
+      <c r="BS68" s="85"/>
+      <c r="BT68" s="85"/>
+      <c r="BU68" s="86"/>
+    </row>
+    <row r="69" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="19"/>
+      <c r="AF69" s="19"/>
+      <c r="AG69" s="19"/>
+      <c r="AH69" s="19"/>
+      <c r="AI69" s="19"/>
+      <c r="AJ69" s="19"/>
+      <c r="AK69" s="19"/>
+      <c r="AL69" s="19"/>
+      <c r="AM69" s="19"/>
+      <c r="AN69" s="19"/>
+      <c r="AO69" s="19"/>
+      <c r="AP69" s="19"/>
+      <c r="AQ69" s="19"/>
+      <c r="AR69" s="19"/>
+      <c r="AS69" s="19"/>
+      <c r="AT69" s="19"/>
+      <c r="AU69" s="19"/>
+      <c r="AV69" s="19"/>
+      <c r="AW69" s="19"/>
+      <c r="AX69" s="19"/>
+      <c r="AY69" s="19"/>
+      <c r="AZ69" s="19"/>
+      <c r="BA69" s="19"/>
+      <c r="BB69" s="19"/>
+      <c r="BC69" s="19"/>
+      <c r="BD69" s="19"/>
+      <c r="BE69" s="19"/>
+      <c r="BF69" s="19"/>
+      <c r="BG69" s="19"/>
+      <c r="BH69" s="19"/>
+      <c r="BI69" s="19"/>
+      <c r="BJ69" s="19"/>
+      <c r="BK69" s="19"/>
+      <c r="BL69" s="19"/>
+      <c r="BM69" s="19"/>
+      <c r="BN69" s="19"/>
+      <c r="BO69" s="19"/>
+      <c r="BP69" s="19"/>
+      <c r="BQ69" s="19"/>
+      <c r="BR69" s="19"/>
+      <c r="BS69" s="19"/>
+      <c r="BT69" s="19"/>
+      <c r="BU69" s="19"/>
+    </row>
+    <row r="70" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C70" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+      <c r="Y70" s="19"/>
+      <c r="Z70" s="19"/>
+      <c r="AA70" s="19"/>
+      <c r="AB70" s="19"/>
+      <c r="AC70" s="19"/>
+      <c r="AD70" s="19"/>
+      <c r="AE70" s="19"/>
+      <c r="AF70" s="19"/>
+      <c r="AG70" s="19"/>
+      <c r="AH70" s="19"/>
+      <c r="AI70" s="19"/>
+      <c r="AJ70" s="19"/>
+      <c r="AK70" s="19"/>
+      <c r="AL70" s="19"/>
+      <c r="AM70" s="19"/>
+      <c r="AN70" s="19"/>
+      <c r="AO70" s="19"/>
+      <c r="AP70" s="19"/>
+      <c r="AQ70" s="19"/>
+      <c r="AR70" s="19"/>
+      <c r="AS70" s="19"/>
+      <c r="AT70" s="19"/>
+      <c r="AU70" s="19"/>
+      <c r="AV70" s="19"/>
+      <c r="AW70" s="19"/>
+      <c r="AX70" s="19"/>
+      <c r="AY70" s="19"/>
+      <c r="AZ70" s="19"/>
+      <c r="BA70" s="19"/>
+      <c r="BB70" s="19"/>
+      <c r="BC70" s="19"/>
+      <c r="BD70" s="19"/>
+      <c r="BE70" s="19"/>
+      <c r="BF70" s="19"/>
+      <c r="BG70" s="19"/>
+      <c r="BH70" s="19"/>
+      <c r="BI70" s="19"/>
+      <c r="BJ70" s="19"/>
+      <c r="BK70" s="19"/>
+      <c r="BL70" s="19"/>
+      <c r="BM70" s="19"/>
+      <c r="BN70" s="19"/>
+      <c r="BO70" s="19"/>
+      <c r="BP70" s="19"/>
+      <c r="BQ70" s="19"/>
+      <c r="BR70" s="19"/>
+      <c r="BS70" s="19"/>
+      <c r="BT70" s="19"/>
+      <c r="BU70" s="19"/>
+    </row>
+    <row r="71" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C71" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="60"/>
-      <c r="E66" s="32" t="s">
+      <c r="D71" s="104"/>
+      <c r="E71" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="32" t="s">
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-      <c r="AD66" s="34"/>
-      <c r="AE66" s="34"/>
-      <c r="AF66" s="34"/>
-      <c r="AG66" s="34"/>
-      <c r="AH66" s="34"/>
-      <c r="AI66" s="34"/>
-      <c r="AJ66" s="34"/>
-      <c r="AK66" s="34"/>
-      <c r="AL66" s="34"/>
-      <c r="AM66" s="34"/>
-      <c r="AN66" s="34"/>
-      <c r="AO66" s="34"/>
-      <c r="AP66" s="34"/>
-      <c r="AQ66" s="34"/>
-      <c r="AR66" s="34"/>
-      <c r="AS66" s="34"/>
-      <c r="AT66" s="34"/>
-      <c r="AU66" s="34"/>
-      <c r="AV66" s="34"/>
-      <c r="AW66" s="34"/>
-      <c r="AX66" s="34"/>
-      <c r="AY66" s="34"/>
-      <c r="AZ66" s="34"/>
-      <c r="BA66" s="34"/>
-      <c r="BB66" s="34"/>
-      <c r="BC66" s="34"/>
-      <c r="BD66" s="34"/>
-      <c r="BE66" s="33"/>
-      <c r="BF66" s="32" t="s">
+      <c r="AA71" s="34"/>
+      <c r="AB71" s="34"/>
+      <c r="AC71" s="34"/>
+      <c r="AD71" s="34"/>
+      <c r="AE71" s="34"/>
+      <c r="AF71" s="34"/>
+      <c r="AG71" s="34"/>
+      <c r="AH71" s="34"/>
+      <c r="AI71" s="34"/>
+      <c r="AJ71" s="34"/>
+      <c r="AK71" s="34"/>
+      <c r="AL71" s="34"/>
+      <c r="AM71" s="34"/>
+      <c r="AN71" s="34"/>
+      <c r="AO71" s="34"/>
+      <c r="AP71" s="34"/>
+      <c r="AQ71" s="34"/>
+      <c r="AR71" s="34"/>
+      <c r="AS71" s="34"/>
+      <c r="AT71" s="34"/>
+      <c r="AU71" s="34"/>
+      <c r="AV71" s="34"/>
+      <c r="AW71" s="34"/>
+      <c r="AX71" s="34"/>
+      <c r="AY71" s="34"/>
+      <c r="AZ71" s="34"/>
+      <c r="BA71" s="34"/>
+      <c r="BB71" s="34"/>
+      <c r="BC71" s="34"/>
+      <c r="BD71" s="34"/>
+      <c r="BE71" s="33"/>
+      <c r="BF71" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="BG66" s="34"/>
-      <c r="BH66" s="34"/>
-      <c r="BI66" s="34"/>
-      <c r="BJ66" s="34"/>
-      <c r="BK66" s="34"/>
-      <c r="BL66" s="34"/>
-      <c r="BM66" s="34"/>
-      <c r="BN66" s="34"/>
-      <c r="BO66" s="34"/>
-      <c r="BP66" s="34"/>
-      <c r="BQ66" s="34"/>
-      <c r="BR66" s="34"/>
-      <c r="BS66" s="34"/>
-      <c r="BT66" s="34"/>
-      <c r="BU66" s="33"/>
-    </row>
-    <row r="67" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C67" s="61">
-        <f t="shared" ref="C67:C68" si="1">ROW()-ROW($C$66)</f>
+      <c r="BG71" s="34"/>
+      <c r="BH71" s="34"/>
+      <c r="BI71" s="34"/>
+      <c r="BJ71" s="34"/>
+      <c r="BK71" s="34"/>
+      <c r="BL71" s="34"/>
+      <c r="BM71" s="34"/>
+      <c r="BN71" s="34"/>
+      <c r="BO71" s="34"/>
+      <c r="BP71" s="34"/>
+      <c r="BQ71" s="34"/>
+      <c r="BR71" s="34"/>
+      <c r="BS71" s="34"/>
+      <c r="BT71" s="34"/>
+      <c r="BU71" s="33"/>
+    </row>
+    <row r="72" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C72" s="87">
+        <f t="shared" ref="C72:C73" si="2">ROW()-ROW($C$71)</f>
         <v>1</v>
       </c>
-      <c r="D67" s="62"/>
-      <c r="E67" s="51" t="s">
+      <c r="D72" s="88"/>
+      <c r="E72" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="90"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="K72" s="90"/>
+      <c r="L72" s="90"/>
+      <c r="M72" s="90"/>
+      <c r="N72" s="90"/>
+      <c r="O72" s="90"/>
+      <c r="P72" s="90"/>
+      <c r="Q72" s="90"/>
+      <c r="R72" s="90"/>
+      <c r="S72" s="90"/>
+      <c r="T72" s="90"/>
+      <c r="U72" s="90"/>
+      <c r="V72" s="90"/>
+      <c r="W72" s="90"/>
+      <c r="X72" s="90"/>
+      <c r="Y72" s="91"/>
+      <c r="Z72" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA72" s="90"/>
+      <c r="AB72" s="90"/>
+      <c r="AC72" s="90"/>
+      <c r="AD72" s="90"/>
+      <c r="AE72" s="90"/>
+      <c r="AF72" s="90"/>
+      <c r="AG72" s="90"/>
+      <c r="AH72" s="90"/>
+      <c r="AI72" s="90"/>
+      <c r="AJ72" s="90"/>
+      <c r="AK72" s="90"/>
+      <c r="AL72" s="90"/>
+      <c r="AM72" s="90"/>
+      <c r="AN72" s="90"/>
+      <c r="AO72" s="90"/>
+      <c r="AP72" s="90"/>
+      <c r="AQ72" s="90"/>
+      <c r="AR72" s="90"/>
+      <c r="AS72" s="90"/>
+      <c r="AT72" s="90"/>
+      <c r="AU72" s="90"/>
+      <c r="AV72" s="90"/>
+      <c r="AW72" s="90"/>
+      <c r="AX72" s="90"/>
+      <c r="AY72" s="90"/>
+      <c r="AZ72" s="90"/>
+      <c r="BA72" s="90"/>
+      <c r="BB72" s="90"/>
+      <c r="BC72" s="90"/>
+      <c r="BD72" s="90"/>
+      <c r="BE72" s="91"/>
+      <c r="BF72" s="38"/>
+      <c r="BG72" s="39"/>
+      <c r="BH72" s="39"/>
+      <c r="BI72" s="39"/>
+      <c r="BJ72" s="39"/>
+      <c r="BK72" s="39"/>
+      <c r="BL72" s="39"/>
+      <c r="BM72" s="39"/>
+      <c r="BN72" s="39"/>
+      <c r="BO72" s="39"/>
+      <c r="BP72" s="39"/>
+      <c r="BQ72" s="39"/>
+      <c r="BR72" s="39"/>
+      <c r="BS72" s="39"/>
+      <c r="BT72" s="39"/>
+      <c r="BU72" s="40"/>
+    </row>
+    <row r="73" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C73" s="87">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D73" s="88"/>
+      <c r="E73" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="63"/>
-      <c r="T67" s="63"/>
-      <c r="U67" s="63"/>
-      <c r="V67" s="63"/>
-      <c r="W67" s="63"/>
-      <c r="X67" s="63"/>
-      <c r="Y67" s="52"/>
-      <c r="Z67" s="51" t="s">
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="90"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="90"/>
+      <c r="R73" s="90"/>
+      <c r="S73" s="90"/>
+      <c r="T73" s="90"/>
+      <c r="U73" s="90"/>
+      <c r="V73" s="90"/>
+      <c r="W73" s="90"/>
+      <c r="X73" s="90"/>
+      <c r="Y73" s="91"/>
+      <c r="Z73" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="AA67" s="63"/>
-      <c r="AB67" s="63"/>
-      <c r="AC67" s="63"/>
-      <c r="AD67" s="63"/>
-      <c r="AE67" s="63"/>
-      <c r="AF67" s="63"/>
-      <c r="AG67" s="63"/>
-      <c r="AH67" s="63"/>
-      <c r="AI67" s="63"/>
-      <c r="AJ67" s="63"/>
-      <c r="AK67" s="63"/>
-      <c r="AL67" s="63"/>
-      <c r="AM67" s="63"/>
-      <c r="AN67" s="63"/>
-      <c r="AO67" s="63"/>
-      <c r="AP67" s="63"/>
-      <c r="AQ67" s="63"/>
-      <c r="AR67" s="63"/>
-      <c r="AS67" s="63"/>
-      <c r="AT67" s="63"/>
-      <c r="AU67" s="63"/>
-      <c r="AV67" s="63"/>
-      <c r="AW67" s="63"/>
-      <c r="AX67" s="63"/>
-      <c r="AY67" s="63"/>
-      <c r="AZ67" s="63"/>
-      <c r="BA67" s="63"/>
-      <c r="BB67" s="63"/>
-      <c r="BC67" s="63"/>
-      <c r="BD67" s="63"/>
-      <c r="BE67" s="52"/>
-      <c r="BF67" s="38"/>
-      <c r="BG67" s="39"/>
-      <c r="BH67" s="39"/>
-      <c r="BI67" s="39"/>
-      <c r="BJ67" s="39"/>
-      <c r="BK67" s="39"/>
-      <c r="BL67" s="39"/>
-      <c r="BM67" s="39"/>
-      <c r="BN67" s="39"/>
-      <c r="BO67" s="39"/>
-      <c r="BP67" s="39"/>
-      <c r="BQ67" s="39"/>
-      <c r="BR67" s="39"/>
-      <c r="BS67" s="39"/>
-      <c r="BT67" s="39"/>
-      <c r="BU67" s="40"/>
-    </row>
-    <row r="68" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C68" s="61">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D68" s="62"/>
-      <c r="E68" s="51" t="s">
+      <c r="AA73" s="90"/>
+      <c r="AB73" s="90"/>
+      <c r="AC73" s="90"/>
+      <c r="AD73" s="90"/>
+      <c r="AE73" s="90"/>
+      <c r="AF73" s="90"/>
+      <c r="AG73" s="90"/>
+      <c r="AH73" s="90"/>
+      <c r="AI73" s="90"/>
+      <c r="AJ73" s="90"/>
+      <c r="AK73" s="90"/>
+      <c r="AL73" s="90"/>
+      <c r="AM73" s="90"/>
+      <c r="AN73" s="90"/>
+      <c r="AO73" s="90"/>
+      <c r="AP73" s="90"/>
+      <c r="AQ73" s="90"/>
+      <c r="AR73" s="90"/>
+      <c r="AS73" s="90"/>
+      <c r="AT73" s="90"/>
+      <c r="AU73" s="90"/>
+      <c r="AV73" s="90"/>
+      <c r="AW73" s="90"/>
+      <c r="AX73" s="90"/>
+      <c r="AY73" s="90"/>
+      <c r="AZ73" s="90"/>
+      <c r="BA73" s="90"/>
+      <c r="BB73" s="90"/>
+      <c r="BC73" s="90"/>
+      <c r="BD73" s="90"/>
+      <c r="BE73" s="91"/>
+      <c r="BF73" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="63"/>
-      <c r="O68" s="63"/>
-      <c r="P68" s="63"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="63"/>
-      <c r="T68" s="63"/>
-      <c r="U68" s="63"/>
-      <c r="V68" s="63"/>
-      <c r="W68" s="63"/>
-      <c r="X68" s="63"/>
-      <c r="Y68" s="52"/>
-      <c r="Z68" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA68" s="63"/>
-      <c r="AB68" s="63"/>
-      <c r="AC68" s="63"/>
-      <c r="AD68" s="63"/>
-      <c r="AE68" s="63"/>
-      <c r="AF68" s="63"/>
-      <c r="AG68" s="63"/>
-      <c r="AH68" s="63"/>
-      <c r="AI68" s="63"/>
-      <c r="AJ68" s="63"/>
-      <c r="AK68" s="63"/>
-      <c r="AL68" s="63"/>
-      <c r="AM68" s="63"/>
-      <c r="AN68" s="63"/>
-      <c r="AO68" s="63"/>
-      <c r="AP68" s="63"/>
-      <c r="AQ68" s="63"/>
-      <c r="AR68" s="63"/>
-      <c r="AS68" s="63"/>
-      <c r="AT68" s="63"/>
-      <c r="AU68" s="63"/>
-      <c r="AV68" s="63"/>
-      <c r="AW68" s="63"/>
-      <c r="AX68" s="63"/>
-      <c r="AY68" s="63"/>
-      <c r="AZ68" s="63"/>
-      <c r="BA68" s="63"/>
-      <c r="BB68" s="63"/>
-      <c r="BC68" s="63"/>
-      <c r="BD68" s="63"/>
-      <c r="BE68" s="52"/>
-      <c r="BF68" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG68" s="42"/>
-      <c r="BH68" s="42"/>
-      <c r="BI68" s="42"/>
-      <c r="BJ68" s="42"/>
-      <c r="BK68" s="42"/>
-      <c r="BL68" s="42"/>
-      <c r="BM68" s="42"/>
-      <c r="BN68" s="42"/>
-      <c r="BO68" s="42"/>
-      <c r="BP68" s="42"/>
-      <c r="BQ68" s="42"/>
-      <c r="BR68" s="42"/>
-      <c r="BS68" s="42"/>
-      <c r="BT68" s="42"/>
-      <c r="BU68" s="43"/>
+      <c r="BG73" s="42"/>
+      <c r="BH73" s="42"/>
+      <c r="BI73" s="42"/>
+      <c r="BJ73" s="42"/>
+      <c r="BK73" s="42"/>
+      <c r="BL73" s="42"/>
+      <c r="BM73" s="42"/>
+      <c r="BN73" s="42"/>
+      <c r="BO73" s="42"/>
+      <c r="BP73" s="42"/>
+      <c r="BQ73" s="42"/>
+      <c r="BR73" s="42"/>
+      <c r="BS73" s="42"/>
+      <c r="BT73" s="42"/>
+      <c r="BU73" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="BF63:BU63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:Y68"/>
-    <mergeCell ref="Z68:BE68"/>
-    <mergeCell ref="BF55:BU55"/>
+  <mergeCells count="126">
+    <mergeCell ref="AT60:AW60"/>
+    <mergeCell ref="AX60:BC60"/>
+    <mergeCell ref="BD60:BE60"/>
+    <mergeCell ref="BF60:BU60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="N61:AE61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:M60"/>
+    <mergeCell ref="N60:AE60"/>
+    <mergeCell ref="AF60:AN60"/>
+    <mergeCell ref="AO60:AS60"/>
+    <mergeCell ref="AT58:AW58"/>
+    <mergeCell ref="AX58:BC58"/>
+    <mergeCell ref="BD58:BE58"/>
+    <mergeCell ref="BF58:BU58"/>
     <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:M59"/>
     <mergeCell ref="N59:AE59"/>
     <mergeCell ref="AF59:AN59"/>
     <mergeCell ref="AO59:AS59"/>
@@ -7365,23 +8955,67 @@
     <mergeCell ref="AX59:BC59"/>
     <mergeCell ref="BD59:BE59"/>
     <mergeCell ref="BF59:BU59"/>
-    <mergeCell ref="BQ15:BS15"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="AT57:AW57"/>
-    <mergeCell ref="AX57:BC57"/>
-    <mergeCell ref="BF57:BU57"/>
     <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:M58"/>
     <mergeCell ref="N58:AE58"/>
     <mergeCell ref="AF58:AN58"/>
     <mergeCell ref="AO58:AS58"/>
-    <mergeCell ref="AT58:AW58"/>
-    <mergeCell ref="AX58:BC58"/>
-    <mergeCell ref="BD58:BE58"/>
-    <mergeCell ref="BF58:BU58"/>
-    <mergeCell ref="Z67:BE67"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:M57"/>
+    <mergeCell ref="N57:AE57"/>
+    <mergeCell ref="AF57:AN57"/>
+    <mergeCell ref="AO57:AS57"/>
+    <mergeCell ref="N56:AE56"/>
+    <mergeCell ref="AF56:AN56"/>
+    <mergeCell ref="AO56:AS56"/>
+    <mergeCell ref="AX55:BC55"/>
+    <mergeCell ref="BD55:BE55"/>
+    <mergeCell ref="AF62:AN62"/>
+    <mergeCell ref="AO62:AS62"/>
+    <mergeCell ref="BF48:BU48"/>
+    <mergeCell ref="BF49:BU49"/>
+    <mergeCell ref="BF51:BU51"/>
+    <mergeCell ref="AF48:AN48"/>
+    <mergeCell ref="AF49:AN49"/>
+    <mergeCell ref="AF51:AN51"/>
+    <mergeCell ref="AO48:AS48"/>
+    <mergeCell ref="AO49:AS49"/>
+    <mergeCell ref="AO51:AS51"/>
+    <mergeCell ref="BD62:BE62"/>
+    <mergeCell ref="AT57:AW57"/>
+    <mergeCell ref="AX57:BC57"/>
+    <mergeCell ref="BD57:BE57"/>
+    <mergeCell ref="BF57:BU57"/>
+    <mergeCell ref="BD56:BE56"/>
+    <mergeCell ref="AT48:AW48"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AT56:AW56"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="AX49:BC49"/>
+    <mergeCell ref="AX51:BC51"/>
+    <mergeCell ref="AX56:BC56"/>
+    <mergeCell ref="BD48:BE48"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E48:M48"/>
+    <mergeCell ref="E56:M56"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E72:Y72"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="N62:AE62"/>
+    <mergeCell ref="N48:AE48"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="N51:AE51"/>
+    <mergeCell ref="N49:AE49"/>
+    <mergeCell ref="AX63:BC63"/>
+    <mergeCell ref="BD63:BE63"/>
+    <mergeCell ref="BF63:BU63"/>
+    <mergeCell ref="Z72:BE72"/>
     <mergeCell ref="N50:AE50"/>
     <mergeCell ref="AF50:AN50"/>
     <mergeCell ref="AO50:AS50"/>
@@ -7393,60 +9027,43 @@
     <mergeCell ref="AF55:AN55"/>
     <mergeCell ref="AO55:AS55"/>
     <mergeCell ref="AT55:AW55"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="BF56:BU56"/>
     <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E48:M48"/>
-    <mergeCell ref="E56:M56"/>
+    <mergeCell ref="N63:AE63"/>
+    <mergeCell ref="AF63:AN63"/>
+    <mergeCell ref="AO63:AS63"/>
+    <mergeCell ref="AT63:AW63"/>
+    <mergeCell ref="BQ15:BS15"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E67:Y67"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="BF56:BU56"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD51:BE51"/>
-    <mergeCell ref="BD56:BE56"/>
-    <mergeCell ref="AT48:AW48"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AT56:AW56"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="AX49:BC49"/>
-    <mergeCell ref="AX51:BC51"/>
-    <mergeCell ref="AX56:BC56"/>
-    <mergeCell ref="BD48:BE48"/>
-    <mergeCell ref="N57:AE57"/>
-    <mergeCell ref="AF57:AN57"/>
-    <mergeCell ref="AO57:AS57"/>
-    <mergeCell ref="BF48:BU48"/>
-    <mergeCell ref="BF49:BU49"/>
-    <mergeCell ref="BF51:BU51"/>
-    <mergeCell ref="N48:AE48"/>
-    <mergeCell ref="AF48:AN48"/>
-    <mergeCell ref="AF49:AN49"/>
-    <mergeCell ref="AF51:AN51"/>
-    <mergeCell ref="AO48:AS48"/>
-    <mergeCell ref="AO49:AS49"/>
-    <mergeCell ref="AO51:AS51"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="N51:AE51"/>
-    <mergeCell ref="N49:AE49"/>
-    <mergeCell ref="BD57:BE57"/>
-    <mergeCell ref="N56:AE56"/>
-    <mergeCell ref="AF56:AN56"/>
-    <mergeCell ref="AO56:AS56"/>
-    <mergeCell ref="AX55:BC55"/>
-    <mergeCell ref="BD55:BE55"/>
+    <mergeCell ref="BF68:BU68"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:Y73"/>
+    <mergeCell ref="Z73:BE73"/>
+    <mergeCell ref="BF55:BU55"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="N64:AE64"/>
+    <mergeCell ref="AF64:AN64"/>
+    <mergeCell ref="AO64:AS64"/>
+    <mergeCell ref="AT64:AW64"/>
+    <mergeCell ref="AX64:BC64"/>
+    <mergeCell ref="BD64:BE64"/>
+    <mergeCell ref="BF64:BU64"/>
+    <mergeCell ref="AT62:AW62"/>
+    <mergeCell ref="AX62:BC62"/>
+    <mergeCell ref="BF62:BU62"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="44" max="73" man="1"/>
-    <brk id="64" max="73" man="1"/>
+    <brk id="69" max="73" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(ランキング画面).xlsx
+++ b/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(ランキング画面).xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/50.画面/20.画面定義書/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44239B5F-A8B4-4718-9C63-3BC6F0C2F01B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,9 +17,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'画面仕様(ランキング画面)'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(ランキング画面)'!$A$1:$BV$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(ランキング画面)'!$A$1:$BV$73</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面仕様(ランキング画面)'!$1:$4</definedName>
     <definedName name="改訂者">変更履歴!$E$5:$E$25</definedName>
     <definedName name="改訂日" localSheetId="2">[1]変更履歴!$D$5:$D$25</definedName>
@@ -31,7 +27,7 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -44,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -951,18 +947,46 @@
     <t>リンク</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>・総合ランキング</t>
+    <rPh sb="1" eb="3">
+      <t>ソウゴウランキング</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面仕様(ランキング画面)
+・ランキング検索条件エリアのレイアウトを変更</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;改訂日 &quot;yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;バージョン &quot;@"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1594,6 +1618,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1606,6 +1654,69 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1614,99 +1725,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1747,7 +1771,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1755,8 +1779,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="74705" y="113556"/>
-          <a:ext cx="17362396" cy="585701"/>
+          <a:off x="77880" y="123081"/>
+          <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
         </a:xfrm>
@@ -1766,7 +1790,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1831,7 +1855,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1896,7 +1920,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1961,7 +1985,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2026,7 +2050,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2091,7 +2115,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2156,7 +2180,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2228,7 +2252,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2300,7 +2324,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2354,7 +2378,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年9月24日月曜日</a:t>
+              <a:t>2018年9月24日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2372,7 +2396,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2444,7 +2468,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2498,7 +2522,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年10月7日日曜日</a:t>
+              <a:t>2018年11月10日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2516,7 +2540,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2601,7 +2625,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2639,7 +2669,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="円/楕円 16"/>
+        <xdr:cNvPr id="17" name="円/楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2703,7 +2739,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="ドーナツ 17"/>
+        <xdr:cNvPr id="18" name="ドーナツ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2794,7 +2836,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2864,7 +2912,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2934,7 +2988,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3004,7 +3064,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvPr id="28" name="角丸四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3074,7 +3140,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvPr id="29" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3144,7 +3216,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvPr id="30" name="角丸四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3214,7 +3292,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvPr id="31" name="角丸四角形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3284,7 +3368,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="角丸四角形 31"/>
+        <xdr:cNvPr id="32" name="角丸四角形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3354,7 +3444,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvPr id="33" name="角丸四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3416,23 +3512,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表紙"/>
       <sheetName val="変更履歴"/>
-      <sheetName val="画面仕様(XXX画面)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>0.0.1</v>
-          </cell>
-          <cell r="D5">
-            <v>42736</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3724,61 +3807,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="1"/>
-    <col min="3" max="3" width="3.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.1640625" style="1"/>
+    <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="1"/>
+    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="24.75">
       <c r="B2" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="35.25">
       <c r="C10" s="3" t="str">
         <f ca="1">SUBSTITUTE(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND("]",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1),".xlsx","")</f>
-        <v>【eternal】画面定義書(ランキング画面)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
-    </row>
-    <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>【eternal】画面定義書(ランキング画面)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+    </row>
+    <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3830,44 +3913,44 @@
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
     </row>
-    <row r="22" spans="2:51" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:51" ht="19.5">
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AO27" s="80">
+    <row r="27" spans="2:51">
+      <c r="AO27" s="88">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43380</v>
-      </c>
-      <c r="AP27" s="81"/>
-      <c r="AQ27" s="81"/>
-      <c r="AR27" s="81"/>
-      <c r="AS27" s="81"/>
-      <c r="AT27" s="81"/>
-      <c r="AU27" s="81"/>
-      <c r="AV27" s="81"/>
-      <c r="AW27" s="81"/>
-      <c r="AX27" s="81"/>
-      <c r="AY27" s="81"/>
-    </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AR28" s="82" t="str">
+        <v>43414</v>
+      </c>
+      <c r="AP27" s="89"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="89"/>
+      <c r="AS27" s="89"/>
+      <c r="AT27" s="89"/>
+      <c r="AU27" s="89"/>
+      <c r="AV27" s="89"/>
+      <c r="AW27" s="89"/>
+      <c r="AX27" s="89"/>
+      <c r="AY27" s="89"/>
+    </row>
+    <row r="28" spans="2:51">
+      <c r="AR28" s="90" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>1.0.1</v>
-      </c>
-      <c r="AS28" s="82"/>
-      <c r="AT28" s="82"/>
-      <c r="AU28" s="82"/>
-      <c r="AV28" s="82"/>
-      <c r="AW28" s="82"/>
-      <c r="AX28" s="82"/>
-      <c r="AY28" s="82"/>
-    </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
+        <v>1.0.2</v>
+      </c>
+      <c r="AS28" s="90"/>
+      <c r="AT28" s="90"/>
+      <c r="AU28" s="90"/>
+      <c r="AV28" s="90"/>
+      <c r="AW28" s="90"/>
+      <c r="AX28" s="90"/>
+      <c r="AY28" s="90"/>
+    </row>
+    <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
     </row>
-    <row r="35" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="6" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AO27:AY27"/>
@@ -3876,36 +3959,36 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -3919,7 +4002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="36" t="s">
         <v>121</v>
       </c>
@@ -3933,7 +4016,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="38" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="37.5">
       <c r="B6" s="36" t="s">
         <v>122</v>
       </c>
@@ -3947,115 +4030,123 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="37.5">
+      <c r="B7" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43414</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="36"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" s="36"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" s="36"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" s="36"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" s="36"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4064,13 +4155,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:EK73"/>
@@ -4080,17 +4171,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.1640625" style="12"/>
-    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.1640625" style="12"/>
+    <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="12" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="12"/>
+    <col min="76" max="82" width="8.625" style="12" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:141" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:141" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:141" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:141">
       <c r="BX2" s="13" t="s">
         <v>11</v>
       </c>
@@ -4110,7 +4201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:141" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:141">
       <c r="BX3" s="13" t="s">
         <v>35</v>
       </c>
@@ -4125,25 +4216,25 @@
         <v>34</v>
       </c>
       <c r="CB3" s="14">
-        <v>43380</v>
+        <v>43414</v>
       </c>
       <c r="CC3" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:141" ht="18" customHeight="1"/>
+    <row r="5" spans="2:141">
       <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:141">
       <c r="B6" s="15"/>
       <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:141">
       <c r="B7" s="15"/>
       <c r="C7" s="37" t="s">
         <v>33</v>
@@ -4219,7 +4310,7 @@
       <c r="BT7" s="16"/>
       <c r="BU7" s="17"/>
     </row>
-    <row r="8" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:141">
       <c r="B8" s="15"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19" t="s">
@@ -4295,7 +4386,7 @@
       <c r="BT8" s="19"/>
       <c r="BU8" s="20"/>
     </row>
-    <row r="9" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:141">
       <c r="B9" s="15"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19" t="s">
@@ -4371,7 +4462,7 @@
       <c r="BT9" s="19"/>
       <c r="BU9" s="20"/>
     </row>
-    <row r="10" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:141">
       <c r="B10" s="15"/>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
@@ -4445,10 +4536,10 @@
       <c r="BT10" s="22"/>
       <c r="BU10" s="23"/>
     </row>
-    <row r="11" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:141">
       <c r="B11" s="15"/>
     </row>
-    <row r="12" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:141">
       <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
@@ -4489,7 +4580,7 @@
       <c r="AL12" s="22"/>
       <c r="AM12" s="22"/>
     </row>
-    <row r="13" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:141">
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -4569,7 +4660,7 @@
       <c r="EJ13" s="19"/>
       <c r="EK13" s="19"/>
     </row>
-    <row r="14" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:141">
       <c r="C14" s="24"/>
       <c r="D14" s="57"/>
       <c r="E14" s="58"/>
@@ -4649,7 +4740,7 @@
       <c r="EJ14" s="19"/>
       <c r="EK14" s="19"/>
     </row>
-    <row r="15" spans="2:141" ht="23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:141" ht="22.5">
       <c r="C15" s="24"/>
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
@@ -4722,11 +4813,11 @@
       <c r="BN15" s="69"/>
       <c r="BO15" s="70"/>
       <c r="BP15" s="27"/>
-      <c r="BQ15" s="98" t="s">
+      <c r="BQ15" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="BR15" s="99"/>
-      <c r="BS15" s="100"/>
+      <c r="BR15" s="110"/>
+      <c r="BS15" s="111"/>
       <c r="BT15" s="63"/>
       <c r="BU15" s="20"/>
       <c r="EE15" s="19"/>
@@ -4737,7 +4828,7 @@
       <c r="EJ15" s="19"/>
       <c r="EK15" s="19"/>
     </row>
-    <row r="16" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:141">
       <c r="C16" s="24"/>
       <c r="D16" s="64"/>
       <c r="E16" s="65"/>
@@ -4817,7 +4908,7 @@
       <c r="EJ16" s="19"/>
       <c r="EK16" s="19"/>
     </row>
-    <row r="17" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:141">
       <c r="C17" s="24"/>
       <c r="BO17" s="19"/>
       <c r="BP17" s="19"/>
@@ -4834,7 +4925,7 @@
       <c r="EJ17" s="19"/>
       <c r="EK17" s="19"/>
     </row>
-    <row r="18" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:141">
       <c r="C18" s="24"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -4913,7 +5004,7 @@
       <c r="EJ18" s="19"/>
       <c r="EK18" s="19"/>
     </row>
-    <row r="19" spans="3:141" ht="23" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:141" ht="22.5">
       <c r="C19" s="24"/>
       <c r="D19" s="74"/>
       <c r="E19" s="27"/>
@@ -4936,7 +5027,7 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
-      <c r="AD19" s="110" t="s">
+      <c r="AD19" s="82" t="s">
         <v>97</v>
       </c>
       <c r="AK19" s="19"/>
@@ -4984,7 +5075,7 @@
       <c r="EJ19" s="19"/>
       <c r="EK19" s="19"/>
     </row>
-    <row r="20" spans="3:141" ht="23" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:141" ht="22.5">
       <c r="C20" s="24"/>
       <c r="D20" s="74"/>
       <c r="E20" s="62" t="s">
@@ -5065,10 +5156,10 @@
       <c r="EJ20" s="19"/>
       <c r="EK20" s="19"/>
     </row>
-    <row r="21" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:141">
       <c r="C21" s="24"/>
       <c r="D21" s="74"/>
-      <c r="E21" s="27"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="74"/>
@@ -5142,13 +5233,13 @@
       <c r="EJ21" s="19"/>
       <c r="EK21" s="19"/>
     </row>
-    <row r="22" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:141">
       <c r="C22" s="24"/>
       <c r="D22" s="74"/>
-      <c r="E22" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="27"/>
+      <c r="E22" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="74"/>
       <c r="G22" s="27"/>
       <c r="H22" s="74"/>
       <c r="I22" s="74"/>
@@ -5166,16 +5257,16 @@
       <c r="Z22" s="22"/>
       <c r="AA22" s="23"/>
       <c r="AB22" s="19"/>
-      <c r="AE22" s="111" t="s">
+      <c r="AE22" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="AH22" s="114" t="s">
+      <c r="AH22" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="AL22" s="112" t="s">
+      <c r="AL22" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="AO22" s="112">
+      <c r="AO22" s="84">
         <v>10</v>
       </c>
       <c r="AU22" s="19"/>
@@ -5213,11 +5304,13 @@
       <c r="EJ22" s="19"/>
       <c r="EK22" s="19"/>
     </row>
-    <row r="23" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:141">
       <c r="C23" s="24"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="F23" s="78" t="s">
+        <v>126</v>
+      </c>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
       <c r="I23" s="74"/>
@@ -5229,10 +5322,10 @@
       <c r="U23" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="AE23" s="113" t="s">
+      <c r="AE23" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="AH23" s="115" t="s">
+      <c r="AH23" s="87" t="s">
         <v>102</v>
       </c>
       <c r="AV23" s="19"/>
@@ -5269,13 +5362,13 @@
       <c r="EJ23" s="19"/>
       <c r="EK23" s="19"/>
     </row>
-    <row r="24" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:141">
       <c r="C24" s="24"/>
       <c r="D24" s="74"/>
-      <c r="E24" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="78" t="s">
+        <v>50</v>
+      </c>
       <c r="G24" s="74"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
@@ -5310,10 +5403,10 @@
       <c r="AW24" s="19"/>
       <c r="AX24" s="19"/>
       <c r="AY24" s="19"/>
-      <c r="AZ24" s="108"/>
+      <c r="AZ24" s="80"/>
       <c r="BA24" s="19"/>
       <c r="BB24" s="19"/>
-      <c r="BC24" s="109"/>
+      <c r="BC24" s="81"/>
       <c r="BD24" s="19"/>
       <c r="BE24" s="19"/>
       <c r="BF24" s="19"/>
@@ -5340,12 +5433,12 @@
       <c r="EJ24" s="19"/>
       <c r="EK24" s="19"/>
     </row>
-    <row r="25" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:141">
       <c r="C25" s="24"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
       <c r="F25" s="78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G25" s="74"/>
       <c r="H25" s="74"/>
@@ -5407,7 +5500,7 @@
       <c r="EJ25" s="19"/>
       <c r="EK25" s="19"/>
     </row>
-    <row r="26" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:141">
       <c r="C26" s="24"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
@@ -5474,7 +5567,7 @@
       <c r="EJ26" s="19"/>
       <c r="EK26" s="19"/>
     </row>
-    <row r="27" spans="3:141" ht="23" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:141" ht="22.5">
       <c r="C27" s="24"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -5498,7 +5591,7 @@
       <c r="AA27" s="17"/>
       <c r="AB27" s="19"/>
       <c r="AC27" s="19"/>
-      <c r="AD27" s="110" t="s">
+      <c r="AD27" s="82" t="s">
         <v>97</v>
       </c>
       <c r="AK27" s="19"/>
@@ -5548,7 +5641,7 @@
       <c r="EJ27" s="19"/>
       <c r="EK27" s="19"/>
     </row>
-    <row r="28" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:141">
       <c r="C28" s="24"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
@@ -5628,13 +5721,11 @@
       <c r="EJ28" s="19"/>
       <c r="EK28" s="19"/>
     </row>
-    <row r="29" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:141">
       <c r="C29" s="24"/>
       <c r="D29" s="74"/>
       <c r="E29" s="74"/>
-      <c r="F29" s="78" t="s">
-        <v>51</v>
-      </c>
+      <c r="F29" s="74"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
       <c r="I29" s="74"/>
@@ -5708,18 +5799,22 @@
       <c r="EJ29" s="19"/>
       <c r="EK29" s="19"/>
     </row>
-    <row r="30" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:141">
       <c r="C30" s="24"/>
       <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
+      <c r="E30" s="74" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="74"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="77" t="s">
+        <v>48</v>
+      </c>
       <c r="N30" s="74"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
@@ -5729,16 +5824,16 @@
       <c r="Z30" s="22"/>
       <c r="AA30" s="23"/>
       <c r="AB30" s="19"/>
-      <c r="AE30" s="111" t="s">
+      <c r="AE30" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="AH30" s="114" t="s">
+      <c r="AH30" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="AL30" s="112" t="s">
+      <c r="AL30" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="AO30" s="112">
+      <c r="AO30" s="84">
         <v>10</v>
       </c>
       <c r="AU30" s="19"/>
@@ -5778,30 +5873,26 @@
       <c r="EJ30" s="19"/>
       <c r="EK30" s="19"/>
     </row>
-    <row r="31" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:141">
       <c r="C31" s="24"/>
       <c r="D31" s="74"/>
-      <c r="E31" s="74" t="s">
-        <v>47</v>
-      </c>
+      <c r="E31" s="74"/>
       <c r="F31" s="74"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="77" t="s">
-        <v>48</v>
-      </c>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
       <c r="N31" s="74"/>
       <c r="U31" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="AE31" s="113" t="s">
+      <c r="AE31" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="AH31" s="115" t="s">
+      <c r="AH31" s="87" t="s">
         <v>102</v>
       </c>
       <c r="AV31" s="19"/>
@@ -5838,7 +5929,7 @@
       <c r="EJ31" s="19"/>
       <c r="EK31" s="19"/>
     </row>
-    <row r="32" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:141">
       <c r="C32" s="24"/>
       <c r="D32" s="74"/>
       <c r="E32" s="74"/>
@@ -5847,9 +5938,11 @@
       <c r="H32" s="74"/>
       <c r="I32" s="74"/>
       <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
+      <c r="K32" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
       <c r="N32" s="74"/>
       <c r="U32" s="71" t="s">
         <v>42</v>
@@ -5877,10 +5970,10 @@
       <c r="AW32" s="19"/>
       <c r="AX32" s="19"/>
       <c r="AY32" s="19"/>
-      <c r="AZ32" s="108"/>
+      <c r="AZ32" s="80"/>
       <c r="BA32" s="19"/>
       <c r="BB32" s="19"/>
-      <c r="BC32" s="109"/>
+      <c r="BC32" s="81"/>
       <c r="BD32" s="19"/>
       <c r="BE32" s="19"/>
       <c r="BF32" s="19"/>
@@ -5907,7 +6000,7 @@
       <c r="EJ32" s="19"/>
       <c r="EK32" s="19"/>
     </row>
-    <row r="33" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:141">
       <c r="C33" s="24"/>
       <c r="D33" s="74"/>
       <c r="E33" s="74"/>
@@ -5916,11 +6009,9 @@
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
       <c r="J33" s="74"/>
-      <c r="K33" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
       <c r="N33" s="74"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
@@ -5974,7 +6065,7 @@
       <c r="EJ33" s="19"/>
       <c r="EK33" s="19"/>
     </row>
-    <row r="34" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:141">
       <c r="C34" s="24"/>
       <c r="D34" s="74"/>
       <c r="E34" s="74"/>
@@ -6039,7 +6130,7 @@
       <c r="EJ34" s="19"/>
       <c r="EK34" s="19"/>
     </row>
-    <row r="35" spans="2:141" ht="23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:141" ht="22.5">
       <c r="C35" s="24"/>
       <c r="U35" s="56"/>
       <c r="V35" s="16"/>
@@ -6050,7 +6141,7 @@
       <c r="AA35" s="17"/>
       <c r="AB35" s="19"/>
       <c r="AC35" s="19"/>
-      <c r="AD35" s="110" t="s">
+      <c r="AD35" s="82" t="s">
         <v>97</v>
       </c>
       <c r="AK35" s="19"/>
@@ -6098,7 +6189,7 @@
       <c r="EJ35" s="19"/>
       <c r="EK35" s="19"/>
     </row>
-    <row r="36" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:141">
       <c r="C36" s="24"/>
       <c r="U36" s="18"/>
       <c r="X36" s="73" t="s">
@@ -6163,7 +6254,7 @@
       <c r="EJ36" s="19"/>
       <c r="EK36" s="19"/>
     </row>
-    <row r="37" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:141">
       <c r="C37" s="24"/>
       <c r="U37" s="18"/>
       <c r="V37" s="19"/>
@@ -6228,7 +6319,7 @@
       <c r="EJ37" s="19"/>
       <c r="EK37" s="19"/>
     </row>
-    <row r="38" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:141">
       <c r="C38" s="24"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
@@ -6238,16 +6329,16 @@
       <c r="Z38" s="22"/>
       <c r="AA38" s="23"/>
       <c r="AB38" s="19"/>
-      <c r="AE38" s="111" t="s">
+      <c r="AE38" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="AH38" s="114" t="s">
+      <c r="AH38" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="AL38" s="112" t="s">
+      <c r="AL38" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="AO38" s="112">
+      <c r="AO38" s="84">
         <v>10</v>
       </c>
       <c r="AU38" s="19"/>
@@ -6285,15 +6376,15 @@
       <c r="EJ38" s="19"/>
       <c r="EK38" s="19"/>
     </row>
-    <row r="39" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:141">
       <c r="C39" s="24"/>
       <c r="U39" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="AE39" s="113" t="s">
+      <c r="AE39" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="AH39" s="115" t="s">
+      <c r="AH39" s="87" t="s">
         <v>102</v>
       </c>
       <c r="AV39" s="19"/>
@@ -6330,7 +6421,7 @@
       <c r="EJ39" s="19"/>
       <c r="EK39" s="19"/>
     </row>
-    <row r="40" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:141">
       <c r="C40" s="24"/>
       <c r="U40" s="71" t="s">
         <v>42</v>
@@ -6358,10 +6449,10 @@
       <c r="AW40" s="19"/>
       <c r="AX40" s="19"/>
       <c r="AY40" s="19"/>
-      <c r="AZ40" s="108"/>
+      <c r="AZ40" s="80"/>
       <c r="BA40" s="19"/>
       <c r="BB40" s="19"/>
-      <c r="BC40" s="109"/>
+      <c r="BC40" s="81"/>
       <c r="BD40" s="19"/>
       <c r="BE40" s="19"/>
       <c r="BF40" s="19"/>
@@ -6388,7 +6479,7 @@
       <c r="EJ40" s="19"/>
       <c r="EK40" s="19"/>
     </row>
-    <row r="41" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:141">
       <c r="C41" s="24"/>
       <c r="BG41" s="18"/>
       <c r="BH41" s="19"/>
@@ -6413,7 +6504,7 @@
       <c r="EJ41" s="19"/>
       <c r="EK41" s="19"/>
     </row>
-    <row r="42" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:141">
       <c r="C42" s="24"/>
       <c r="AJ42" s="79"/>
       <c r="BG42" s="21"/>
@@ -6441,7 +6532,7 @@
       <c r="EJ42" s="19"/>
       <c r="EK42" s="19"/>
     </row>
-    <row r="43" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:141">
       <c r="C43" s="24"/>
       <c r="BO43" s="19"/>
       <c r="BP43" s="19"/>
@@ -6453,7 +6544,7 @@
       <c r="BV43" s="18"/>
       <c r="BW43" s="19"/>
     </row>
-    <row r="44" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:141">
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
@@ -6528,7 +6619,7 @@
       <c r="BV44" s="18"/>
       <c r="BW44" s="19"/>
     </row>
-    <row r="45" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:141">
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -6601,7 +6692,7 @@
       <c r="BT45" s="19"/>
       <c r="BU45" s="19"/>
     </row>
-    <row r="46" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:141">
       <c r="C46" s="19" t="s">
         <v>26</v>
       </c>
@@ -6676,11 +6767,11 @@
       <c r="BT46" s="19"/>
       <c r="BU46" s="19"/>
     </row>
-    <row r="47" spans="2:141" x14ac:dyDescent="0.25">
-      <c r="C47" s="103" t="s">
+    <row r="47" spans="2:141">
+      <c r="C47" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="104"/>
+      <c r="D47" s="108"/>
       <c r="E47" s="32" t="s">
         <v>19</v>
       </c>
@@ -6767,106 +6858,106 @@
       <c r="BT47" s="34"/>
       <c r="BU47" s="33"/>
     </row>
-    <row r="48" spans="2:141" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:141" ht="38.1" customHeight="1">
       <c r="B48" s="35"/>
-      <c r="C48" s="87">
+      <c r="C48" s="98">
         <f>ROW()-ROW($C$47)</f>
         <v>1</v>
       </c>
-      <c r="D48" s="88"/>
-      <c r="E48" s="92" t="s">
+      <c r="D48" s="99"/>
+      <c r="E48" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="93"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="105" t="s">
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
+      <c r="L48" s="104"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="O48" s="106"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="106"/>
-      <c r="R48" s="106"/>
-      <c r="S48" s="106"/>
-      <c r="T48" s="106"/>
-      <c r="U48" s="106"/>
-      <c r="V48" s="106"/>
-      <c r="W48" s="106"/>
-      <c r="X48" s="106"/>
-      <c r="Y48" s="106"/>
-      <c r="Z48" s="106"/>
-      <c r="AA48" s="106"/>
-      <c r="AB48" s="106"/>
-      <c r="AC48" s="106"/>
-      <c r="AD48" s="106"/>
-      <c r="AE48" s="107"/>
-      <c r="AF48" s="89" t="s">
+      <c r="O48" s="101"/>
+      <c r="P48" s="101"/>
+      <c r="Q48" s="101"/>
+      <c r="R48" s="101"/>
+      <c r="S48" s="101"/>
+      <c r="T48" s="101"/>
+      <c r="U48" s="101"/>
+      <c r="V48" s="101"/>
+      <c r="W48" s="101"/>
+      <c r="X48" s="101"/>
+      <c r="Y48" s="101"/>
+      <c r="Z48" s="101"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="101"/>
+      <c r="AC48" s="101"/>
+      <c r="AD48" s="101"/>
+      <c r="AE48" s="102"/>
+      <c r="AF48" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="AG48" s="90"/>
-      <c r="AH48" s="90"/>
-      <c r="AI48" s="90"/>
-      <c r="AJ48" s="90"/>
-      <c r="AK48" s="90"/>
-      <c r="AL48" s="90"/>
-      <c r="AM48" s="90"/>
-      <c r="AN48" s="91"/>
-      <c r="AO48" s="89" t="s">
+      <c r="AG48" s="96"/>
+      <c r="AH48" s="96"/>
+      <c r="AI48" s="96"/>
+      <c r="AJ48" s="96"/>
+      <c r="AK48" s="96"/>
+      <c r="AL48" s="96"/>
+      <c r="AM48" s="96"/>
+      <c r="AN48" s="97"/>
+      <c r="AO48" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AP48" s="90"/>
-      <c r="AQ48" s="90"/>
-      <c r="AR48" s="90"/>
-      <c r="AS48" s="91"/>
-      <c r="AT48" s="95" t="s">
+      <c r="AP48" s="96"/>
+      <c r="AQ48" s="96"/>
+      <c r="AR48" s="96"/>
+      <c r="AS48" s="97"/>
+      <c r="AT48" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="AU48" s="90"/>
-      <c r="AV48" s="90"/>
-      <c r="AW48" s="91"/>
-      <c r="AX48" s="89" t="s">
+      <c r="AU48" s="96"/>
+      <c r="AV48" s="96"/>
+      <c r="AW48" s="97"/>
+      <c r="AX48" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="AY48" s="90"/>
-      <c r="AZ48" s="90"/>
-      <c r="BA48" s="90"/>
-      <c r="BB48" s="90"/>
-      <c r="BC48" s="91"/>
-      <c r="BD48" s="89" t="s">
+      <c r="AY48" s="96"/>
+      <c r="AZ48" s="96"/>
+      <c r="BA48" s="96"/>
+      <c r="BB48" s="96"/>
+      <c r="BC48" s="97"/>
+      <c r="BD48" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="BE48" s="91"/>
-      <c r="BF48" s="102" t="s">
+      <c r="BE48" s="97"/>
+      <c r="BF48" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="BG48" s="90"/>
-      <c r="BH48" s="90"/>
-      <c r="BI48" s="90"/>
-      <c r="BJ48" s="90"/>
-      <c r="BK48" s="90"/>
-      <c r="BL48" s="90"/>
-      <c r="BM48" s="90"/>
-      <c r="BN48" s="90"/>
-      <c r="BO48" s="90"/>
-      <c r="BP48" s="90"/>
-      <c r="BQ48" s="90"/>
-      <c r="BR48" s="90"/>
-      <c r="BS48" s="90"/>
-      <c r="BT48" s="90"/>
-      <c r="BU48" s="91"/>
-    </row>
-    <row r="49" spans="2:73" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG48" s="96"/>
+      <c r="BH48" s="96"/>
+      <c r="BI48" s="96"/>
+      <c r="BJ48" s="96"/>
+      <c r="BK48" s="96"/>
+      <c r="BL48" s="96"/>
+      <c r="BM48" s="96"/>
+      <c r="BN48" s="96"/>
+      <c r="BO48" s="96"/>
+      <c r="BP48" s="96"/>
+      <c r="BQ48" s="96"/>
+      <c r="BR48" s="96"/>
+      <c r="BS48" s="96"/>
+      <c r="BT48" s="96"/>
+      <c r="BU48" s="97"/>
+    </row>
+    <row r="49" spans="2:73" ht="38.1" customHeight="1">
       <c r="B49" s="35"/>
-      <c r="C49" s="87">
+      <c r="C49" s="98">
         <f>ROW()-ROW($C$47)</f>
         <v>2</v>
       </c>
-      <c r="D49" s="88"/>
+      <c r="D49" s="99"/>
       <c r="E49" s="44" t="s">
         <v>49</v>
       </c>
@@ -6878,88 +6969,88 @@
       <c r="K49" s="45"/>
       <c r="L49" s="45"/>
       <c r="M49" s="46"/>
-      <c r="N49" s="89" t="s">
+      <c r="N49" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="O49" s="90"/>
-      <c r="P49" s="90"/>
-      <c r="Q49" s="90"/>
-      <c r="R49" s="90"/>
-      <c r="S49" s="90"/>
-      <c r="T49" s="90"/>
-      <c r="U49" s="90"/>
-      <c r="V49" s="90"/>
-      <c r="W49" s="90"/>
-      <c r="X49" s="90"/>
-      <c r="Y49" s="90"/>
-      <c r="Z49" s="90"/>
-      <c r="AA49" s="90"/>
-      <c r="AB49" s="90"/>
-      <c r="AC49" s="90"/>
-      <c r="AD49" s="90"/>
-      <c r="AE49" s="91"/>
-      <c r="AF49" s="89" t="s">
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="96"/>
+      <c r="S49" s="96"/>
+      <c r="T49" s="96"/>
+      <c r="U49" s="96"/>
+      <c r="V49" s="96"/>
+      <c r="W49" s="96"/>
+      <c r="X49" s="96"/>
+      <c r="Y49" s="96"/>
+      <c r="Z49" s="96"/>
+      <c r="AA49" s="96"/>
+      <c r="AB49" s="96"/>
+      <c r="AC49" s="96"/>
+      <c r="AD49" s="96"/>
+      <c r="AE49" s="97"/>
+      <c r="AF49" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="AG49" s="90"/>
-      <c r="AH49" s="90"/>
-      <c r="AI49" s="90"/>
-      <c r="AJ49" s="90"/>
-      <c r="AK49" s="90"/>
-      <c r="AL49" s="90"/>
-      <c r="AM49" s="90"/>
-      <c r="AN49" s="91"/>
-      <c r="AO49" s="89" t="s">
+      <c r="AG49" s="96"/>
+      <c r="AH49" s="96"/>
+      <c r="AI49" s="96"/>
+      <c r="AJ49" s="96"/>
+      <c r="AK49" s="96"/>
+      <c r="AL49" s="96"/>
+      <c r="AM49" s="96"/>
+      <c r="AN49" s="97"/>
+      <c r="AO49" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AP49" s="90"/>
-      <c r="AQ49" s="90"/>
-      <c r="AR49" s="90"/>
-      <c r="AS49" s="91"/>
-      <c r="AT49" s="95" t="s">
+      <c r="AP49" s="96"/>
+      <c r="AQ49" s="96"/>
+      <c r="AR49" s="96"/>
+      <c r="AS49" s="97"/>
+      <c r="AT49" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="AU49" s="90"/>
-      <c r="AV49" s="90"/>
-      <c r="AW49" s="91"/>
-      <c r="AX49" s="89" t="s">
+      <c r="AU49" s="96"/>
+      <c r="AV49" s="96"/>
+      <c r="AW49" s="97"/>
+      <c r="AX49" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="AY49" s="90"/>
-      <c r="AZ49" s="90"/>
-      <c r="BA49" s="90"/>
-      <c r="BB49" s="90"/>
-      <c r="BC49" s="91"/>
-      <c r="BD49" s="89" t="s">
+      <c r="AY49" s="96"/>
+      <c r="AZ49" s="96"/>
+      <c r="BA49" s="96"/>
+      <c r="BB49" s="96"/>
+      <c r="BC49" s="97"/>
+      <c r="BD49" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="BE49" s="91"/>
-      <c r="BF49" s="102" t="s">
+      <c r="BE49" s="97"/>
+      <c r="BF49" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="BG49" s="90"/>
-      <c r="BH49" s="90"/>
-      <c r="BI49" s="90"/>
-      <c r="BJ49" s="90"/>
-      <c r="BK49" s="90"/>
-      <c r="BL49" s="90"/>
-      <c r="BM49" s="90"/>
-      <c r="BN49" s="90"/>
-      <c r="BO49" s="90"/>
-      <c r="BP49" s="90"/>
-      <c r="BQ49" s="90"/>
-      <c r="BR49" s="90"/>
-      <c r="BS49" s="90"/>
-      <c r="BT49" s="90"/>
-      <c r="BU49" s="91"/>
-    </row>
-    <row r="50" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BG49" s="96"/>
+      <c r="BH49" s="96"/>
+      <c r="BI49" s="96"/>
+      <c r="BJ49" s="96"/>
+      <c r="BK49" s="96"/>
+      <c r="BL49" s="96"/>
+      <c r="BM49" s="96"/>
+      <c r="BN49" s="96"/>
+      <c r="BO49" s="96"/>
+      <c r="BP49" s="96"/>
+      <c r="BQ49" s="96"/>
+      <c r="BR49" s="96"/>
+      <c r="BS49" s="96"/>
+      <c r="BT49" s="96"/>
+      <c r="BU49" s="97"/>
+    </row>
+    <row r="50" spans="2:73">
       <c r="B50" s="35"/>
-      <c r="C50" s="87">
+      <c r="C50" s="98">
         <f>ROW()-ROW($C$47)</f>
         <v>3</v>
       </c>
-      <c r="D50" s="88"/>
+      <c r="D50" s="99"/>
       <c r="E50" s="44" t="s">
         <v>59</v>
       </c>
@@ -6971,86 +7062,86 @@
       <c r="K50" s="45"/>
       <c r="L50" s="45"/>
       <c r="M50" s="46"/>
-      <c r="N50" s="89" t="s">
+      <c r="N50" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="90"/>
-      <c r="S50" s="90"/>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
-      <c r="V50" s="90"/>
-      <c r="W50" s="90"/>
-      <c r="X50" s="90"/>
-      <c r="Y50" s="90"/>
-      <c r="Z50" s="90"/>
-      <c r="AA50" s="90"/>
-      <c r="AB50" s="90"/>
-      <c r="AC50" s="90"/>
-      <c r="AD50" s="90"/>
-      <c r="AE50" s="91"/>
-      <c r="AF50" s="89" t="s">
+      <c r="O50" s="96"/>
+      <c r="P50" s="96"/>
+      <c r="Q50" s="96"/>
+      <c r="R50" s="96"/>
+      <c r="S50" s="96"/>
+      <c r="T50" s="96"/>
+      <c r="U50" s="96"/>
+      <c r="V50" s="96"/>
+      <c r="W50" s="96"/>
+      <c r="X50" s="96"/>
+      <c r="Y50" s="96"/>
+      <c r="Z50" s="96"/>
+      <c r="AA50" s="96"/>
+      <c r="AB50" s="96"/>
+      <c r="AC50" s="96"/>
+      <c r="AD50" s="96"/>
+      <c r="AE50" s="97"/>
+      <c r="AF50" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="AG50" s="90"/>
-      <c r="AH50" s="90"/>
-      <c r="AI50" s="90"/>
-      <c r="AJ50" s="90"/>
-      <c r="AK50" s="90"/>
-      <c r="AL50" s="90"/>
-      <c r="AM50" s="90"/>
-      <c r="AN50" s="91"/>
-      <c r="AO50" s="89" t="s">
+      <c r="AG50" s="96"/>
+      <c r="AH50" s="96"/>
+      <c r="AI50" s="96"/>
+      <c r="AJ50" s="96"/>
+      <c r="AK50" s="96"/>
+      <c r="AL50" s="96"/>
+      <c r="AM50" s="96"/>
+      <c r="AN50" s="97"/>
+      <c r="AO50" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AP50" s="90"/>
-      <c r="AQ50" s="90"/>
-      <c r="AR50" s="90"/>
-      <c r="AS50" s="91"/>
-      <c r="AT50" s="95" t="s">
+      <c r="AP50" s="96"/>
+      <c r="AQ50" s="96"/>
+      <c r="AR50" s="96"/>
+      <c r="AS50" s="97"/>
+      <c r="AT50" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="AU50" s="90"/>
-      <c r="AV50" s="90"/>
-      <c r="AW50" s="91"/>
-      <c r="AX50" s="89" t="s">
+      <c r="AU50" s="96"/>
+      <c r="AV50" s="96"/>
+      <c r="AW50" s="97"/>
+      <c r="AX50" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="AY50" s="90"/>
-      <c r="AZ50" s="90"/>
-      <c r="BA50" s="90"/>
-      <c r="BB50" s="90"/>
-      <c r="BC50" s="91"/>
-      <c r="BD50" s="89" t="s">
+      <c r="AY50" s="96"/>
+      <c r="AZ50" s="96"/>
+      <c r="BA50" s="96"/>
+      <c r="BB50" s="96"/>
+      <c r="BC50" s="97"/>
+      <c r="BD50" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BE50" s="91"/>
-      <c r="BF50" s="92"/>
-      <c r="BG50" s="93"/>
-      <c r="BH50" s="93"/>
-      <c r="BI50" s="93"/>
-      <c r="BJ50" s="93"/>
-      <c r="BK50" s="93"/>
-      <c r="BL50" s="93"/>
-      <c r="BM50" s="93"/>
-      <c r="BN50" s="93"/>
-      <c r="BO50" s="93"/>
-      <c r="BP50" s="93"/>
-      <c r="BQ50" s="93"/>
-      <c r="BR50" s="93"/>
-      <c r="BS50" s="93"/>
-      <c r="BT50" s="93"/>
-      <c r="BU50" s="94"/>
-    </row>
-    <row r="51" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BE50" s="97"/>
+      <c r="BF50" s="103"/>
+      <c r="BG50" s="104"/>
+      <c r="BH50" s="104"/>
+      <c r="BI50" s="104"/>
+      <c r="BJ50" s="104"/>
+      <c r="BK50" s="104"/>
+      <c r="BL50" s="104"/>
+      <c r="BM50" s="104"/>
+      <c r="BN50" s="104"/>
+      <c r="BO50" s="104"/>
+      <c r="BP50" s="104"/>
+      <c r="BQ50" s="104"/>
+      <c r="BR50" s="104"/>
+      <c r="BS50" s="104"/>
+      <c r="BT50" s="104"/>
+      <c r="BU50" s="105"/>
+    </row>
+    <row r="51" spans="2:73">
       <c r="B51" s="35"/>
-      <c r="C51" s="87">
+      <c r="C51" s="98">
         <f>ROW()-ROW($C$47)</f>
         <v>4</v>
       </c>
-      <c r="D51" s="88"/>
+      <c r="D51" s="99"/>
       <c r="E51" s="44" t="s">
         <v>63</v>
       </c>
@@ -7062,84 +7153,84 @@
       <c r="K51" s="45"/>
       <c r="L51" s="45"/>
       <c r="M51" s="46"/>
-      <c r="N51" s="89" t="s">
+      <c r="N51" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="O51" s="90"/>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="90"/>
-      <c r="R51" s="90"/>
-      <c r="S51" s="90"/>
-      <c r="T51" s="90"/>
-      <c r="U51" s="90"/>
-      <c r="V51" s="90"/>
-      <c r="W51" s="90"/>
-      <c r="X51" s="90"/>
-      <c r="Y51" s="90"/>
-      <c r="Z51" s="90"/>
-      <c r="AA51" s="90"/>
-      <c r="AB51" s="90"/>
-      <c r="AC51" s="90"/>
-      <c r="AD51" s="90"/>
-      <c r="AE51" s="91"/>
-      <c r="AF51" s="89" t="s">
+      <c r="O51" s="96"/>
+      <c r="P51" s="96"/>
+      <c r="Q51" s="96"/>
+      <c r="R51" s="96"/>
+      <c r="S51" s="96"/>
+      <c r="T51" s="96"/>
+      <c r="U51" s="96"/>
+      <c r="V51" s="96"/>
+      <c r="W51" s="96"/>
+      <c r="X51" s="96"/>
+      <c r="Y51" s="96"/>
+      <c r="Z51" s="96"/>
+      <c r="AA51" s="96"/>
+      <c r="AB51" s="96"/>
+      <c r="AC51" s="96"/>
+      <c r="AD51" s="96"/>
+      <c r="AE51" s="97"/>
+      <c r="AF51" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="AG51" s="90"/>
-      <c r="AH51" s="90"/>
-      <c r="AI51" s="90"/>
-      <c r="AJ51" s="90"/>
-      <c r="AK51" s="90"/>
-      <c r="AL51" s="90"/>
-      <c r="AM51" s="90"/>
-      <c r="AN51" s="91"/>
-      <c r="AO51" s="89" t="s">
+      <c r="AG51" s="96"/>
+      <c r="AH51" s="96"/>
+      <c r="AI51" s="96"/>
+      <c r="AJ51" s="96"/>
+      <c r="AK51" s="96"/>
+      <c r="AL51" s="96"/>
+      <c r="AM51" s="96"/>
+      <c r="AN51" s="97"/>
+      <c r="AO51" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AP51" s="90"/>
-      <c r="AQ51" s="90"/>
-      <c r="AR51" s="90"/>
-      <c r="AS51" s="91"/>
-      <c r="AT51" s="95" t="s">
+      <c r="AP51" s="96"/>
+      <c r="AQ51" s="96"/>
+      <c r="AR51" s="96"/>
+      <c r="AS51" s="97"/>
+      <c r="AT51" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="AU51" s="96"/>
-      <c r="AV51" s="96"/>
-      <c r="AW51" s="97"/>
-      <c r="AX51" s="89" t="s">
+      <c r="AU51" s="93"/>
+      <c r="AV51" s="93"/>
+      <c r="AW51" s="94"/>
+      <c r="AX51" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="AY51" s="90"/>
-      <c r="AZ51" s="90"/>
-      <c r="BA51" s="90"/>
-      <c r="BB51" s="90"/>
-      <c r="BC51" s="91"/>
-      <c r="BD51" s="89" t="s">
+      <c r="AY51" s="96"/>
+      <c r="AZ51" s="96"/>
+      <c r="BA51" s="96"/>
+      <c r="BB51" s="96"/>
+      <c r="BC51" s="97"/>
+      <c r="BD51" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="BE51" s="91"/>
-      <c r="BF51" s="92"/>
-      <c r="BG51" s="93"/>
-      <c r="BH51" s="93"/>
-      <c r="BI51" s="93"/>
-      <c r="BJ51" s="93"/>
-      <c r="BK51" s="93"/>
-      <c r="BL51" s="93"/>
-      <c r="BM51" s="93"/>
-      <c r="BN51" s="93"/>
-      <c r="BO51" s="93"/>
-      <c r="BP51" s="93"/>
-      <c r="BQ51" s="93"/>
-      <c r="BR51" s="93"/>
-      <c r="BS51" s="93"/>
-      <c r="BT51" s="93"/>
-      <c r="BU51" s="94"/>
-    </row>
-    <row r="52" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BE51" s="97"/>
+      <c r="BF51" s="103"/>
+      <c r="BG51" s="104"/>
+      <c r="BH51" s="104"/>
+      <c r="BI51" s="104"/>
+      <c r="BJ51" s="104"/>
+      <c r="BK51" s="104"/>
+      <c r="BL51" s="104"/>
+      <c r="BM51" s="104"/>
+      <c r="BN51" s="104"/>
+      <c r="BO51" s="104"/>
+      <c r="BP51" s="104"/>
+      <c r="BQ51" s="104"/>
+      <c r="BR51" s="104"/>
+      <c r="BS51" s="104"/>
+      <c r="BT51" s="104"/>
+      <c r="BU51" s="105"/>
+    </row>
+    <row r="52" spans="2:73">
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
     </row>
-    <row r="53" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:73">
       <c r="C53" s="19" t="s">
         <v>69</v>
       </c>
@@ -7214,11 +7305,11 @@
       <c r="BT53" s="19"/>
       <c r="BU53" s="19"/>
     </row>
-    <row r="54" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C54" s="103" t="s">
+    <row r="54" spans="2:73">
+      <c r="C54" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="104"/>
+      <c r="D54" s="108"/>
       <c r="E54" s="32" t="s">
         <v>19</v>
       </c>
@@ -7305,13 +7396,13 @@
       <c r="BT54" s="34"/>
       <c r="BU54" s="33"/>
     </row>
-    <row r="55" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:73">
       <c r="B55" s="35"/>
-      <c r="C55" s="87">
+      <c r="C55" s="98">
         <f>ROW()-ROW($C$54)</f>
         <v>1</v>
       </c>
-      <c r="D55" s="88"/>
+      <c r="D55" s="99"/>
       <c r="E55" s="44" t="s">
         <v>44</v>
       </c>
@@ -7323,545 +7414,545 @@
       <c r="K55" s="45"/>
       <c r="L55" s="45"/>
       <c r="M55" s="46"/>
-      <c r="N55" s="89" t="s">
+      <c r="N55" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="O55" s="90"/>
-      <c r="P55" s="90"/>
-      <c r="Q55" s="90"/>
-      <c r="R55" s="90"/>
-      <c r="S55" s="90"/>
-      <c r="T55" s="90"/>
-      <c r="U55" s="90"/>
-      <c r="V55" s="90"/>
-      <c r="W55" s="90"/>
-      <c r="X55" s="90"/>
-      <c r="Y55" s="90"/>
-      <c r="Z55" s="90"/>
-      <c r="AA55" s="90"/>
-      <c r="AB55" s="90"/>
-      <c r="AC55" s="90"/>
-      <c r="AD55" s="90"/>
-      <c r="AE55" s="91"/>
-      <c r="AF55" s="89" t="s">
+      <c r="O55" s="96"/>
+      <c r="P55" s="96"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="96"/>
+      <c r="U55" s="96"/>
+      <c r="V55" s="96"/>
+      <c r="W55" s="96"/>
+      <c r="X55" s="96"/>
+      <c r="Y55" s="96"/>
+      <c r="Z55" s="96"/>
+      <c r="AA55" s="96"/>
+      <c r="AB55" s="96"/>
+      <c r="AC55" s="96"/>
+      <c r="AD55" s="96"/>
+      <c r="AE55" s="97"/>
+      <c r="AF55" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="AG55" s="90"/>
-      <c r="AH55" s="90"/>
-      <c r="AI55" s="90"/>
-      <c r="AJ55" s="90"/>
-      <c r="AK55" s="90"/>
-      <c r="AL55" s="90"/>
-      <c r="AM55" s="90"/>
-      <c r="AN55" s="91"/>
-      <c r="AO55" s="89" t="s">
+      <c r="AG55" s="96"/>
+      <c r="AH55" s="96"/>
+      <c r="AI55" s="96"/>
+      <c r="AJ55" s="96"/>
+      <c r="AK55" s="96"/>
+      <c r="AL55" s="96"/>
+      <c r="AM55" s="96"/>
+      <c r="AN55" s="97"/>
+      <c r="AO55" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="AP55" s="90"/>
-      <c r="AQ55" s="90"/>
-      <c r="AR55" s="90"/>
-      <c r="AS55" s="91"/>
-      <c r="AT55" s="95" t="s">
+      <c r="AP55" s="96"/>
+      <c r="AQ55" s="96"/>
+      <c r="AR55" s="96"/>
+      <c r="AS55" s="97"/>
+      <c r="AT55" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="AU55" s="96"/>
-      <c r="AV55" s="96"/>
-      <c r="AW55" s="97"/>
-      <c r="AX55" s="89" t="s">
+      <c r="AU55" s="93"/>
+      <c r="AV55" s="93"/>
+      <c r="AW55" s="94"/>
+      <c r="AX55" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AY55" s="90"/>
-      <c r="AZ55" s="90"/>
-      <c r="BA55" s="90"/>
-      <c r="BB55" s="90"/>
-      <c r="BC55" s="91"/>
-      <c r="BD55" s="89" t="s">
+      <c r="AY55" s="96"/>
+      <c r="AZ55" s="96"/>
+      <c r="BA55" s="96"/>
+      <c r="BB55" s="96"/>
+      <c r="BC55" s="97"/>
+      <c r="BD55" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BE55" s="91"/>
-      <c r="BF55" s="92" t="s">
+      <c r="BE55" s="97"/>
+      <c r="BF55" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="BG55" s="93"/>
-      <c r="BH55" s="93"/>
-      <c r="BI55" s="93"/>
-      <c r="BJ55" s="93"/>
-      <c r="BK55" s="93"/>
-      <c r="BL55" s="93"/>
-      <c r="BM55" s="93"/>
-      <c r="BN55" s="93"/>
-      <c r="BO55" s="93"/>
-      <c r="BP55" s="93"/>
-      <c r="BQ55" s="93"/>
-      <c r="BR55" s="93"/>
-      <c r="BS55" s="93"/>
-      <c r="BT55" s="93"/>
-      <c r="BU55" s="94"/>
-    </row>
-    <row r="56" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BG55" s="104"/>
+      <c r="BH55" s="104"/>
+      <c r="BI55" s="104"/>
+      <c r="BJ55" s="104"/>
+      <c r="BK55" s="104"/>
+      <c r="BL55" s="104"/>
+      <c r="BM55" s="104"/>
+      <c r="BN55" s="104"/>
+      <c r="BO55" s="104"/>
+      <c r="BP55" s="104"/>
+      <c r="BQ55" s="104"/>
+      <c r="BR55" s="104"/>
+      <c r="BS55" s="104"/>
+      <c r="BT55" s="104"/>
+      <c r="BU55" s="105"/>
+    </row>
+    <row r="56" spans="2:73">
       <c r="B56" s="35"/>
-      <c r="C56" s="87">
+      <c r="C56" s="98">
         <f>ROW()-ROW($C$54)</f>
         <v>2</v>
       </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="92" t="s">
+      <c r="D56" s="99"/>
+      <c r="E56" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="93"/>
-      <c r="L56" s="93"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="105" t="s">
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="O56" s="106"/>
-      <c r="P56" s="106"/>
-      <c r="Q56" s="106"/>
-      <c r="R56" s="106"/>
-      <c r="S56" s="106"/>
-      <c r="T56" s="106"/>
-      <c r="U56" s="106"/>
-      <c r="V56" s="106"/>
-      <c r="W56" s="106"/>
-      <c r="X56" s="106"/>
-      <c r="Y56" s="106"/>
-      <c r="Z56" s="106"/>
-      <c r="AA56" s="106"/>
-      <c r="AB56" s="106"/>
-      <c r="AC56" s="106"/>
-      <c r="AD56" s="106"/>
-      <c r="AE56" s="107"/>
-      <c r="AF56" s="89" t="s">
+      <c r="O56" s="101"/>
+      <c r="P56" s="101"/>
+      <c r="Q56" s="101"/>
+      <c r="R56" s="101"/>
+      <c r="S56" s="101"/>
+      <c r="T56" s="101"/>
+      <c r="U56" s="101"/>
+      <c r="V56" s="101"/>
+      <c r="W56" s="101"/>
+      <c r="X56" s="101"/>
+      <c r="Y56" s="101"/>
+      <c r="Z56" s="101"/>
+      <c r="AA56" s="101"/>
+      <c r="AB56" s="101"/>
+      <c r="AC56" s="101"/>
+      <c r="AD56" s="101"/>
+      <c r="AE56" s="102"/>
+      <c r="AF56" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="AG56" s="90"/>
-      <c r="AH56" s="90"/>
-      <c r="AI56" s="90"/>
-      <c r="AJ56" s="90"/>
-      <c r="AK56" s="90"/>
-      <c r="AL56" s="90"/>
-      <c r="AM56" s="90"/>
-      <c r="AN56" s="91"/>
-      <c r="AO56" s="89" t="s">
+      <c r="AG56" s="96"/>
+      <c r="AH56" s="96"/>
+      <c r="AI56" s="96"/>
+      <c r="AJ56" s="96"/>
+      <c r="AK56" s="96"/>
+      <c r="AL56" s="96"/>
+      <c r="AM56" s="96"/>
+      <c r="AN56" s="97"/>
+      <c r="AO56" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="AP56" s="90"/>
-      <c r="AQ56" s="90"/>
-      <c r="AR56" s="90"/>
-      <c r="AS56" s="91"/>
-      <c r="AT56" s="95" t="s">
+      <c r="AP56" s="96"/>
+      <c r="AQ56" s="96"/>
+      <c r="AR56" s="96"/>
+      <c r="AS56" s="97"/>
+      <c r="AT56" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="AU56" s="96"/>
-      <c r="AV56" s="96"/>
-      <c r="AW56" s="97"/>
-      <c r="AX56" s="89" t="s">
+      <c r="AU56" s="93"/>
+      <c r="AV56" s="93"/>
+      <c r="AW56" s="94"/>
+      <c r="AX56" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AY56" s="90"/>
-      <c r="AZ56" s="90"/>
-      <c r="BA56" s="90"/>
-      <c r="BB56" s="90"/>
-      <c r="BC56" s="91"/>
-      <c r="BD56" s="89" t="s">
+      <c r="AY56" s="96"/>
+      <c r="AZ56" s="96"/>
+      <c r="BA56" s="96"/>
+      <c r="BB56" s="96"/>
+      <c r="BC56" s="97"/>
+      <c r="BD56" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BE56" s="91"/>
-      <c r="BF56" s="92" t="s">
+      <c r="BE56" s="97"/>
+      <c r="BF56" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="BG56" s="93"/>
-      <c r="BH56" s="93"/>
-      <c r="BI56" s="93"/>
-      <c r="BJ56" s="93"/>
-      <c r="BK56" s="93"/>
-      <c r="BL56" s="93"/>
-      <c r="BM56" s="93"/>
-      <c r="BN56" s="93"/>
-      <c r="BO56" s="93"/>
-      <c r="BP56" s="93"/>
-      <c r="BQ56" s="93"/>
-      <c r="BR56" s="93"/>
-      <c r="BS56" s="93"/>
-      <c r="BT56" s="93"/>
-      <c r="BU56" s="94"/>
-    </row>
-    <row r="57" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BG56" s="104"/>
+      <c r="BH56" s="104"/>
+      <c r="BI56" s="104"/>
+      <c r="BJ56" s="104"/>
+      <c r="BK56" s="104"/>
+      <c r="BL56" s="104"/>
+      <c r="BM56" s="104"/>
+      <c r="BN56" s="104"/>
+      <c r="BO56" s="104"/>
+      <c r="BP56" s="104"/>
+      <c r="BQ56" s="104"/>
+      <c r="BR56" s="104"/>
+      <c r="BS56" s="104"/>
+      <c r="BT56" s="104"/>
+      <c r="BU56" s="105"/>
+    </row>
+    <row r="57" spans="2:73">
       <c r="B57" s="35"/>
-      <c r="C57" s="87">
+      <c r="C57" s="98">
         <f t="shared" ref="C57:C61" si="0">ROW()-ROW($C$54)</f>
         <v>3</v>
       </c>
-      <c r="D57" s="88"/>
-      <c r="E57" s="92" t="s">
+      <c r="D57" s="99"/>
+      <c r="E57" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="93"/>
-      <c r="G57" s="93"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="93"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="105" t="s">
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="O57" s="106"/>
-      <c r="P57" s="106"/>
-      <c r="Q57" s="106"/>
-      <c r="R57" s="106"/>
-      <c r="S57" s="106"/>
-      <c r="T57" s="106"/>
-      <c r="U57" s="106"/>
-      <c r="V57" s="106"/>
-      <c r="W57" s="106"/>
-      <c r="X57" s="106"/>
-      <c r="Y57" s="106"/>
-      <c r="Z57" s="106"/>
-      <c r="AA57" s="106"/>
-      <c r="AB57" s="106"/>
-      <c r="AC57" s="106"/>
-      <c r="AD57" s="106"/>
-      <c r="AE57" s="107"/>
-      <c r="AF57" s="89" t="s">
+      <c r="O57" s="101"/>
+      <c r="P57" s="101"/>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="101"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="101"/>
+      <c r="U57" s="101"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
+      <c r="X57" s="101"/>
+      <c r="Y57" s="101"/>
+      <c r="Z57" s="101"/>
+      <c r="AA57" s="101"/>
+      <c r="AB57" s="101"/>
+      <c r="AC57" s="101"/>
+      <c r="AD57" s="101"/>
+      <c r="AE57" s="102"/>
+      <c r="AF57" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="AG57" s="90"/>
-      <c r="AH57" s="90"/>
-      <c r="AI57" s="90"/>
-      <c r="AJ57" s="90"/>
-      <c r="AK57" s="90"/>
-      <c r="AL57" s="90"/>
-      <c r="AM57" s="90"/>
-      <c r="AN57" s="91"/>
-      <c r="AO57" s="89" t="s">
+      <c r="AG57" s="96"/>
+      <c r="AH57" s="96"/>
+      <c r="AI57" s="96"/>
+      <c r="AJ57" s="96"/>
+      <c r="AK57" s="96"/>
+      <c r="AL57" s="96"/>
+      <c r="AM57" s="96"/>
+      <c r="AN57" s="97"/>
+      <c r="AO57" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="AP57" s="90"/>
-      <c r="AQ57" s="90"/>
-      <c r="AR57" s="90"/>
-      <c r="AS57" s="91"/>
-      <c r="AT57" s="95" t="s">
+      <c r="AP57" s="96"/>
+      <c r="AQ57" s="96"/>
+      <c r="AR57" s="96"/>
+      <c r="AS57" s="97"/>
+      <c r="AT57" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="AU57" s="96"/>
-      <c r="AV57" s="96"/>
-      <c r="AW57" s="97"/>
-      <c r="AX57" s="89" t="s">
+      <c r="AU57" s="93"/>
+      <c r="AV57" s="93"/>
+      <c r="AW57" s="94"/>
+      <c r="AX57" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AY57" s="90"/>
-      <c r="AZ57" s="90"/>
-      <c r="BA57" s="90"/>
-      <c r="BB57" s="90"/>
-      <c r="BC57" s="91"/>
-      <c r="BD57" s="89" t="s">
+      <c r="AY57" s="96"/>
+      <c r="AZ57" s="96"/>
+      <c r="BA57" s="96"/>
+      <c r="BB57" s="96"/>
+      <c r="BC57" s="97"/>
+      <c r="BD57" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BE57" s="91"/>
-      <c r="BF57" s="89"/>
-      <c r="BG57" s="90"/>
-      <c r="BH57" s="90"/>
-      <c r="BI57" s="90"/>
-      <c r="BJ57" s="90"/>
-      <c r="BK57" s="90"/>
-      <c r="BL57" s="90"/>
-      <c r="BM57" s="90"/>
-      <c r="BN57" s="90"/>
-      <c r="BO57" s="90"/>
-      <c r="BP57" s="90"/>
-      <c r="BQ57" s="90"/>
-      <c r="BR57" s="90"/>
-      <c r="BS57" s="90"/>
-      <c r="BT57" s="90"/>
-      <c r="BU57" s="91"/>
-    </row>
-    <row r="58" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BE57" s="97"/>
+      <c r="BF57" s="95"/>
+      <c r="BG57" s="96"/>
+      <c r="BH57" s="96"/>
+      <c r="BI57" s="96"/>
+      <c r="BJ57" s="96"/>
+      <c r="BK57" s="96"/>
+      <c r="BL57" s="96"/>
+      <c r="BM57" s="96"/>
+      <c r="BN57" s="96"/>
+      <c r="BO57" s="96"/>
+      <c r="BP57" s="96"/>
+      <c r="BQ57" s="96"/>
+      <c r="BR57" s="96"/>
+      <c r="BS57" s="96"/>
+      <c r="BT57" s="96"/>
+      <c r="BU57" s="97"/>
+    </row>
+    <row r="58" spans="2:73">
       <c r="B58" s="35"/>
-      <c r="C58" s="87">
+      <c r="C58" s="98">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D58" s="88"/>
-      <c r="E58" s="92" t="s">
+      <c r="D58" s="99"/>
+      <c r="E58" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="93"/>
-      <c r="M58" s="94"/>
-      <c r="N58" s="105" t="s">
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="O58" s="106"/>
-      <c r="P58" s="106"/>
-      <c r="Q58" s="106"/>
-      <c r="R58" s="106"/>
-      <c r="S58" s="106"/>
-      <c r="T58" s="106"/>
-      <c r="U58" s="106"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
-      <c r="X58" s="106"/>
-      <c r="Y58" s="106"/>
-      <c r="Z58" s="106"/>
-      <c r="AA58" s="106"/>
-      <c r="AB58" s="106"/>
-      <c r="AC58" s="106"/>
-      <c r="AD58" s="106"/>
-      <c r="AE58" s="107"/>
-      <c r="AF58" s="89" t="s">
+      <c r="O58" s="101"/>
+      <c r="P58" s="101"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="101"/>
+      <c r="S58" s="101"/>
+      <c r="T58" s="101"/>
+      <c r="U58" s="101"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
+      <c r="X58" s="101"/>
+      <c r="Y58" s="101"/>
+      <c r="Z58" s="101"/>
+      <c r="AA58" s="101"/>
+      <c r="AB58" s="101"/>
+      <c r="AC58" s="101"/>
+      <c r="AD58" s="101"/>
+      <c r="AE58" s="102"/>
+      <c r="AF58" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="AG58" s="90"/>
-      <c r="AH58" s="90"/>
-      <c r="AI58" s="90"/>
-      <c r="AJ58" s="90"/>
-      <c r="AK58" s="90"/>
-      <c r="AL58" s="90"/>
-      <c r="AM58" s="90"/>
-      <c r="AN58" s="91"/>
-      <c r="AO58" s="89" t="s">
+      <c r="AG58" s="96"/>
+      <c r="AH58" s="96"/>
+      <c r="AI58" s="96"/>
+      <c r="AJ58" s="96"/>
+      <c r="AK58" s="96"/>
+      <c r="AL58" s="96"/>
+      <c r="AM58" s="96"/>
+      <c r="AN58" s="97"/>
+      <c r="AO58" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="AP58" s="90"/>
-      <c r="AQ58" s="90"/>
-      <c r="AR58" s="90"/>
-      <c r="AS58" s="91"/>
-      <c r="AT58" s="95" t="s">
+      <c r="AP58" s="96"/>
+      <c r="AQ58" s="96"/>
+      <c r="AR58" s="96"/>
+      <c r="AS58" s="97"/>
+      <c r="AT58" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="AU58" s="96"/>
-      <c r="AV58" s="96"/>
-      <c r="AW58" s="97"/>
-      <c r="AX58" s="89" t="s">
+      <c r="AU58" s="93"/>
+      <c r="AV58" s="93"/>
+      <c r="AW58" s="94"/>
+      <c r="AX58" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AY58" s="90"/>
-      <c r="AZ58" s="90"/>
-      <c r="BA58" s="90"/>
-      <c r="BB58" s="90"/>
-      <c r="BC58" s="91"/>
-      <c r="BD58" s="89" t="s">
+      <c r="AY58" s="96"/>
+      <c r="AZ58" s="96"/>
+      <c r="BA58" s="96"/>
+      <c r="BB58" s="96"/>
+      <c r="BC58" s="97"/>
+      <c r="BD58" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BE58" s="91"/>
-      <c r="BF58" s="89"/>
-      <c r="BG58" s="90"/>
-      <c r="BH58" s="90"/>
-      <c r="BI58" s="90"/>
-      <c r="BJ58" s="90"/>
-      <c r="BK58" s="90"/>
-      <c r="BL58" s="90"/>
-      <c r="BM58" s="90"/>
-      <c r="BN58" s="90"/>
-      <c r="BO58" s="90"/>
-      <c r="BP58" s="90"/>
-      <c r="BQ58" s="90"/>
-      <c r="BR58" s="90"/>
-      <c r="BS58" s="90"/>
-      <c r="BT58" s="90"/>
-      <c r="BU58" s="91"/>
-    </row>
-    <row r="59" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BE58" s="97"/>
+      <c r="BF58" s="95"/>
+      <c r="BG58" s="96"/>
+      <c r="BH58" s="96"/>
+      <c r="BI58" s="96"/>
+      <c r="BJ58" s="96"/>
+      <c r="BK58" s="96"/>
+      <c r="BL58" s="96"/>
+      <c r="BM58" s="96"/>
+      <c r="BN58" s="96"/>
+      <c r="BO58" s="96"/>
+      <c r="BP58" s="96"/>
+      <c r="BQ58" s="96"/>
+      <c r="BR58" s="96"/>
+      <c r="BS58" s="96"/>
+      <c r="BT58" s="96"/>
+      <c r="BU58" s="97"/>
+    </row>
+    <row r="59" spans="2:73">
       <c r="B59" s="35"/>
-      <c r="C59" s="87">
+      <c r="C59" s="98">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D59" s="88"/>
-      <c r="E59" s="92" t="s">
+      <c r="D59" s="99"/>
+      <c r="E59" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="F59" s="93"/>
-      <c r="G59" s="93"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="93"/>
-      <c r="J59" s="93"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="93"/>
-      <c r="M59" s="94"/>
-      <c r="N59" s="105" t="s">
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="104"/>
+      <c r="M59" s="105"/>
+      <c r="N59" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="O59" s="106"/>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="106"/>
-      <c r="R59" s="106"/>
-      <c r="S59" s="106"/>
-      <c r="T59" s="106"/>
-      <c r="U59" s="106"/>
-      <c r="V59" s="106"/>
-      <c r="W59" s="106"/>
-      <c r="X59" s="106"/>
-      <c r="Y59" s="106"/>
-      <c r="Z59" s="106"/>
-      <c r="AA59" s="106"/>
-      <c r="AB59" s="106"/>
-      <c r="AC59" s="106"/>
-      <c r="AD59" s="106"/>
-      <c r="AE59" s="107"/>
-      <c r="AF59" s="89" t="s">
+      <c r="O59" s="101"/>
+      <c r="P59" s="101"/>
+      <c r="Q59" s="101"/>
+      <c r="R59" s="101"/>
+      <c r="S59" s="101"/>
+      <c r="T59" s="101"/>
+      <c r="U59" s="101"/>
+      <c r="V59" s="101"/>
+      <c r="W59" s="101"/>
+      <c r="X59" s="101"/>
+      <c r="Y59" s="101"/>
+      <c r="Z59" s="101"/>
+      <c r="AA59" s="101"/>
+      <c r="AB59" s="101"/>
+      <c r="AC59" s="101"/>
+      <c r="AD59" s="101"/>
+      <c r="AE59" s="102"/>
+      <c r="AF59" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="AG59" s="90"/>
-      <c r="AH59" s="90"/>
-      <c r="AI59" s="90"/>
-      <c r="AJ59" s="90"/>
-      <c r="AK59" s="90"/>
-      <c r="AL59" s="90"/>
-      <c r="AM59" s="90"/>
-      <c r="AN59" s="91"/>
-      <c r="AO59" s="89" t="s">
+      <c r="AG59" s="96"/>
+      <c r="AH59" s="96"/>
+      <c r="AI59" s="96"/>
+      <c r="AJ59" s="96"/>
+      <c r="AK59" s="96"/>
+      <c r="AL59" s="96"/>
+      <c r="AM59" s="96"/>
+      <c r="AN59" s="97"/>
+      <c r="AO59" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="AP59" s="90"/>
-      <c r="AQ59" s="90"/>
-      <c r="AR59" s="90"/>
-      <c r="AS59" s="91"/>
-      <c r="AT59" s="95" t="s">
+      <c r="AP59" s="96"/>
+      <c r="AQ59" s="96"/>
+      <c r="AR59" s="96"/>
+      <c r="AS59" s="97"/>
+      <c r="AT59" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="AU59" s="96"/>
-      <c r="AV59" s="96"/>
-      <c r="AW59" s="97"/>
-      <c r="AX59" s="89" t="s">
+      <c r="AU59" s="93"/>
+      <c r="AV59" s="93"/>
+      <c r="AW59" s="94"/>
+      <c r="AX59" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AY59" s="90"/>
-      <c r="AZ59" s="90"/>
-      <c r="BA59" s="90"/>
-      <c r="BB59" s="90"/>
-      <c r="BC59" s="91"/>
-      <c r="BD59" s="89" t="s">
+      <c r="AY59" s="96"/>
+      <c r="AZ59" s="96"/>
+      <c r="BA59" s="96"/>
+      <c r="BB59" s="96"/>
+      <c r="BC59" s="97"/>
+      <c r="BD59" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BE59" s="91"/>
-      <c r="BF59" s="89"/>
-      <c r="BG59" s="90"/>
-      <c r="BH59" s="90"/>
-      <c r="BI59" s="90"/>
-      <c r="BJ59" s="90"/>
-      <c r="BK59" s="90"/>
-      <c r="BL59" s="90"/>
-      <c r="BM59" s="90"/>
-      <c r="BN59" s="90"/>
-      <c r="BO59" s="90"/>
-      <c r="BP59" s="90"/>
-      <c r="BQ59" s="90"/>
-      <c r="BR59" s="90"/>
-      <c r="BS59" s="90"/>
-      <c r="BT59" s="90"/>
-      <c r="BU59" s="91"/>
-    </row>
-    <row r="60" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BE59" s="97"/>
+      <c r="BF59" s="95"/>
+      <c r="BG59" s="96"/>
+      <c r="BH59" s="96"/>
+      <c r="BI59" s="96"/>
+      <c r="BJ59" s="96"/>
+      <c r="BK59" s="96"/>
+      <c r="BL59" s="96"/>
+      <c r="BM59" s="96"/>
+      <c r="BN59" s="96"/>
+      <c r="BO59" s="96"/>
+      <c r="BP59" s="96"/>
+      <c r="BQ59" s="96"/>
+      <c r="BR59" s="96"/>
+      <c r="BS59" s="96"/>
+      <c r="BT59" s="96"/>
+      <c r="BU59" s="97"/>
+    </row>
+    <row r="60" spans="2:73">
       <c r="B60" s="35"/>
-      <c r="C60" s="87">
+      <c r="C60" s="98">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D60" s="88"/>
-      <c r="E60" s="92" t="s">
+      <c r="D60" s="99"/>
+      <c r="E60" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="93"/>
-      <c r="G60" s="93"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="93"/>
-      <c r="J60" s="93"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="93"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="105" t="s">
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="O60" s="106"/>
-      <c r="P60" s="106"/>
-      <c r="Q60" s="106"/>
-      <c r="R60" s="106"/>
-      <c r="S60" s="106"/>
-      <c r="T60" s="106"/>
-      <c r="U60" s="106"/>
-      <c r="V60" s="106"/>
-      <c r="W60" s="106"/>
-      <c r="X60" s="106"/>
-      <c r="Y60" s="106"/>
-      <c r="Z60" s="106"/>
-      <c r="AA60" s="106"/>
-      <c r="AB60" s="106"/>
-      <c r="AC60" s="106"/>
-      <c r="AD60" s="106"/>
-      <c r="AE60" s="107"/>
-      <c r="AF60" s="89" t="s">
+      <c r="O60" s="101"/>
+      <c r="P60" s="101"/>
+      <c r="Q60" s="101"/>
+      <c r="R60" s="101"/>
+      <c r="S60" s="101"/>
+      <c r="T60" s="101"/>
+      <c r="U60" s="101"/>
+      <c r="V60" s="101"/>
+      <c r="W60" s="101"/>
+      <c r="X60" s="101"/>
+      <c r="Y60" s="101"/>
+      <c r="Z60" s="101"/>
+      <c r="AA60" s="101"/>
+      <c r="AB60" s="101"/>
+      <c r="AC60" s="101"/>
+      <c r="AD60" s="101"/>
+      <c r="AE60" s="102"/>
+      <c r="AF60" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="AG60" s="90"/>
-      <c r="AH60" s="90"/>
-      <c r="AI60" s="90"/>
-      <c r="AJ60" s="90"/>
-      <c r="AK60" s="90"/>
-      <c r="AL60" s="90"/>
-      <c r="AM60" s="90"/>
-      <c r="AN60" s="91"/>
-      <c r="AO60" s="89" t="s">
+      <c r="AG60" s="96"/>
+      <c r="AH60" s="96"/>
+      <c r="AI60" s="96"/>
+      <c r="AJ60" s="96"/>
+      <c r="AK60" s="96"/>
+      <c r="AL60" s="96"/>
+      <c r="AM60" s="96"/>
+      <c r="AN60" s="97"/>
+      <c r="AO60" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="AP60" s="90"/>
-      <c r="AQ60" s="90"/>
-      <c r="AR60" s="90"/>
-      <c r="AS60" s="91"/>
-      <c r="AT60" s="95" t="s">
+      <c r="AP60" s="96"/>
+      <c r="AQ60" s="96"/>
+      <c r="AR60" s="96"/>
+      <c r="AS60" s="97"/>
+      <c r="AT60" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="AU60" s="96"/>
-      <c r="AV60" s="96"/>
-      <c r="AW60" s="97"/>
-      <c r="AX60" s="89" t="s">
+      <c r="AU60" s="93"/>
+      <c r="AV60" s="93"/>
+      <c r="AW60" s="94"/>
+      <c r="AX60" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AY60" s="90"/>
-      <c r="AZ60" s="90"/>
-      <c r="BA60" s="90"/>
-      <c r="BB60" s="90"/>
-      <c r="BC60" s="91"/>
-      <c r="BD60" s="89" t="s">
+      <c r="AY60" s="96"/>
+      <c r="AZ60" s="96"/>
+      <c r="BA60" s="96"/>
+      <c r="BB60" s="96"/>
+      <c r="BC60" s="97"/>
+      <c r="BD60" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BE60" s="91"/>
-      <c r="BF60" s="89"/>
-      <c r="BG60" s="90"/>
-      <c r="BH60" s="90"/>
-      <c r="BI60" s="90"/>
-      <c r="BJ60" s="90"/>
-      <c r="BK60" s="90"/>
-      <c r="BL60" s="90"/>
-      <c r="BM60" s="90"/>
-      <c r="BN60" s="90"/>
-      <c r="BO60" s="90"/>
-      <c r="BP60" s="90"/>
-      <c r="BQ60" s="90"/>
-      <c r="BR60" s="90"/>
-      <c r="BS60" s="90"/>
-      <c r="BT60" s="90"/>
-      <c r="BU60" s="91"/>
-    </row>
-    <row r="61" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BE60" s="97"/>
+      <c r="BF60" s="95"/>
+      <c r="BG60" s="96"/>
+      <c r="BH60" s="96"/>
+      <c r="BI60" s="96"/>
+      <c r="BJ60" s="96"/>
+      <c r="BK60" s="96"/>
+      <c r="BL60" s="96"/>
+      <c r="BM60" s="96"/>
+      <c r="BN60" s="96"/>
+      <c r="BO60" s="96"/>
+      <c r="BP60" s="96"/>
+      <c r="BQ60" s="96"/>
+      <c r="BR60" s="96"/>
+      <c r="BS60" s="96"/>
+      <c r="BT60" s="96"/>
+      <c r="BU60" s="97"/>
+    </row>
+    <row r="61" spans="2:73">
       <c r="B61" s="35"/>
-      <c r="C61" s="87">
+      <c r="C61" s="98">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D61" s="88"/>
+      <c r="D61" s="99"/>
       <c r="E61" s="52" t="s">
         <v>114</v>
       </c>
@@ -7873,26 +7964,26 @@
       <c r="K61" s="49"/>
       <c r="L61" s="49"/>
       <c r="M61" s="50"/>
-      <c r="N61" s="105" t="s">
+      <c r="N61" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="O61" s="106"/>
-      <c r="P61" s="106"/>
-      <c r="Q61" s="106"/>
-      <c r="R61" s="106"/>
-      <c r="S61" s="106"/>
-      <c r="T61" s="106"/>
-      <c r="U61" s="106"/>
-      <c r="V61" s="106"/>
-      <c r="W61" s="106"/>
-      <c r="X61" s="106"/>
-      <c r="Y61" s="106"/>
-      <c r="Z61" s="106"/>
-      <c r="AA61" s="106"/>
-      <c r="AB61" s="106"/>
-      <c r="AC61" s="106"/>
-      <c r="AD61" s="106"/>
-      <c r="AE61" s="107"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="101"/>
+      <c r="Q61" s="101"/>
+      <c r="R61" s="101"/>
+      <c r="S61" s="101"/>
+      <c r="T61" s="101"/>
+      <c r="U61" s="101"/>
+      <c r="V61" s="101"/>
+      <c r="W61" s="101"/>
+      <c r="X61" s="101"/>
+      <c r="Y61" s="101"/>
+      <c r="Z61" s="101"/>
+      <c r="AA61" s="101"/>
+      <c r="AB61" s="101"/>
+      <c r="AC61" s="101"/>
+      <c r="AD61" s="101"/>
+      <c r="AE61" s="102"/>
       <c r="AF61" s="47" t="s">
         <v>116</v>
       </c>
@@ -7948,13 +8039,13 @@
       <c r="BT61" s="51"/>
       <c r="BU61" s="48"/>
     </row>
-    <row r="62" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:73">
       <c r="B62" s="35"/>
-      <c r="C62" s="87">
+      <c r="C62" s="98">
         <f>ROW()-ROW($C$54)</f>
         <v>8</v>
       </c>
-      <c r="D62" s="88"/>
+      <c r="D62" s="99"/>
       <c r="E62" s="44" t="s">
         <v>71</v>
       </c>
@@ -7966,86 +8057,86 @@
       <c r="K62" s="45"/>
       <c r="L62" s="45"/>
       <c r="M62" s="46"/>
-      <c r="N62" s="89" t="s">
+      <c r="N62" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="90"/>
-      <c r="S62" s="90"/>
-      <c r="T62" s="90"/>
-      <c r="U62" s="90"/>
-      <c r="V62" s="90"/>
-      <c r="W62" s="90"/>
-      <c r="X62" s="90"/>
-      <c r="Y62" s="90"/>
-      <c r="Z62" s="90"/>
-      <c r="AA62" s="90"/>
-      <c r="AB62" s="90"/>
-      <c r="AC62" s="90"/>
-      <c r="AD62" s="90"/>
-      <c r="AE62" s="91"/>
-      <c r="AF62" s="89" t="s">
+      <c r="O62" s="96"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="96"/>
+      <c r="U62" s="96"/>
+      <c r="V62" s="96"/>
+      <c r="W62" s="96"/>
+      <c r="X62" s="96"/>
+      <c r="Y62" s="96"/>
+      <c r="Z62" s="96"/>
+      <c r="AA62" s="96"/>
+      <c r="AB62" s="96"/>
+      <c r="AC62" s="96"/>
+      <c r="AD62" s="96"/>
+      <c r="AE62" s="97"/>
+      <c r="AF62" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="AG62" s="90"/>
-      <c r="AH62" s="90"/>
-      <c r="AI62" s="90"/>
-      <c r="AJ62" s="90"/>
-      <c r="AK62" s="90"/>
-      <c r="AL62" s="90"/>
-      <c r="AM62" s="90"/>
-      <c r="AN62" s="91"/>
-      <c r="AO62" s="89" t="s">
+      <c r="AG62" s="96"/>
+      <c r="AH62" s="96"/>
+      <c r="AI62" s="96"/>
+      <c r="AJ62" s="96"/>
+      <c r="AK62" s="96"/>
+      <c r="AL62" s="96"/>
+      <c r="AM62" s="96"/>
+      <c r="AN62" s="97"/>
+      <c r="AO62" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="AP62" s="90"/>
-      <c r="AQ62" s="90"/>
-      <c r="AR62" s="90"/>
-      <c r="AS62" s="91"/>
-      <c r="AT62" s="95" t="s">
+      <c r="AP62" s="96"/>
+      <c r="AQ62" s="96"/>
+      <c r="AR62" s="96"/>
+      <c r="AS62" s="97"/>
+      <c r="AT62" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="AU62" s="96"/>
-      <c r="AV62" s="96"/>
-      <c r="AW62" s="97"/>
-      <c r="AX62" s="89" t="s">
+      <c r="AU62" s="93"/>
+      <c r="AV62" s="93"/>
+      <c r="AW62" s="94"/>
+      <c r="AX62" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AY62" s="90"/>
-      <c r="AZ62" s="90"/>
-      <c r="BA62" s="90"/>
-      <c r="BB62" s="90"/>
-      <c r="BC62" s="91"/>
-      <c r="BD62" s="89" t="s">
+      <c r="AY62" s="96"/>
+      <c r="AZ62" s="96"/>
+      <c r="BA62" s="96"/>
+      <c r="BB62" s="96"/>
+      <c r="BC62" s="97"/>
+      <c r="BD62" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BE62" s="91"/>
-      <c r="BF62" s="102"/>
-      <c r="BG62" s="90"/>
-      <c r="BH62" s="90"/>
-      <c r="BI62" s="90"/>
-      <c r="BJ62" s="90"/>
-      <c r="BK62" s="90"/>
-      <c r="BL62" s="90"/>
-      <c r="BM62" s="90"/>
-      <c r="BN62" s="90"/>
-      <c r="BO62" s="90"/>
-      <c r="BP62" s="90"/>
-      <c r="BQ62" s="90"/>
-      <c r="BR62" s="90"/>
-      <c r="BS62" s="90"/>
-      <c r="BT62" s="90"/>
-      <c r="BU62" s="91"/>
-    </row>
-    <row r="63" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BE62" s="97"/>
+      <c r="BF62" s="106"/>
+      <c r="BG62" s="96"/>
+      <c r="BH62" s="96"/>
+      <c r="BI62" s="96"/>
+      <c r="BJ62" s="96"/>
+      <c r="BK62" s="96"/>
+      <c r="BL62" s="96"/>
+      <c r="BM62" s="96"/>
+      <c r="BN62" s="96"/>
+      <c r="BO62" s="96"/>
+      <c r="BP62" s="96"/>
+      <c r="BQ62" s="96"/>
+      <c r="BR62" s="96"/>
+      <c r="BS62" s="96"/>
+      <c r="BT62" s="96"/>
+      <c r="BU62" s="97"/>
+    </row>
+    <row r="63" spans="2:73">
       <c r="B63" s="35"/>
-      <c r="C63" s="87">
+      <c r="C63" s="98">
         <f>ROW()-ROW($C$54)</f>
         <v>9</v>
       </c>
-      <c r="D63" s="88"/>
+      <c r="D63" s="99"/>
       <c r="E63" s="44" t="s">
         <v>72</v>
       </c>
@@ -8057,86 +8148,86 @@
       <c r="K63" s="45"/>
       <c r="L63" s="45"/>
       <c r="M63" s="46"/>
-      <c r="N63" s="89" t="s">
+      <c r="N63" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="O63" s="90"/>
-      <c r="P63" s="90"/>
-      <c r="Q63" s="90"/>
-      <c r="R63" s="90"/>
-      <c r="S63" s="90"/>
-      <c r="T63" s="90"/>
-      <c r="U63" s="90"/>
-      <c r="V63" s="90"/>
-      <c r="W63" s="90"/>
-      <c r="X63" s="90"/>
-      <c r="Y63" s="90"/>
-      <c r="Z63" s="90"/>
-      <c r="AA63" s="90"/>
-      <c r="AB63" s="90"/>
-      <c r="AC63" s="90"/>
-      <c r="AD63" s="90"/>
-      <c r="AE63" s="91"/>
-      <c r="AF63" s="89" t="s">
+      <c r="O63" s="96"/>
+      <c r="P63" s="96"/>
+      <c r="Q63" s="96"/>
+      <c r="R63" s="96"/>
+      <c r="S63" s="96"/>
+      <c r="T63" s="96"/>
+      <c r="U63" s="96"/>
+      <c r="V63" s="96"/>
+      <c r="W63" s="96"/>
+      <c r="X63" s="96"/>
+      <c r="Y63" s="96"/>
+      <c r="Z63" s="96"/>
+      <c r="AA63" s="96"/>
+      <c r="AB63" s="96"/>
+      <c r="AC63" s="96"/>
+      <c r="AD63" s="96"/>
+      <c r="AE63" s="97"/>
+      <c r="AF63" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="AG63" s="90"/>
-      <c r="AH63" s="90"/>
-      <c r="AI63" s="90"/>
-      <c r="AJ63" s="90"/>
-      <c r="AK63" s="90"/>
-      <c r="AL63" s="90"/>
-      <c r="AM63" s="90"/>
-      <c r="AN63" s="91"/>
-      <c r="AO63" s="89" t="s">
+      <c r="AG63" s="96"/>
+      <c r="AH63" s="96"/>
+      <c r="AI63" s="96"/>
+      <c r="AJ63" s="96"/>
+      <c r="AK63" s="96"/>
+      <c r="AL63" s="96"/>
+      <c r="AM63" s="96"/>
+      <c r="AN63" s="97"/>
+      <c r="AO63" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="AP63" s="90"/>
-      <c r="AQ63" s="90"/>
-      <c r="AR63" s="90"/>
-      <c r="AS63" s="91"/>
-      <c r="AT63" s="95" t="s">
+      <c r="AP63" s="96"/>
+      <c r="AQ63" s="96"/>
+      <c r="AR63" s="96"/>
+      <c r="AS63" s="97"/>
+      <c r="AT63" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="AU63" s="96"/>
-      <c r="AV63" s="96"/>
-      <c r="AW63" s="97"/>
-      <c r="AX63" s="89" t="s">
+      <c r="AU63" s="93"/>
+      <c r="AV63" s="93"/>
+      <c r="AW63" s="94"/>
+      <c r="AX63" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AY63" s="90"/>
-      <c r="AZ63" s="90"/>
-      <c r="BA63" s="90"/>
-      <c r="BB63" s="90"/>
-      <c r="BC63" s="91"/>
-      <c r="BD63" s="89" t="s">
+      <c r="AY63" s="96"/>
+      <c r="AZ63" s="96"/>
+      <c r="BA63" s="96"/>
+      <c r="BB63" s="96"/>
+      <c r="BC63" s="97"/>
+      <c r="BD63" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BE63" s="91"/>
-      <c r="BF63" s="92"/>
-      <c r="BG63" s="93"/>
-      <c r="BH63" s="93"/>
-      <c r="BI63" s="93"/>
-      <c r="BJ63" s="93"/>
-      <c r="BK63" s="93"/>
-      <c r="BL63" s="93"/>
-      <c r="BM63" s="93"/>
-      <c r="BN63" s="93"/>
-      <c r="BO63" s="93"/>
-      <c r="BP63" s="93"/>
-      <c r="BQ63" s="93"/>
-      <c r="BR63" s="93"/>
-      <c r="BS63" s="93"/>
-      <c r="BT63" s="93"/>
-      <c r="BU63" s="94"/>
-    </row>
-    <row r="64" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BE63" s="97"/>
+      <c r="BF63" s="103"/>
+      <c r="BG63" s="104"/>
+      <c r="BH63" s="104"/>
+      <c r="BI63" s="104"/>
+      <c r="BJ63" s="104"/>
+      <c r="BK63" s="104"/>
+      <c r="BL63" s="104"/>
+      <c r="BM63" s="104"/>
+      <c r="BN63" s="104"/>
+      <c r="BO63" s="104"/>
+      <c r="BP63" s="104"/>
+      <c r="BQ63" s="104"/>
+      <c r="BR63" s="104"/>
+      <c r="BS63" s="104"/>
+      <c r="BT63" s="104"/>
+      <c r="BU63" s="105"/>
+    </row>
+    <row r="64" spans="2:73">
       <c r="B64" s="35"/>
-      <c r="C64" s="87">
+      <c r="C64" s="98">
         <f>ROW()-ROW($C$54)</f>
         <v>10</v>
       </c>
-      <c r="D64" s="88"/>
+      <c r="D64" s="99"/>
       <c r="E64" s="44" t="s">
         <v>81</v>
       </c>
@@ -8148,82 +8239,82 @@
       <c r="K64" s="45"/>
       <c r="L64" s="45"/>
       <c r="M64" s="46"/>
-      <c r="N64" s="89" t="s">
+      <c r="N64" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="O64" s="90"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="90"/>
-      <c r="T64" s="90"/>
-      <c r="U64" s="90"/>
-      <c r="V64" s="90"/>
-      <c r="W64" s="90"/>
-      <c r="X64" s="90"/>
-      <c r="Y64" s="90"/>
-      <c r="Z64" s="90"/>
-      <c r="AA64" s="90"/>
-      <c r="AB64" s="90"/>
-      <c r="AC64" s="90"/>
-      <c r="AD64" s="90"/>
-      <c r="AE64" s="91"/>
-      <c r="AF64" s="89" t="s">
+      <c r="O64" s="96"/>
+      <c r="P64" s="96"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="96"/>
+      <c r="S64" s="96"/>
+      <c r="T64" s="96"/>
+      <c r="U64" s="96"/>
+      <c r="V64" s="96"/>
+      <c r="W64" s="96"/>
+      <c r="X64" s="96"/>
+      <c r="Y64" s="96"/>
+      <c r="Z64" s="96"/>
+      <c r="AA64" s="96"/>
+      <c r="AB64" s="96"/>
+      <c r="AC64" s="96"/>
+      <c r="AD64" s="96"/>
+      <c r="AE64" s="97"/>
+      <c r="AF64" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="AG64" s="90"/>
-      <c r="AH64" s="90"/>
-      <c r="AI64" s="90"/>
-      <c r="AJ64" s="90"/>
-      <c r="AK64" s="90"/>
-      <c r="AL64" s="90"/>
-      <c r="AM64" s="90"/>
-      <c r="AN64" s="91"/>
-      <c r="AO64" s="89" t="s">
+      <c r="AG64" s="96"/>
+      <c r="AH64" s="96"/>
+      <c r="AI64" s="96"/>
+      <c r="AJ64" s="96"/>
+      <c r="AK64" s="96"/>
+      <c r="AL64" s="96"/>
+      <c r="AM64" s="96"/>
+      <c r="AN64" s="97"/>
+      <c r="AO64" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="AP64" s="90"/>
-      <c r="AQ64" s="90"/>
-      <c r="AR64" s="90"/>
-      <c r="AS64" s="91"/>
-      <c r="AT64" s="95" t="s">
+      <c r="AP64" s="96"/>
+      <c r="AQ64" s="96"/>
+      <c r="AR64" s="96"/>
+      <c r="AS64" s="97"/>
+      <c r="AT64" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="AU64" s="96"/>
-      <c r="AV64" s="96"/>
-      <c r="AW64" s="97"/>
-      <c r="AX64" s="89" t="s">
+      <c r="AU64" s="93"/>
+      <c r="AV64" s="93"/>
+      <c r="AW64" s="94"/>
+      <c r="AX64" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AY64" s="90"/>
-      <c r="AZ64" s="90"/>
-      <c r="BA64" s="90"/>
-      <c r="BB64" s="90"/>
-      <c r="BC64" s="91"/>
-      <c r="BD64" s="89" t="s">
+      <c r="AY64" s="96"/>
+      <c r="AZ64" s="96"/>
+      <c r="BA64" s="96"/>
+      <c r="BB64" s="96"/>
+      <c r="BC64" s="97"/>
+      <c r="BD64" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BE64" s="91"/>
-      <c r="BF64" s="92" t="s">
+      <c r="BE64" s="97"/>
+      <c r="BF64" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="BG64" s="93"/>
-      <c r="BH64" s="93"/>
-      <c r="BI64" s="93"/>
-      <c r="BJ64" s="93"/>
-      <c r="BK64" s="93"/>
-      <c r="BL64" s="93"/>
-      <c r="BM64" s="93"/>
-      <c r="BN64" s="93"/>
-      <c r="BO64" s="93"/>
-      <c r="BP64" s="93"/>
-      <c r="BQ64" s="93"/>
-      <c r="BR64" s="93"/>
-      <c r="BS64" s="93"/>
-      <c r="BT64" s="93"/>
-      <c r="BU64" s="94"/>
-    </row>
-    <row r="65" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="BG64" s="104"/>
+      <c r="BH64" s="104"/>
+      <c r="BI64" s="104"/>
+      <c r="BJ64" s="104"/>
+      <c r="BK64" s="104"/>
+      <c r="BL64" s="104"/>
+      <c r="BM64" s="104"/>
+      <c r="BN64" s="104"/>
+      <c r="BO64" s="104"/>
+      <c r="BP64" s="104"/>
+      <c r="BQ64" s="104"/>
+      <c r="BR64" s="104"/>
+      <c r="BS64" s="104"/>
+      <c r="BT64" s="104"/>
+      <c r="BU64" s="105"/>
+    </row>
+    <row r="65" spans="3:73">
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -8296,7 +8387,7 @@
       <c r="BT65" s="19"/>
       <c r="BU65" s="19"/>
     </row>
-    <row r="66" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:73">
       <c r="C66" s="19" t="s">
         <v>30</v>
       </c>
@@ -8371,11 +8462,11 @@
       <c r="BT66" s="19"/>
       <c r="BU66" s="19"/>
     </row>
-    <row r="67" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C67" s="103" t="s">
+    <row r="67" spans="3:73">
+      <c r="C67" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="104"/>
+      <c r="D67" s="108"/>
       <c r="E67" s="32" t="s">
         <v>19</v>
       </c>
@@ -8454,12 +8545,12 @@
       <c r="BT67" s="34"/>
       <c r="BU67" s="33"/>
     </row>
-    <row r="68" spans="3:73" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="87">
+    <row r="68" spans="3:73" ht="35.1" customHeight="1">
+      <c r="C68" s="98">
         <f t="shared" ref="C68" si="1">ROW()-ROW($C$67)</f>
         <v>1</v>
       </c>
-      <c r="D68" s="88"/>
+      <c r="D68" s="99"/>
       <c r="E68" s="38" t="s">
         <v>63</v>
       </c>
@@ -8519,26 +8610,26 @@
       <c r="BC68" s="39"/>
       <c r="BD68" s="39"/>
       <c r="BE68" s="39"/>
-      <c r="BF68" s="84" t="s">
+      <c r="BF68" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="BG68" s="85"/>
-      <c r="BH68" s="85"/>
-      <c r="BI68" s="85"/>
-      <c r="BJ68" s="85"/>
-      <c r="BK68" s="85"/>
-      <c r="BL68" s="85"/>
-      <c r="BM68" s="85"/>
-      <c r="BN68" s="85"/>
-      <c r="BO68" s="85"/>
-      <c r="BP68" s="85"/>
-      <c r="BQ68" s="85"/>
-      <c r="BR68" s="85"/>
-      <c r="BS68" s="85"/>
-      <c r="BT68" s="85"/>
-      <c r="BU68" s="86"/>
-    </row>
-    <row r="69" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="BG68" s="114"/>
+      <c r="BH68" s="114"/>
+      <c r="BI68" s="114"/>
+      <c r="BJ68" s="114"/>
+      <c r="BK68" s="114"/>
+      <c r="BL68" s="114"/>
+      <c r="BM68" s="114"/>
+      <c r="BN68" s="114"/>
+      <c r="BO68" s="114"/>
+      <c r="BP68" s="114"/>
+      <c r="BQ68" s="114"/>
+      <c r="BR68" s="114"/>
+      <c r="BS68" s="114"/>
+      <c r="BT68" s="114"/>
+      <c r="BU68" s="115"/>
+    </row>
+    <row r="69" spans="3:73">
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -8611,7 +8702,7 @@
       <c r="BT69" s="19"/>
       <c r="BU69" s="19"/>
     </row>
-    <row r="70" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:73">
       <c r="C70" s="19" t="s">
         <v>27</v>
       </c>
@@ -8686,11 +8777,11 @@
       <c r="BT70" s="19"/>
       <c r="BU70" s="19"/>
     </row>
-    <row r="71" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C71" s="103" t="s">
+    <row r="71" spans="3:73">
+      <c r="C71" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="104"/>
+      <c r="D71" s="108"/>
       <c r="E71" s="32" t="s">
         <v>24</v>
       </c>
@@ -8767,69 +8858,69 @@
       <c r="BT71" s="34"/>
       <c r="BU71" s="33"/>
     </row>
-    <row r="72" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C72" s="87">
+    <row r="72" spans="3:73">
+      <c r="C72" s="98">
         <f t="shared" ref="C72:C73" si="2">ROW()-ROW($C$71)</f>
         <v>1</v>
       </c>
-      <c r="D72" s="88"/>
-      <c r="E72" s="89" t="s">
+      <c r="D72" s="99"/>
+      <c r="E72" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
-      <c r="K72" s="90"/>
-      <c r="L72" s="90"/>
-      <c r="M72" s="90"/>
-      <c r="N72" s="90"/>
-      <c r="O72" s="90"/>
-      <c r="P72" s="90"/>
-      <c r="Q72" s="90"/>
-      <c r="R72" s="90"/>
-      <c r="S72" s="90"/>
-      <c r="T72" s="90"/>
-      <c r="U72" s="90"/>
-      <c r="V72" s="90"/>
-      <c r="W72" s="90"/>
-      <c r="X72" s="90"/>
-      <c r="Y72" s="91"/>
-      <c r="Z72" s="89" t="s">
+      <c r="F72" s="96"/>
+      <c r="G72" s="96"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="96"/>
+      <c r="K72" s="96"/>
+      <c r="L72" s="96"/>
+      <c r="M72" s="96"/>
+      <c r="N72" s="96"/>
+      <c r="O72" s="96"/>
+      <c r="P72" s="96"/>
+      <c r="Q72" s="96"/>
+      <c r="R72" s="96"/>
+      <c r="S72" s="96"/>
+      <c r="T72" s="96"/>
+      <c r="U72" s="96"/>
+      <c r="V72" s="96"/>
+      <c r="W72" s="96"/>
+      <c r="X72" s="96"/>
+      <c r="Y72" s="97"/>
+      <c r="Z72" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="AA72" s="90"/>
-      <c r="AB72" s="90"/>
-      <c r="AC72" s="90"/>
-      <c r="AD72" s="90"/>
-      <c r="AE72" s="90"/>
-      <c r="AF72" s="90"/>
-      <c r="AG72" s="90"/>
-      <c r="AH72" s="90"/>
-      <c r="AI72" s="90"/>
-      <c r="AJ72" s="90"/>
-      <c r="AK72" s="90"/>
-      <c r="AL72" s="90"/>
-      <c r="AM72" s="90"/>
-      <c r="AN72" s="90"/>
-      <c r="AO72" s="90"/>
-      <c r="AP72" s="90"/>
-      <c r="AQ72" s="90"/>
-      <c r="AR72" s="90"/>
-      <c r="AS72" s="90"/>
-      <c r="AT72" s="90"/>
-      <c r="AU72" s="90"/>
-      <c r="AV72" s="90"/>
-      <c r="AW72" s="90"/>
-      <c r="AX72" s="90"/>
-      <c r="AY72" s="90"/>
-      <c r="AZ72" s="90"/>
-      <c r="BA72" s="90"/>
-      <c r="BB72" s="90"/>
-      <c r="BC72" s="90"/>
-      <c r="BD72" s="90"/>
-      <c r="BE72" s="91"/>
+      <c r="AA72" s="96"/>
+      <c r="AB72" s="96"/>
+      <c r="AC72" s="96"/>
+      <c r="AD72" s="96"/>
+      <c r="AE72" s="96"/>
+      <c r="AF72" s="96"/>
+      <c r="AG72" s="96"/>
+      <c r="AH72" s="96"/>
+      <c r="AI72" s="96"/>
+      <c r="AJ72" s="96"/>
+      <c r="AK72" s="96"/>
+      <c r="AL72" s="96"/>
+      <c r="AM72" s="96"/>
+      <c r="AN72" s="96"/>
+      <c r="AO72" s="96"/>
+      <c r="AP72" s="96"/>
+      <c r="AQ72" s="96"/>
+      <c r="AR72" s="96"/>
+      <c r="AS72" s="96"/>
+      <c r="AT72" s="96"/>
+      <c r="AU72" s="96"/>
+      <c r="AV72" s="96"/>
+      <c r="AW72" s="96"/>
+      <c r="AX72" s="96"/>
+      <c r="AY72" s="96"/>
+      <c r="AZ72" s="96"/>
+      <c r="BA72" s="96"/>
+      <c r="BB72" s="96"/>
+      <c r="BC72" s="96"/>
+      <c r="BD72" s="96"/>
+      <c r="BE72" s="97"/>
       <c r="BF72" s="38"/>
       <c r="BG72" s="39"/>
       <c r="BH72" s="39"/>
@@ -8847,69 +8938,69 @@
       <c r="BT72" s="39"/>
       <c r="BU72" s="40"/>
     </row>
-    <row r="73" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C73" s="87">
+    <row r="73" spans="3:73">
+      <c r="C73" s="98">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D73" s="88"/>
-      <c r="E73" s="89" t="s">
+      <c r="D73" s="99"/>
+      <c r="E73" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="F73" s="90"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="90"/>
-      <c r="I73" s="90"/>
-      <c r="J73" s="90"/>
-      <c r="K73" s="90"/>
-      <c r="L73" s="90"/>
-      <c r="M73" s="90"/>
-      <c r="N73" s="90"/>
-      <c r="O73" s="90"/>
-      <c r="P73" s="90"/>
-      <c r="Q73" s="90"/>
-      <c r="R73" s="90"/>
-      <c r="S73" s="90"/>
-      <c r="T73" s="90"/>
-      <c r="U73" s="90"/>
-      <c r="V73" s="90"/>
-      <c r="W73" s="90"/>
-      <c r="X73" s="90"/>
-      <c r="Y73" s="91"/>
-      <c r="Z73" s="89" t="s">
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="96"/>
+      <c r="L73" s="96"/>
+      <c r="M73" s="96"/>
+      <c r="N73" s="96"/>
+      <c r="O73" s="96"/>
+      <c r="P73" s="96"/>
+      <c r="Q73" s="96"/>
+      <c r="R73" s="96"/>
+      <c r="S73" s="96"/>
+      <c r="T73" s="96"/>
+      <c r="U73" s="96"/>
+      <c r="V73" s="96"/>
+      <c r="W73" s="96"/>
+      <c r="X73" s="96"/>
+      <c r="Y73" s="97"/>
+      <c r="Z73" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="AA73" s="90"/>
-      <c r="AB73" s="90"/>
-      <c r="AC73" s="90"/>
-      <c r="AD73" s="90"/>
-      <c r="AE73" s="90"/>
-      <c r="AF73" s="90"/>
-      <c r="AG73" s="90"/>
-      <c r="AH73" s="90"/>
-      <c r="AI73" s="90"/>
-      <c r="AJ73" s="90"/>
-      <c r="AK73" s="90"/>
-      <c r="AL73" s="90"/>
-      <c r="AM73" s="90"/>
-      <c r="AN73" s="90"/>
-      <c r="AO73" s="90"/>
-      <c r="AP73" s="90"/>
-      <c r="AQ73" s="90"/>
-      <c r="AR73" s="90"/>
-      <c r="AS73" s="90"/>
-      <c r="AT73" s="90"/>
-      <c r="AU73" s="90"/>
-      <c r="AV73" s="90"/>
-      <c r="AW73" s="90"/>
-      <c r="AX73" s="90"/>
-      <c r="AY73" s="90"/>
-      <c r="AZ73" s="90"/>
-      <c r="BA73" s="90"/>
-      <c r="BB73" s="90"/>
-      <c r="BC73" s="90"/>
-      <c r="BD73" s="90"/>
-      <c r="BE73" s="91"/>
+      <c r="AA73" s="96"/>
+      <c r="AB73" s="96"/>
+      <c r="AC73" s="96"/>
+      <c r="AD73" s="96"/>
+      <c r="AE73" s="96"/>
+      <c r="AF73" s="96"/>
+      <c r="AG73" s="96"/>
+      <c r="AH73" s="96"/>
+      <c r="AI73" s="96"/>
+      <c r="AJ73" s="96"/>
+      <c r="AK73" s="96"/>
+      <c r="AL73" s="96"/>
+      <c r="AM73" s="96"/>
+      <c r="AN73" s="96"/>
+      <c r="AO73" s="96"/>
+      <c r="AP73" s="96"/>
+      <c r="AQ73" s="96"/>
+      <c r="AR73" s="96"/>
+      <c r="AS73" s="96"/>
+      <c r="AT73" s="96"/>
+      <c r="AU73" s="96"/>
+      <c r="AV73" s="96"/>
+      <c r="AW73" s="96"/>
+      <c r="AX73" s="96"/>
+      <c r="AY73" s="96"/>
+      <c r="AZ73" s="96"/>
+      <c r="BA73" s="96"/>
+      <c r="BB73" s="96"/>
+      <c r="BC73" s="96"/>
+      <c r="BD73" s="96"/>
+      <c r="BE73" s="97"/>
       <c r="BF73" s="41" t="s">
         <v>92</v>
       </c>
@@ -8931,17 +9022,103 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="AT60:AW60"/>
-    <mergeCell ref="AX60:BC60"/>
-    <mergeCell ref="BD60:BE60"/>
-    <mergeCell ref="BF60:BU60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="N61:AE61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:M60"/>
-    <mergeCell ref="N60:AE60"/>
-    <mergeCell ref="AF60:AN60"/>
-    <mergeCell ref="AO60:AS60"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:Y73"/>
+    <mergeCell ref="Z73:BE73"/>
+    <mergeCell ref="BF55:BU55"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="N64:AE64"/>
+    <mergeCell ref="AF64:AN64"/>
+    <mergeCell ref="AO64:AS64"/>
+    <mergeCell ref="AT64:AW64"/>
+    <mergeCell ref="AX64:BC64"/>
+    <mergeCell ref="BD64:BE64"/>
+    <mergeCell ref="BF64:BU64"/>
+    <mergeCell ref="AT62:AW62"/>
+    <mergeCell ref="AX62:BC62"/>
+    <mergeCell ref="BF62:BU62"/>
+    <mergeCell ref="Z72:BE72"/>
+    <mergeCell ref="AO63:AS63"/>
+    <mergeCell ref="AT63:AW63"/>
+    <mergeCell ref="AO62:AS62"/>
+    <mergeCell ref="BD62:BE62"/>
+    <mergeCell ref="AT57:AW57"/>
+    <mergeCell ref="AX57:BC57"/>
+    <mergeCell ref="BD57:BE57"/>
+    <mergeCell ref="BF57:BU57"/>
+    <mergeCell ref="BF68:BU68"/>
+    <mergeCell ref="BF63:BU63"/>
+    <mergeCell ref="N50:AE50"/>
+    <mergeCell ref="AF50:AN50"/>
+    <mergeCell ref="AO50:AS50"/>
+    <mergeCell ref="AT50:AW50"/>
+    <mergeCell ref="AX50:BC50"/>
+    <mergeCell ref="BD50:BE50"/>
+    <mergeCell ref="BF50:BU50"/>
+    <mergeCell ref="N55:AE55"/>
+    <mergeCell ref="AF55:AN55"/>
+    <mergeCell ref="AO55:AS55"/>
+    <mergeCell ref="AT55:AW55"/>
+    <mergeCell ref="BF56:BU56"/>
+    <mergeCell ref="N63:AE63"/>
+    <mergeCell ref="AF63:AN63"/>
+    <mergeCell ref="AX63:BC63"/>
+    <mergeCell ref="BD63:BE63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="BD55:BE55"/>
+    <mergeCell ref="AF62:AN62"/>
+    <mergeCell ref="BQ15:BS15"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="BD49:BE49"/>
+    <mergeCell ref="BD51:BE51"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E48:M48"/>
+    <mergeCell ref="E56:M56"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E72:Y72"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="N62:AE62"/>
+    <mergeCell ref="N48:AE48"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="N51:AE51"/>
+    <mergeCell ref="N49:AE49"/>
+    <mergeCell ref="BF48:BU48"/>
+    <mergeCell ref="BF49:BU49"/>
+    <mergeCell ref="BF51:BU51"/>
+    <mergeCell ref="AF48:AN48"/>
+    <mergeCell ref="AF49:AN49"/>
+    <mergeCell ref="AF51:AN51"/>
+    <mergeCell ref="AO48:AS48"/>
+    <mergeCell ref="AO49:AS49"/>
+    <mergeCell ref="AO51:AS51"/>
+    <mergeCell ref="AX51:BC51"/>
+    <mergeCell ref="BD48:BE48"/>
+    <mergeCell ref="BD56:BE56"/>
+    <mergeCell ref="AT48:AW48"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AT56:AW56"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="AX49:BC49"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:M57"/>
+    <mergeCell ref="N57:AE57"/>
+    <mergeCell ref="AF57:AN57"/>
+    <mergeCell ref="AO57:AS57"/>
+    <mergeCell ref="N56:AE56"/>
+    <mergeCell ref="AF56:AN56"/>
+    <mergeCell ref="AO56:AS56"/>
+    <mergeCell ref="AX55:BC55"/>
+    <mergeCell ref="AX56:BC56"/>
     <mergeCell ref="AT58:AW58"/>
     <mergeCell ref="AX58:BC58"/>
     <mergeCell ref="BD58:BE58"/>
@@ -8960,107 +9137,21 @@
     <mergeCell ref="N58:AE58"/>
     <mergeCell ref="AF58:AN58"/>
     <mergeCell ref="AO58:AS58"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:M57"/>
-    <mergeCell ref="N57:AE57"/>
-    <mergeCell ref="AF57:AN57"/>
-    <mergeCell ref="AO57:AS57"/>
-    <mergeCell ref="N56:AE56"/>
-    <mergeCell ref="AF56:AN56"/>
-    <mergeCell ref="AO56:AS56"/>
-    <mergeCell ref="AX55:BC55"/>
-    <mergeCell ref="BD55:BE55"/>
-    <mergeCell ref="AF62:AN62"/>
-    <mergeCell ref="AO62:AS62"/>
-    <mergeCell ref="BF48:BU48"/>
-    <mergeCell ref="BF49:BU49"/>
-    <mergeCell ref="BF51:BU51"/>
-    <mergeCell ref="AF48:AN48"/>
-    <mergeCell ref="AF49:AN49"/>
-    <mergeCell ref="AF51:AN51"/>
-    <mergeCell ref="AO48:AS48"/>
-    <mergeCell ref="AO49:AS49"/>
-    <mergeCell ref="AO51:AS51"/>
-    <mergeCell ref="BD62:BE62"/>
-    <mergeCell ref="AT57:AW57"/>
-    <mergeCell ref="AX57:BC57"/>
-    <mergeCell ref="BD57:BE57"/>
-    <mergeCell ref="BF57:BU57"/>
-    <mergeCell ref="BD56:BE56"/>
-    <mergeCell ref="AT48:AW48"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AT56:AW56"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="AX49:BC49"/>
-    <mergeCell ref="AX51:BC51"/>
-    <mergeCell ref="AX56:BC56"/>
-    <mergeCell ref="BD48:BE48"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E48:M48"/>
-    <mergeCell ref="E56:M56"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E72:Y72"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="N62:AE62"/>
-    <mergeCell ref="N48:AE48"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="N51:AE51"/>
-    <mergeCell ref="N49:AE49"/>
-    <mergeCell ref="AX63:BC63"/>
-    <mergeCell ref="BD63:BE63"/>
-    <mergeCell ref="BF63:BU63"/>
-    <mergeCell ref="Z72:BE72"/>
-    <mergeCell ref="N50:AE50"/>
-    <mergeCell ref="AF50:AN50"/>
-    <mergeCell ref="AO50:AS50"/>
-    <mergeCell ref="AT50:AW50"/>
-    <mergeCell ref="AX50:BC50"/>
-    <mergeCell ref="BD50:BE50"/>
-    <mergeCell ref="BF50:BU50"/>
-    <mergeCell ref="N55:AE55"/>
-    <mergeCell ref="AF55:AN55"/>
-    <mergeCell ref="AO55:AS55"/>
-    <mergeCell ref="AT55:AW55"/>
-    <mergeCell ref="BF56:BU56"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="N63:AE63"/>
-    <mergeCell ref="AF63:AN63"/>
-    <mergeCell ref="AO63:AS63"/>
-    <mergeCell ref="AT63:AW63"/>
-    <mergeCell ref="BQ15:BS15"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="BD49:BE49"/>
-    <mergeCell ref="BD51:BE51"/>
-    <mergeCell ref="BF68:BU68"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:Y73"/>
-    <mergeCell ref="Z73:BE73"/>
-    <mergeCell ref="BF55:BU55"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="N64:AE64"/>
-    <mergeCell ref="AF64:AN64"/>
-    <mergeCell ref="AO64:AS64"/>
-    <mergeCell ref="AT64:AW64"/>
-    <mergeCell ref="AX64:BC64"/>
-    <mergeCell ref="BD64:BE64"/>
-    <mergeCell ref="BF64:BU64"/>
-    <mergeCell ref="AT62:AW62"/>
-    <mergeCell ref="AX62:BC62"/>
-    <mergeCell ref="BF62:BU62"/>
+    <mergeCell ref="AT60:AW60"/>
+    <mergeCell ref="AX60:BC60"/>
+    <mergeCell ref="BD60:BE60"/>
+    <mergeCell ref="BF60:BU60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="N61:AE61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:M60"/>
+    <mergeCell ref="N60:AE60"/>
+    <mergeCell ref="AF60:AN60"/>
+    <mergeCell ref="AO60:AS60"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="44" max="73" man="1"/>
     <brk id="69" max="73" man="1"/>
